--- a/streamlit/housesTRIAL.xlsx
+++ b/streamlit/housesTRIAL.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E852"/>
+  <dimension ref="A1:E853"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -18094,100 +18094,100 @@
     <row r="655">
       <c r="A655" t="inlineStr">
         <is>
-          <t>3 000 000</t>
+          <t>150 000</t>
         </is>
       </c>
       <c r="B655" t="inlineStr">
         <is>
-          <t>640</t>
+          <t>54</t>
         </is>
       </c>
       <c r="C655" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D655" t="inlineStr"/>
       <c r="E655" t="inlineStr">
         <is>
-          <t>https://www.greatforest.hu/property/101126-debrecen-city-center-office-not-in-office-building</t>
+          <t>https://www.greatforest.hu/property/100958-debrecen-close-to-tesco-area-block-of-flats</t>
         </is>
       </c>
     </row>
     <row r="656">
       <c r="A656" t="inlineStr">
         <is>
-          <t>25 000</t>
+          <t>3 000 000</t>
         </is>
       </c>
       <c r="B656" t="inlineStr">
         <is>
-          <t>25</t>
-        </is>
-      </c>
-      <c r="C656" t="inlineStr"/>
+          <t>640</t>
+        </is>
+      </c>
+      <c r="C656" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
       <c r="D656" t="inlineStr"/>
       <c r="E656" t="inlineStr">
         <is>
-          <t>https://www.greatforest.hu/property/101121-debrecen-greatforest-area-garage-individual-garage</t>
+          <t>https://www.greatforest.hu/property/101126-debrecen-city-center-office-not-in-office-building</t>
         </is>
       </c>
     </row>
     <row r="657">
       <c r="A657" t="inlineStr">
         <is>
-          <t>300 000</t>
+          <t>25 000</t>
         </is>
       </c>
       <c r="B657" t="inlineStr">
         <is>
-          <t>96</t>
-        </is>
-      </c>
-      <c r="C657" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="C657" t="inlineStr"/>
       <c r="D657" t="inlineStr"/>
       <c r="E657" t="inlineStr">
         <is>
-          <t>https://www.greatforest.hu/property/41027-debrecen-close-to-bem-square-flat</t>
+          <t>https://www.greatforest.hu/property/101121-debrecen-greatforest-area-garage-individual-garage</t>
         </is>
       </c>
     </row>
     <row r="658">
       <c r="A658" t="inlineStr">
         <is>
-          <t>155 000</t>
+          <t>300 000</t>
         </is>
       </c>
       <c r="B658" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>96</t>
         </is>
       </c>
       <c r="C658" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>4</t>
         </is>
       </c>
       <c r="D658" t="inlineStr"/>
       <c r="E658" t="inlineStr">
         <is>
-          <t>https://www.greatforest.hu/property/54030-debrecen-greatforest-area-flat</t>
+          <t>https://www.greatforest.hu/property/41027-debrecen-city-center-flat</t>
         </is>
       </c>
     </row>
     <row r="659">
       <c r="A659" t="inlineStr">
         <is>
-          <t>300 000</t>
+          <t>155 000</t>
         </is>
       </c>
       <c r="B659" t="inlineStr">
         <is>
-          <t>55</t>
+          <t>51</t>
         </is>
       </c>
       <c r="C659" t="inlineStr">
@@ -18198,19 +18198,19 @@
       <c r="D659" t="inlineStr"/>
       <c r="E659" t="inlineStr">
         <is>
-          <t>https://www.greatforest.hu/property/42340-debrecen-kassai-campus-area-flat</t>
+          <t>https://www.greatforest.hu/property/54030-debrecen-greatforest-area-flat</t>
         </is>
       </c>
     </row>
     <row r="660">
       <c r="A660" t="inlineStr">
         <is>
-          <t>150 000</t>
+          <t>300 000</t>
         </is>
       </c>
       <c r="B660" t="inlineStr">
         <is>
-          <t>43</t>
+          <t>55</t>
         </is>
       </c>
       <c r="C660" t="inlineStr">
@@ -18221,7 +18221,7 @@
       <c r="D660" t="inlineStr"/>
       <c r="E660" t="inlineStr">
         <is>
-          <t>https://www.greatforest.hu/property/101057-debrecen-flat</t>
+          <t>https://www.greatforest.hu/property/42340-debrecen-kassai-campus-area-flat</t>
         </is>
       </c>
     </row>
@@ -18233,7 +18233,7 @@
       </c>
       <c r="B661" t="inlineStr">
         <is>
-          <t>44</t>
+          <t>43</t>
         </is>
       </c>
       <c r="C661" t="inlineStr">
@@ -18244,53 +18244,53 @@
       <c r="D661" t="inlineStr"/>
       <c r="E661" t="inlineStr">
         <is>
-          <t>https://www.greatforest.hu/property/101018-debrecen-close-to-tesco-area-block-of-flats</t>
+          <t>https://www.greatforest.hu/property/101057-debrecen-flat</t>
         </is>
       </c>
     </row>
     <row r="662">
       <c r="A662" t="inlineStr">
         <is>
-          <t>180 000</t>
+          <t>150 000</t>
         </is>
       </c>
       <c r="B662" t="inlineStr">
         <is>
-          <t>78</t>
+          <t>44</t>
         </is>
       </c>
       <c r="C662" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D662" t="inlineStr"/>
       <c r="E662" t="inlineStr">
         <is>
-          <t>https://www.greatforest.hu/property/80392-debrecen-greatforest-area-flat</t>
+          <t>https://www.greatforest.hu/property/101018-debrecen-close-to-tesco-area-block-of-flats</t>
         </is>
       </c>
     </row>
     <row r="663">
       <c r="A663" t="inlineStr">
         <is>
-          <t>210 000</t>
+          <t>180 000</t>
         </is>
       </c>
       <c r="B663" t="inlineStr">
         <is>
-          <t>53</t>
+          <t>78</t>
         </is>
       </c>
       <c r="C663" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D663" t="inlineStr"/>
       <c r="E663" t="inlineStr">
         <is>
-          <t>https://www.greatforest.hu/property/89189-debrecen-city-center-flat</t>
+          <t>https://www.greatforest.hu/property/80392-debrecen-greatforest-area-flat</t>
         </is>
       </c>
     </row>
@@ -18298,18 +18298,18 @@
       <c r="A664" t="inlineStr"/>
       <c r="B664" t="inlineStr">
         <is>
-          <t>640</t>
+          <t>140</t>
         </is>
       </c>
       <c r="C664" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>5</t>
         </is>
       </c>
       <c r="D664" t="inlineStr"/>
       <c r="E664" t="inlineStr">
         <is>
-          <t>https://www.greatforest.hu/property/101126-debrecen-city-center-office-not-in-office-building</t>
+          <t>https://www.greatforest.hu/property/101048-hajduszoboszlo-family-house</t>
         </is>
       </c>
     </row>
@@ -18317,14 +18317,18 @@
       <c r="A665" t="inlineStr"/>
       <c r="B665" t="inlineStr">
         <is>
-          <t>25</t>
-        </is>
-      </c>
-      <c r="C665" t="inlineStr"/>
+          <t>54</t>
+        </is>
+      </c>
+      <c r="C665" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
       <c r="D665" t="inlineStr"/>
       <c r="E665" t="inlineStr">
         <is>
-          <t>https://www.greatforest.hu/property/101121-debrecen-greatforest-area-garage-individual-garage</t>
+          <t>https://www.greatforest.hu/property/100958-debrecen-close-to-tesco-area-block-of-flats</t>
         </is>
       </c>
     </row>
@@ -18332,18 +18336,18 @@
       <c r="A666" t="inlineStr"/>
       <c r="B666" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>74</t>
         </is>
       </c>
       <c r="C666" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D666" t="inlineStr"/>
       <c r="E666" t="inlineStr">
         <is>
-          <t>https://www.greatforest.hu/property/41027-debrecen-close-to-bem-square-flat</t>
+          <t>https://www.greatforest.hu/property/100009-debrecen-city-east-family-house</t>
         </is>
       </c>
     </row>
@@ -18351,18 +18355,18 @@
       <c r="A667" t="inlineStr"/>
       <c r="B667" t="inlineStr">
         <is>
-          <t>67</t>
+          <t>60</t>
         </is>
       </c>
       <c r="C667" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D667" t="inlineStr"/>
       <c r="E667" t="inlineStr">
         <is>
-          <t>https://www.greatforest.hu/property/101104-debrecen-close-to-tesco-area-block-of-flats</t>
+          <t>https://www.greatforest.hu/property/99898-hajdusamson-family-house</t>
         </is>
       </c>
     </row>
@@ -18370,18 +18374,18 @@
       <c r="A668" t="inlineStr"/>
       <c r="B668" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>640</t>
         </is>
       </c>
       <c r="C668" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>12</t>
         </is>
       </c>
       <c r="D668" t="inlineStr"/>
       <c r="E668" t="inlineStr">
         <is>
-          <t>https://www.greatforest.hu/property/54030-debrecen-greatforest-area-flat</t>
+          <t>https://www.greatforest.hu/property/101126-debrecen-city-center-office-not-in-office-building</t>
         </is>
       </c>
     </row>
@@ -18389,18 +18393,14 @@
       <c r="A669" t="inlineStr"/>
       <c r="B669" t="inlineStr">
         <is>
-          <t>55</t>
-        </is>
-      </c>
-      <c r="C669" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="C669" t="inlineStr"/>
       <c r="D669" t="inlineStr"/>
       <c r="E669" t="inlineStr">
         <is>
-          <t>https://www.greatforest.hu/property/42340-debrecen-kassai-campus-area-flat</t>
+          <t>https://www.greatforest.hu/property/101121-debrecen-greatforest-area-garage-individual-garage</t>
         </is>
       </c>
     </row>
@@ -18408,14 +18408,18 @@
       <c r="A670" t="inlineStr"/>
       <c r="B670" t="inlineStr">
         <is>
-          <t>2000</t>
-        </is>
-      </c>
-      <c r="C670" t="inlineStr"/>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="C670" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
       <c r="D670" t="inlineStr"/>
       <c r="E670" t="inlineStr">
         <is>
-          <t>https://www.greatforest.hu/property/100306-debrecen-city-south-east-industrial-building</t>
+          <t>https://www.greatforest.hu/property/41027-debrecen-city-center-flat</t>
         </is>
       </c>
     </row>
@@ -18423,30 +18427,30 @@
       <c r="A671" t="inlineStr"/>
       <c r="B671" t="inlineStr">
         <is>
-          <t>43</t>
+          <t>67</t>
         </is>
       </c>
       <c r="C671" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D671" t="inlineStr"/>
       <c r="E671" t="inlineStr">
         <is>
-          <t>https://www.greatforest.hu/property/101057-debrecen-flat</t>
+          <t>https://www.greatforest.hu/property/101104-debrecen-close-to-tesco-area-block-of-flats</t>
         </is>
       </c>
     </row>
     <row r="672">
       <c r="A672" t="inlineStr">
         <is>
-          <t>160 000</t>
+          <t>210 000</t>
         </is>
       </c>
       <c r="B672" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>53</t>
         </is>
       </c>
       <c r="C672" t="inlineStr">
@@ -18457,53 +18461,53 @@
       <c r="D672" t="inlineStr"/>
       <c r="E672" t="inlineStr">
         <is>
-          <t>https://www.greatforest.hu/property/100954-debrecen-city-center-flat</t>
+          <t>https://www.greatforest.hu/property/89189-debrecen-city-center-flat</t>
         </is>
       </c>
     </row>
     <row r="673">
       <c r="A673" t="inlineStr">
         <is>
-          <t>270 000</t>
+          <t>160 000</t>
         </is>
       </c>
       <c r="B673" t="inlineStr">
         <is>
-          <t>70</t>
+          <t>50</t>
         </is>
       </c>
       <c r="C673" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D673" t="inlineStr"/>
       <c r="E673" t="inlineStr">
         <is>
-          <t>https://www.greatforest.hu/property/100658-debrecen-close-to-tesco-area-flat</t>
+          <t>https://www.greatforest.hu/property/100954-debrecen-city-center-flat</t>
         </is>
       </c>
     </row>
     <row r="674">
       <c r="A674" t="inlineStr">
         <is>
-          <t>130 000</t>
+          <t>270 000</t>
         </is>
       </c>
       <c r="B674" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>70</t>
         </is>
       </c>
       <c r="C674" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D674" t="inlineStr"/>
       <c r="E674" t="inlineStr">
         <is>
-          <t>https://www.greatforest.hu/property/100649-debrecen-city-center-office-not-in-office-building</t>
+          <t>https://www.greatforest.hu/property/100658-debrecen-close-to-tesco-area-flat</t>
         </is>
       </c>
     </row>
@@ -18526,84 +18530,84 @@
       <c r="D675" t="inlineStr"/>
       <c r="E675" t="inlineStr">
         <is>
-          <t>https://www.greatforest.hu/property/100624-debrecen-city-center-part-of-a-house</t>
+          <t>https://www.greatforest.hu/property/100649-debrecen-city-center-office-not-in-office-building</t>
         </is>
       </c>
     </row>
     <row r="676">
       <c r="A676" t="inlineStr">
         <is>
-          <t>140 000</t>
+          <t>130 000</t>
         </is>
       </c>
       <c r="B676" t="inlineStr">
         <is>
-          <t>55</t>
+          <t>50</t>
         </is>
       </c>
       <c r="C676" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D676" t="inlineStr"/>
       <c r="E676" t="inlineStr">
         <is>
-          <t>https://www.greatforest.hu/property/100631-debrecen-flat</t>
+          <t>https://www.greatforest.hu/property/100624-debrecen-city-center-part-of-a-house</t>
         </is>
       </c>
     </row>
     <row r="677">
       <c r="A677" t="inlineStr">
         <is>
-          <t>1 800 000</t>
+          <t>140 000</t>
         </is>
       </c>
       <c r="B677" t="inlineStr">
         <is>
-          <t>1400</t>
-        </is>
-      </c>
-      <c r="C677" t="inlineStr"/>
+          <t>55</t>
+        </is>
+      </c>
+      <c r="C677" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
       <c r="D677" t="inlineStr"/>
       <c r="E677" t="inlineStr">
         <is>
-          <t>https://www.greatforest.hu/property/100619-debrecen-city-center-commercial-premises-not-in-shopping-center</t>
+          <t>https://www.greatforest.hu/property/100631-debrecen-flat</t>
         </is>
       </c>
     </row>
     <row r="678">
       <c r="A678" t="inlineStr">
         <is>
-          <t>140 000</t>
+          <t>1 800 000</t>
         </is>
       </c>
       <c r="B678" t="inlineStr">
         <is>
-          <t>58</t>
-        </is>
-      </c>
-      <c r="C678" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
+          <t>1400</t>
+        </is>
+      </c>
+      <c r="C678" t="inlineStr"/>
       <c r="D678" t="inlineStr"/>
       <c r="E678" t="inlineStr">
         <is>
-          <t>https://www.greatforest.hu/property/100442-debrecen-city-center-part-of-a-house</t>
+          <t>https://www.greatforest.hu/property/100619-debrecen-city-center-commercial-premises-not-in-shopping-center</t>
         </is>
       </c>
     </row>
     <row r="679">
       <c r="A679" t="inlineStr">
         <is>
-          <t>160 000</t>
+          <t>140 000</t>
         </is>
       </c>
       <c r="B679" t="inlineStr">
         <is>
-          <t>54</t>
+          <t>58</t>
         </is>
       </c>
       <c r="C679" t="inlineStr">
@@ -18614,14 +18618,14 @@
       <c r="D679" t="inlineStr"/>
       <c r="E679" t="inlineStr">
         <is>
-          <t>https://www.greatforest.hu/property/100444-debrecen-close-to-main-campus-agricult-unversity-block-of-flats</t>
+          <t>https://www.greatforest.hu/property/100442-debrecen-city-center-part-of-a-house</t>
         </is>
       </c>
     </row>
     <row r="680">
       <c r="A680" t="inlineStr">
         <is>
-          <t>280 000</t>
+          <t>160 000</t>
         </is>
       </c>
       <c r="B680" t="inlineStr">
@@ -18629,11 +18633,15 @@
           <t>54</t>
         </is>
       </c>
-      <c r="C680" t="inlineStr"/>
+      <c r="C680" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
       <c r="D680" t="inlineStr"/>
       <c r="E680" t="inlineStr">
         <is>
-          <t>https://www.greatforest.hu/property/100468-debrecen-city-center-commercial-premises-not-in-shopping-center</t>
+          <t>https://www.greatforest.hu/property/100444-debrecen-close-to-main-campus-agricult-unversity-block-of-flats</t>
         </is>
       </c>
     </row>
@@ -18641,18 +18649,18 @@
       <c r="A681" t="inlineStr"/>
       <c r="B681" t="inlineStr">
         <is>
-          <t>640</t>
+          <t>140</t>
         </is>
       </c>
       <c r="C681" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>5</t>
         </is>
       </c>
       <c r="D681" t="inlineStr"/>
       <c r="E681" t="inlineStr">
         <is>
-          <t>https://www.greatforest.hu/property/101126-debrecen-city-center-office-not-in-office-building</t>
+          <t>https://www.greatforest.hu/property/101048-hajduszoboszlo-family-house</t>
         </is>
       </c>
     </row>
@@ -18660,14 +18668,18 @@
       <c r="A682" t="inlineStr"/>
       <c r="B682" t="inlineStr">
         <is>
-          <t>25</t>
-        </is>
-      </c>
-      <c r="C682" t="inlineStr"/>
+          <t>54</t>
+        </is>
+      </c>
+      <c r="C682" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
       <c r="D682" t="inlineStr"/>
       <c r="E682" t="inlineStr">
         <is>
-          <t>https://www.greatforest.hu/property/101121-debrecen-greatforest-area-garage-individual-garage</t>
+          <t>https://www.greatforest.hu/property/100958-debrecen-close-to-tesco-area-block-of-flats</t>
         </is>
       </c>
     </row>
@@ -18675,18 +18687,18 @@
       <c r="A683" t="inlineStr"/>
       <c r="B683" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>74</t>
         </is>
       </c>
       <c r="C683" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D683" t="inlineStr"/>
       <c r="E683" t="inlineStr">
         <is>
-          <t>https://www.greatforest.hu/property/41027-debrecen-close-to-bem-square-flat</t>
+          <t>https://www.greatforest.hu/property/100009-debrecen-city-east-family-house</t>
         </is>
       </c>
     </row>
@@ -18694,18 +18706,18 @@
       <c r="A684" t="inlineStr"/>
       <c r="B684" t="inlineStr">
         <is>
-          <t>67</t>
+          <t>60</t>
         </is>
       </c>
       <c r="C684" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D684" t="inlineStr"/>
       <c r="E684" t="inlineStr">
         <is>
-          <t>https://www.greatforest.hu/property/101104-debrecen-close-to-tesco-area-block-of-flats</t>
+          <t>https://www.greatforest.hu/property/99898-hajdusamson-family-house</t>
         </is>
       </c>
     </row>
@@ -18713,18 +18725,18 @@
       <c r="A685" t="inlineStr"/>
       <c r="B685" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>640</t>
         </is>
       </c>
       <c r="C685" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>12</t>
         </is>
       </c>
       <c r="D685" t="inlineStr"/>
       <c r="E685" t="inlineStr">
         <is>
-          <t>https://www.greatforest.hu/property/54030-debrecen-greatforest-area-flat</t>
+          <t>https://www.greatforest.hu/property/101126-debrecen-city-center-office-not-in-office-building</t>
         </is>
       </c>
     </row>
@@ -18732,18 +18744,14 @@
       <c r="A686" t="inlineStr"/>
       <c r="B686" t="inlineStr">
         <is>
-          <t>55</t>
-        </is>
-      </c>
-      <c r="C686" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="C686" t="inlineStr"/>
       <c r="D686" t="inlineStr"/>
       <c r="E686" t="inlineStr">
         <is>
-          <t>https://www.greatforest.hu/property/42340-debrecen-kassai-campus-area-flat</t>
+          <t>https://www.greatforest.hu/property/101121-debrecen-greatforest-area-garage-individual-garage</t>
         </is>
       </c>
     </row>
@@ -18751,14 +18759,18 @@
       <c r="A687" t="inlineStr"/>
       <c r="B687" t="inlineStr">
         <is>
-          <t>2000</t>
-        </is>
-      </c>
-      <c r="C687" t="inlineStr"/>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="C687" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
       <c r="D687" t="inlineStr"/>
       <c r="E687" t="inlineStr">
         <is>
-          <t>https://www.greatforest.hu/property/100306-debrecen-city-south-east-industrial-building</t>
+          <t>https://www.greatforest.hu/property/41027-debrecen-city-center-flat</t>
         </is>
       </c>
     </row>
@@ -18766,53 +18778,49 @@
       <c r="A688" t="inlineStr"/>
       <c r="B688" t="inlineStr">
         <is>
-          <t>43</t>
+          <t>67</t>
         </is>
       </c>
       <c r="C688" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D688" t="inlineStr"/>
       <c r="E688" t="inlineStr">
         <is>
-          <t>https://www.greatforest.hu/property/101057-debrecen-flat</t>
+          <t>https://www.greatforest.hu/property/101104-debrecen-close-to-tesco-area-block-of-flats</t>
         </is>
       </c>
     </row>
     <row r="689">
       <c r="A689" t="inlineStr">
         <is>
-          <t>160 000</t>
+          <t>280 000</t>
         </is>
       </c>
       <c r="B689" t="inlineStr">
         <is>
-          <t>50</t>
-        </is>
-      </c>
-      <c r="C689" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
+          <t>54</t>
+        </is>
+      </c>
+      <c r="C689" t="inlineStr"/>
       <c r="D689" t="inlineStr"/>
       <c r="E689" t="inlineStr">
         <is>
-          <t>https://www.greatforest.hu/property/100954-debrecen-city-center-flat</t>
+          <t>https://www.greatforest.hu/property/100468-debrecen-city-center-commercial-premises-not-in-shopping-center</t>
         </is>
       </c>
     </row>
     <row r="690">
       <c r="A690" t="inlineStr">
         <is>
-          <t>270 000</t>
+          <t>185 000</t>
         </is>
       </c>
       <c r="B690" t="inlineStr">
         <is>
-          <t>70</t>
+          <t>65</t>
         </is>
       </c>
       <c r="C690" t="inlineStr">
@@ -18823,130 +18831,130 @@
       <c r="D690" t="inlineStr"/>
       <c r="E690" t="inlineStr">
         <is>
-          <t>https://www.greatforest.hu/property/100658-debrecen-close-to-tesco-area-flat</t>
+          <t>https://www.greatforest.hu/property/100277-debrecen-city-center-flat</t>
         </is>
       </c>
     </row>
     <row r="691">
       <c r="A691" t="inlineStr">
         <is>
-          <t>130 000</t>
+          <t>300 000</t>
         </is>
       </c>
       <c r="B691" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>53</t>
         </is>
       </c>
       <c r="C691" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D691" t="inlineStr"/>
       <c r="E691" t="inlineStr">
         <is>
-          <t>https://www.greatforest.hu/property/100649-debrecen-city-center-office-not-in-office-building</t>
+          <t>https://www.greatforest.hu/property/100455-debrecen-flat</t>
         </is>
       </c>
     </row>
     <row r="692">
       <c r="A692" t="inlineStr">
         <is>
-          <t>130 000</t>
+          <t>400 000</t>
         </is>
       </c>
       <c r="B692" t="inlineStr">
         <is>
-          <t>50</t>
-        </is>
-      </c>
-      <c r="C692" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
+          <t>214</t>
+        </is>
+      </c>
+      <c r="C692" t="inlineStr"/>
       <c r="D692" t="inlineStr"/>
       <c r="E692" t="inlineStr">
         <is>
-          <t>https://www.greatforest.hu/property/100624-debrecen-city-center-part-of-a-house</t>
+          <t>https://www.greatforest.hu/property/98597-debrecen-eastern-western-industrial-area-industrial-building</t>
         </is>
       </c>
     </row>
     <row r="693">
       <c r="A693" t="inlineStr">
         <is>
-          <t>140 000</t>
+          <t>200 000</t>
         </is>
       </c>
       <c r="B693" t="inlineStr">
         <is>
-          <t>55</t>
+          <t>100</t>
         </is>
       </c>
       <c r="C693" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>4</t>
         </is>
       </c>
       <c r="D693" t="inlineStr"/>
       <c r="E693" t="inlineStr">
         <is>
-          <t>https://www.greatforest.hu/property/100631-debrecen-flat</t>
+          <t>https://www.greatforest.hu/property/20816-debrecen-city-north-part-of-a-house</t>
         </is>
       </c>
     </row>
     <row r="694">
       <c r="A694" t="inlineStr">
         <is>
-          <t>1 800 000</t>
+          <t>375 000</t>
         </is>
       </c>
       <c r="B694" t="inlineStr">
         <is>
-          <t>1400</t>
-        </is>
-      </c>
-      <c r="C694" t="inlineStr"/>
+          <t>82</t>
+        </is>
+      </c>
+      <c r="C694" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
       <c r="D694" t="inlineStr"/>
       <c r="E694" t="inlineStr">
         <is>
-          <t>https://www.greatforest.hu/property/100619-debrecen-city-center-commercial-premises-not-in-shopping-center</t>
+          <t>https://www.greatforest.hu/property/96519-debrecen-greatforest-area-flat</t>
         </is>
       </c>
     </row>
     <row r="695">
       <c r="A695" t="inlineStr">
         <is>
-          <t>140 000</t>
+          <t>490 000</t>
         </is>
       </c>
       <c r="B695" t="inlineStr">
         <is>
-          <t>58</t>
+          <t>288</t>
         </is>
       </c>
       <c r="C695" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>4</t>
         </is>
       </c>
       <c r="D695" t="inlineStr"/>
       <c r="E695" t="inlineStr">
         <is>
-          <t>https://www.greatforest.hu/property/100442-debrecen-city-center-part-of-a-house</t>
+          <t>https://www.greatforest.hu/property/100132-debrecen-close-to-bem-square-family-house</t>
         </is>
       </c>
     </row>
     <row r="696">
       <c r="A696" t="inlineStr">
         <is>
-          <t>160 000</t>
+          <t>290 000</t>
         </is>
       </c>
       <c r="B696" t="inlineStr">
         <is>
-          <t>54</t>
+          <t>136</t>
         </is>
       </c>
       <c r="C696" t="inlineStr">
@@ -18957,26 +18965,30 @@
       <c r="D696" t="inlineStr"/>
       <c r="E696" t="inlineStr">
         <is>
-          <t>https://www.greatforest.hu/property/100444-debrecen-close-to-main-campus-agricult-unversity-block-of-flats</t>
+          <t>https://www.greatforest.hu/property/65827-debrecen-close-to-bem-square-part-of-a-house</t>
         </is>
       </c>
     </row>
     <row r="697">
       <c r="A697" t="inlineStr">
         <is>
-          <t>280 000</t>
+          <t>130 000</t>
         </is>
       </c>
       <c r="B697" t="inlineStr">
         <is>
-          <t>54</t>
-        </is>
-      </c>
-      <c r="C697" t="inlineStr"/>
+          <t>45</t>
+        </is>
+      </c>
+      <c r="C697" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
       <c r="D697" t="inlineStr"/>
       <c r="E697" t="inlineStr">
         <is>
-          <t>https://www.greatforest.hu/property/100468-debrecen-city-center-commercial-premises-not-in-shopping-center</t>
+          <t>https://www.greatforest.hu/property/84773-debrecen-close-to-plaza-office-not-in-office-building</t>
         </is>
       </c>
     </row>
@@ -18984,18 +18996,18 @@
       <c r="A698" t="inlineStr"/>
       <c r="B698" t="inlineStr">
         <is>
-          <t>640</t>
+          <t>140</t>
         </is>
       </c>
       <c r="C698" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>5</t>
         </is>
       </c>
       <c r="D698" t="inlineStr"/>
       <c r="E698" t="inlineStr">
         <is>
-          <t>https://www.greatforest.hu/property/101126-debrecen-city-center-office-not-in-office-building</t>
+          <t>https://www.greatforest.hu/property/101048-hajduszoboszlo-family-house</t>
         </is>
       </c>
     </row>
@@ -19003,14 +19015,18 @@
       <c r="A699" t="inlineStr"/>
       <c r="B699" t="inlineStr">
         <is>
-          <t>25</t>
-        </is>
-      </c>
-      <c r="C699" t="inlineStr"/>
+          <t>54</t>
+        </is>
+      </c>
+      <c r="C699" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
       <c r="D699" t="inlineStr"/>
       <c r="E699" t="inlineStr">
         <is>
-          <t>https://www.greatforest.hu/property/101121-debrecen-greatforest-area-garage-individual-garage</t>
+          <t>https://www.greatforest.hu/property/100958-debrecen-close-to-tesco-area-block-of-flats</t>
         </is>
       </c>
     </row>
@@ -19018,18 +19034,18 @@
       <c r="A700" t="inlineStr"/>
       <c r="B700" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>74</t>
         </is>
       </c>
       <c r="C700" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D700" t="inlineStr"/>
       <c r="E700" t="inlineStr">
         <is>
-          <t>https://www.greatforest.hu/property/41027-debrecen-close-to-bem-square-flat</t>
+          <t>https://www.greatforest.hu/property/100009-debrecen-city-east-family-house</t>
         </is>
       </c>
     </row>
@@ -19037,18 +19053,18 @@
       <c r="A701" t="inlineStr"/>
       <c r="B701" t="inlineStr">
         <is>
-          <t>67</t>
+          <t>60</t>
         </is>
       </c>
       <c r="C701" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D701" t="inlineStr"/>
       <c r="E701" t="inlineStr">
         <is>
-          <t>https://www.greatforest.hu/property/101104-debrecen-close-to-tesco-area-block-of-flats</t>
+          <t>https://www.greatforest.hu/property/99898-hajdusamson-family-house</t>
         </is>
       </c>
     </row>
@@ -19056,18 +19072,18 @@
       <c r="A702" t="inlineStr"/>
       <c r="B702" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>640</t>
         </is>
       </c>
       <c r="C702" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>12</t>
         </is>
       </c>
       <c r="D702" t="inlineStr"/>
       <c r="E702" t="inlineStr">
         <is>
-          <t>https://www.greatforest.hu/property/54030-debrecen-greatforest-area-flat</t>
+          <t>https://www.greatforest.hu/property/101126-debrecen-city-center-office-not-in-office-building</t>
         </is>
       </c>
     </row>
@@ -19075,18 +19091,14 @@
       <c r="A703" t="inlineStr"/>
       <c r="B703" t="inlineStr">
         <is>
-          <t>55</t>
-        </is>
-      </c>
-      <c r="C703" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="C703" t="inlineStr"/>
       <c r="D703" t="inlineStr"/>
       <c r="E703" t="inlineStr">
         <is>
-          <t>https://www.greatforest.hu/property/42340-debrecen-kassai-campus-area-flat</t>
+          <t>https://www.greatforest.hu/property/101121-debrecen-greatforest-area-garage-individual-garage</t>
         </is>
       </c>
     </row>
@@ -19094,14 +19106,18 @@
       <c r="A704" t="inlineStr"/>
       <c r="B704" t="inlineStr">
         <is>
-          <t>2000</t>
-        </is>
-      </c>
-      <c r="C704" t="inlineStr"/>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="C704" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
       <c r="D704" t="inlineStr"/>
       <c r="E704" t="inlineStr">
         <is>
-          <t>https://www.greatforest.hu/property/100306-debrecen-city-south-east-industrial-building</t>
+          <t>https://www.greatforest.hu/property/41027-debrecen-city-center-flat</t>
         </is>
       </c>
     </row>
@@ -19109,76 +19125,72 @@
       <c r="A705" t="inlineStr"/>
       <c r="B705" t="inlineStr">
         <is>
-          <t>43</t>
+          <t>67</t>
         </is>
       </c>
       <c r="C705" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D705" t="inlineStr"/>
       <c r="E705" t="inlineStr">
         <is>
-          <t>https://www.greatforest.hu/property/101057-debrecen-flat</t>
+          <t>https://www.greatforest.hu/property/101104-debrecen-close-to-tesco-area-block-of-flats</t>
         </is>
       </c>
     </row>
     <row r="706">
       <c r="A706" t="inlineStr">
         <is>
-          <t>399 000</t>
+          <t>280 000</t>
         </is>
       </c>
       <c r="B706" t="inlineStr">
         <is>
-          <t>42</t>
-        </is>
-      </c>
-      <c r="C706" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
+          <t>54</t>
+        </is>
+      </c>
+      <c r="C706" t="inlineStr"/>
       <c r="D706" t="inlineStr"/>
       <c r="E706" t="inlineStr">
         <is>
-          <t>https://www.greatforest.hu/property/99510-debrecen-close-to-main-campus-flat</t>
+          <t>https://www.greatforest.hu/property/100468-debrecen-city-center-commercial-premises-not-in-shopping-center</t>
         </is>
       </c>
     </row>
     <row r="707">
       <c r="A707" t="inlineStr">
         <is>
-          <t>300 000</t>
+          <t>185 000</t>
         </is>
       </c>
       <c r="B707" t="inlineStr">
         <is>
-          <t>73</t>
+          <t>65</t>
         </is>
       </c>
       <c r="C707" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D707" t="inlineStr"/>
       <c r="E707" t="inlineStr">
         <is>
-          <t>https://www.greatforest.hu/property/99598-debrecen-flat</t>
+          <t>https://www.greatforest.hu/property/100277-debrecen-city-center-flat</t>
         </is>
       </c>
     </row>
     <row r="708">
       <c r="A708" t="inlineStr">
         <is>
-          <t>230 000</t>
+          <t>300 000</t>
         </is>
       </c>
       <c r="B708" t="inlineStr">
         <is>
-          <t>64</t>
+          <t>53</t>
         </is>
       </c>
       <c r="C708" t="inlineStr">
@@ -19189,42 +19201,38 @@
       <c r="D708" t="inlineStr"/>
       <c r="E708" t="inlineStr">
         <is>
-          <t>https://www.greatforest.hu/property/99597-debrecen-flat</t>
+          <t>https://www.greatforest.hu/property/100455-debrecen-flat</t>
         </is>
       </c>
     </row>
     <row r="709">
       <c r="A709" t="inlineStr">
         <is>
-          <t>280 000</t>
+          <t>400 000</t>
         </is>
       </c>
       <c r="B709" t="inlineStr">
         <is>
-          <t>88</t>
-        </is>
-      </c>
-      <c r="C709" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
+          <t>214</t>
+        </is>
+      </c>
+      <c r="C709" t="inlineStr"/>
       <c r="D709" t="inlineStr"/>
       <c r="E709" t="inlineStr">
         <is>
-          <t>https://www.greatforest.hu/property/99595-debrecen-flat</t>
+          <t>https://www.greatforest.hu/property/98597-debrecen-eastern-western-industrial-area-industrial-building</t>
         </is>
       </c>
     </row>
     <row r="710">
       <c r="A710" t="inlineStr">
         <is>
-          <t>270 000</t>
+          <t>200 000</t>
         </is>
       </c>
       <c r="B710" t="inlineStr">
         <is>
-          <t>72</t>
+          <t>100</t>
         </is>
       </c>
       <c r="C710" t="inlineStr">
@@ -19235,19 +19243,19 @@
       <c r="D710" t="inlineStr"/>
       <c r="E710" t="inlineStr">
         <is>
-          <t>https://www.greatforest.hu/property/99593-debrecen-flat</t>
+          <t>https://www.greatforest.hu/property/20816-debrecen-city-north-part-of-a-house</t>
         </is>
       </c>
     </row>
     <row r="711">
       <c r="A711" t="inlineStr">
         <is>
-          <t>280 000</t>
+          <t>375 000</t>
         </is>
       </c>
       <c r="B711" t="inlineStr">
         <is>
-          <t>73</t>
+          <t>82</t>
         </is>
       </c>
       <c r="C711" t="inlineStr">
@@ -19258,76 +19266,76 @@
       <c r="D711" t="inlineStr"/>
       <c r="E711" t="inlineStr">
         <is>
-          <t>https://www.greatforest.hu/property/99590-debrecen-flat</t>
+          <t>https://www.greatforest.hu/property/96519-debrecen-greatforest-area-flat</t>
         </is>
       </c>
     </row>
     <row r="712">
       <c r="A712" t="inlineStr">
         <is>
-          <t>230 000</t>
+          <t>490 000</t>
         </is>
       </c>
       <c r="B712" t="inlineStr">
         <is>
-          <t>64</t>
+          <t>288</t>
         </is>
       </c>
       <c r="C712" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="D712" t="inlineStr"/>
       <c r="E712" t="inlineStr">
         <is>
-          <t>https://www.greatforest.hu/property/99587-debrecen-flat</t>
+          <t>https://www.greatforest.hu/property/100132-debrecen-close-to-bem-square-family-house</t>
         </is>
       </c>
     </row>
     <row r="713">
       <c r="A713" t="inlineStr">
         <is>
-          <t>250 000</t>
+          <t>290 000</t>
         </is>
       </c>
       <c r="B713" t="inlineStr">
         <is>
-          <t>91</t>
+          <t>136</t>
         </is>
       </c>
       <c r="C713" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D713" t="inlineStr"/>
       <c r="E713" t="inlineStr">
         <is>
-          <t>https://www.greatforest.hu/property/99332-debrecen-bem-square-office-in-office-building</t>
+          <t>https://www.greatforest.hu/property/65827-debrecen-close-to-bem-square-part-of-a-house</t>
         </is>
       </c>
     </row>
     <row r="714">
       <c r="A714" t="inlineStr">
         <is>
-          <t>220 000</t>
+          <t>130 000</t>
         </is>
       </c>
       <c r="B714" t="inlineStr">
         <is>
-          <t>38</t>
+          <t>45</t>
         </is>
       </c>
       <c r="C714" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D714" t="inlineStr"/>
       <c r="E714" t="inlineStr">
         <is>
-          <t>https://www.greatforest.hu/property/99213-debrecen-close-to-main-campus-flat</t>
+          <t>https://www.greatforest.hu/property/84773-debrecen-close-to-plaza-office-not-in-office-building</t>
         </is>
       </c>
     </row>
@@ -19335,18 +19343,18 @@
       <c r="A715" t="inlineStr"/>
       <c r="B715" t="inlineStr">
         <is>
-          <t>640</t>
+          <t>140</t>
         </is>
       </c>
       <c r="C715" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>5</t>
         </is>
       </c>
       <c r="D715" t="inlineStr"/>
       <c r="E715" t="inlineStr">
         <is>
-          <t>https://www.greatforest.hu/property/101126-debrecen-city-center-office-not-in-office-building</t>
+          <t>https://www.greatforest.hu/property/101048-hajduszoboszlo-family-house</t>
         </is>
       </c>
     </row>
@@ -19354,14 +19362,18 @@
       <c r="A716" t="inlineStr"/>
       <c r="B716" t="inlineStr">
         <is>
-          <t>25</t>
-        </is>
-      </c>
-      <c r="C716" t="inlineStr"/>
+          <t>54</t>
+        </is>
+      </c>
+      <c r="C716" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
       <c r="D716" t="inlineStr"/>
       <c r="E716" t="inlineStr">
         <is>
-          <t>https://www.greatforest.hu/property/101121-debrecen-greatforest-area-garage-individual-garage</t>
+          <t>https://www.greatforest.hu/property/100958-debrecen-close-to-tesco-area-block-of-flats</t>
         </is>
       </c>
     </row>
@@ -19369,18 +19381,18 @@
       <c r="A717" t="inlineStr"/>
       <c r="B717" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>74</t>
         </is>
       </c>
       <c r="C717" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D717" t="inlineStr"/>
       <c r="E717" t="inlineStr">
         <is>
-          <t>https://www.greatforest.hu/property/41027-debrecen-close-to-bem-square-flat</t>
+          <t>https://www.greatforest.hu/property/100009-debrecen-city-east-family-house</t>
         </is>
       </c>
     </row>
@@ -19388,18 +19400,18 @@
       <c r="A718" t="inlineStr"/>
       <c r="B718" t="inlineStr">
         <is>
-          <t>67</t>
+          <t>60</t>
         </is>
       </c>
       <c r="C718" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D718" t="inlineStr"/>
       <c r="E718" t="inlineStr">
         <is>
-          <t>https://www.greatforest.hu/property/101104-debrecen-close-to-tesco-area-block-of-flats</t>
+          <t>https://www.greatforest.hu/property/99898-hajdusamson-family-house</t>
         </is>
       </c>
     </row>
@@ -19407,18 +19419,18 @@
       <c r="A719" t="inlineStr"/>
       <c r="B719" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>640</t>
         </is>
       </c>
       <c r="C719" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>12</t>
         </is>
       </c>
       <c r="D719" t="inlineStr"/>
       <c r="E719" t="inlineStr">
         <is>
-          <t>https://www.greatforest.hu/property/54030-debrecen-greatforest-area-flat</t>
+          <t>https://www.greatforest.hu/property/101126-debrecen-city-center-office-not-in-office-building</t>
         </is>
       </c>
     </row>
@@ -19426,18 +19438,14 @@
       <c r="A720" t="inlineStr"/>
       <c r="B720" t="inlineStr">
         <is>
-          <t>55</t>
-        </is>
-      </c>
-      <c r="C720" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="C720" t="inlineStr"/>
       <c r="D720" t="inlineStr"/>
       <c r="E720" t="inlineStr">
         <is>
-          <t>https://www.greatforest.hu/property/42340-debrecen-kassai-campus-area-flat</t>
+          <t>https://www.greatforest.hu/property/101121-debrecen-greatforest-area-garage-individual-garage</t>
         </is>
       </c>
     </row>
@@ -19445,14 +19453,18 @@
       <c r="A721" t="inlineStr"/>
       <c r="B721" t="inlineStr">
         <is>
-          <t>2000</t>
-        </is>
-      </c>
-      <c r="C721" t="inlineStr"/>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="C721" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
       <c r="D721" t="inlineStr"/>
       <c r="E721" t="inlineStr">
         <is>
-          <t>https://www.greatforest.hu/property/100306-debrecen-city-south-east-industrial-building</t>
+          <t>https://www.greatforest.hu/property/41027-debrecen-city-center-flat</t>
         </is>
       </c>
     </row>
@@ -19460,64 +19472,64 @@
       <c r="A722" t="inlineStr"/>
       <c r="B722" t="inlineStr">
         <is>
-          <t>43</t>
+          <t>67</t>
         </is>
       </c>
       <c r="C722" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D722" t="inlineStr"/>
       <c r="E722" t="inlineStr">
         <is>
-          <t>https://www.greatforest.hu/property/101057-debrecen-flat</t>
+          <t>https://www.greatforest.hu/property/101104-debrecen-close-to-tesco-area-block-of-flats</t>
         </is>
       </c>
     </row>
     <row r="723">
       <c r="A723" t="inlineStr">
         <is>
-          <t>350 000</t>
+          <t>320 000</t>
         </is>
       </c>
       <c r="B723" t="inlineStr">
         <is>
-          <t>118</t>
+          <t>42</t>
         </is>
       </c>
       <c r="C723" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D723" t="inlineStr"/>
       <c r="E723" t="inlineStr">
         <is>
-          <t>https://www.greatforest.hu/property/89979-debrecen-city-center-office-not-in-office-building</t>
+          <t>https://www.greatforest.hu/property/99511-debrecen-close-to-main-campus-flat</t>
         </is>
       </c>
     </row>
     <row r="724">
       <c r="A724" t="inlineStr">
         <is>
-          <t>595 000</t>
+          <t>399 000</t>
         </is>
       </c>
       <c r="B724" t="inlineStr">
         <is>
-          <t>92</t>
+          <t>42</t>
         </is>
       </c>
       <c r="C724" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D724" t="inlineStr"/>
       <c r="E724" t="inlineStr">
         <is>
-          <t>https://www.greatforest.hu/property/36059-debrecen-kassai-campus-area-flat</t>
+          <t>https://www.greatforest.hu/property/99510-debrecen-close-to-main-campus-flat</t>
         </is>
       </c>
     </row>
@@ -19529,145 +19541,145 @@
       </c>
       <c r="B725" t="inlineStr">
         <is>
-          <t>89</t>
+          <t>73</t>
         </is>
       </c>
       <c r="C725" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>4</t>
         </is>
       </c>
       <c r="D725" t="inlineStr"/>
       <c r="E725" t="inlineStr">
         <is>
-          <t>https://www.greatforest.hu/property/69432-debrecen-greatforest-area-flat</t>
+          <t>https://www.greatforest.hu/property/99598-debrecen-flat</t>
         </is>
       </c>
     </row>
     <row r="726">
       <c r="A726" t="inlineStr">
         <is>
-          <t>150 000</t>
+          <t>230 000</t>
         </is>
       </c>
       <c r="B726" t="inlineStr">
         <is>
-          <t>63</t>
+          <t>64</t>
         </is>
       </c>
       <c r="C726" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D726" t="inlineStr"/>
       <c r="E726" t="inlineStr">
         <is>
-          <t>https://www.greatforest.hu/property/65443-debrecen-city-west-office-in-office-building</t>
+          <t>https://www.greatforest.hu/property/99597-debrecen-flat</t>
         </is>
       </c>
     </row>
     <row r="727">
       <c r="A727" t="inlineStr">
         <is>
-          <t>450 000</t>
+          <t>280 000</t>
         </is>
       </c>
       <c r="B727" t="inlineStr">
         <is>
-          <t>83</t>
+          <t>88</t>
         </is>
       </c>
       <c r="C727" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>4</t>
         </is>
       </c>
       <c r="D727" t="inlineStr"/>
       <c r="E727" t="inlineStr">
         <is>
-          <t>https://www.greatforest.hu/property/46734-debrecen-close-to-main-campus-flat</t>
+          <t>https://www.greatforest.hu/property/99595-debrecen-flat</t>
         </is>
       </c>
     </row>
     <row r="728">
       <c r="A728" t="inlineStr">
         <is>
-          <t>280 000</t>
+          <t>270 000</t>
         </is>
       </c>
       <c r="B728" t="inlineStr">
         <is>
-          <t>69</t>
+          <t>72</t>
         </is>
       </c>
       <c r="C728" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="D728" t="inlineStr"/>
       <c r="E728" t="inlineStr">
         <is>
-          <t>https://www.greatforest.hu/property/97856-debrecen-city-center-office-not-in-office-building</t>
+          <t>https://www.greatforest.hu/property/99593-debrecen-flat</t>
         </is>
       </c>
     </row>
     <row r="729">
       <c r="A729" t="inlineStr">
         <is>
-          <t>230 000</t>
+          <t>280 000</t>
         </is>
       </c>
       <c r="B729" t="inlineStr">
         <is>
-          <t>54</t>
+          <t>73</t>
         </is>
       </c>
       <c r="C729" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>4</t>
         </is>
       </c>
       <c r="D729" t="inlineStr"/>
       <c r="E729" t="inlineStr">
         <is>
-          <t>https://www.greatforest.hu/property/98613-debrecen-jozsa-lower-flat</t>
+          <t>https://www.greatforest.hu/property/99590-debrecen-flat</t>
         </is>
       </c>
     </row>
     <row r="730">
       <c r="A730" t="inlineStr">
         <is>
-          <t>580 000</t>
+          <t>230 000</t>
         </is>
       </c>
       <c r="B730" t="inlineStr">
         <is>
-          <t>100</t>
+          <t>64</t>
         </is>
       </c>
       <c r="C730" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D730" t="inlineStr"/>
       <c r="E730" t="inlineStr">
         <is>
-          <t>https://www.greatforest.hu/property/98425-debrecen-city-center-flat</t>
+          <t>https://www.greatforest.hu/property/99587-debrecen-flat</t>
         </is>
       </c>
     </row>
     <row r="731">
       <c r="A731" t="inlineStr">
         <is>
-          <t>480 000</t>
+          <t>250 000</t>
         </is>
       </c>
       <c r="B731" t="inlineStr">
         <is>
-          <t>73</t>
+          <t>91</t>
         </is>
       </c>
       <c r="C731" t="inlineStr">
@@ -19678,7 +19690,7 @@
       <c r="D731" t="inlineStr"/>
       <c r="E731" t="inlineStr">
         <is>
-          <t>https://www.greatforest.hu/property/97186-debrecen-city-center-flat</t>
+          <t>https://www.greatforest.hu/property/99332-debrecen-bem-square-office-in-office-building</t>
         </is>
       </c>
     </row>
@@ -19686,18 +19698,18 @@
       <c r="A732" t="inlineStr"/>
       <c r="B732" t="inlineStr">
         <is>
-          <t>640</t>
+          <t>140</t>
         </is>
       </c>
       <c r="C732" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>5</t>
         </is>
       </c>
       <c r="D732" t="inlineStr"/>
       <c r="E732" t="inlineStr">
         <is>
-          <t>https://www.greatforest.hu/property/101126-debrecen-city-center-office-not-in-office-building</t>
+          <t>https://www.greatforest.hu/property/101048-hajduszoboszlo-family-house</t>
         </is>
       </c>
     </row>
@@ -19705,14 +19717,18 @@
       <c r="A733" t="inlineStr"/>
       <c r="B733" t="inlineStr">
         <is>
-          <t>25</t>
-        </is>
-      </c>
-      <c r="C733" t="inlineStr"/>
+          <t>54</t>
+        </is>
+      </c>
+      <c r="C733" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
       <c r="D733" t="inlineStr"/>
       <c r="E733" t="inlineStr">
         <is>
-          <t>https://www.greatforest.hu/property/101121-debrecen-greatforest-area-garage-individual-garage</t>
+          <t>https://www.greatforest.hu/property/100958-debrecen-close-to-tesco-area-block-of-flats</t>
         </is>
       </c>
     </row>
@@ -19720,18 +19736,18 @@
       <c r="A734" t="inlineStr"/>
       <c r="B734" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>74</t>
         </is>
       </c>
       <c r="C734" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D734" t="inlineStr"/>
       <c r="E734" t="inlineStr">
         <is>
-          <t>https://www.greatforest.hu/property/41027-debrecen-close-to-bem-square-flat</t>
+          <t>https://www.greatforest.hu/property/100009-debrecen-city-east-family-house</t>
         </is>
       </c>
     </row>
@@ -19739,18 +19755,18 @@
       <c r="A735" t="inlineStr"/>
       <c r="B735" t="inlineStr">
         <is>
-          <t>67</t>
+          <t>60</t>
         </is>
       </c>
       <c r="C735" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D735" t="inlineStr"/>
       <c r="E735" t="inlineStr">
         <is>
-          <t>https://www.greatforest.hu/property/101104-debrecen-close-to-tesco-area-block-of-flats</t>
+          <t>https://www.greatforest.hu/property/99898-hajdusamson-family-house</t>
         </is>
       </c>
     </row>
@@ -19758,18 +19774,18 @@
       <c r="A736" t="inlineStr"/>
       <c r="B736" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>640</t>
         </is>
       </c>
       <c r="C736" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>12</t>
         </is>
       </c>
       <c r="D736" t="inlineStr"/>
       <c r="E736" t="inlineStr">
         <is>
-          <t>https://www.greatforest.hu/property/54030-debrecen-greatforest-area-flat</t>
+          <t>https://www.greatforest.hu/property/101126-debrecen-city-center-office-not-in-office-building</t>
         </is>
       </c>
     </row>
@@ -19777,18 +19793,14 @@
       <c r="A737" t="inlineStr"/>
       <c r="B737" t="inlineStr">
         <is>
-          <t>55</t>
-        </is>
-      </c>
-      <c r="C737" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="C737" t="inlineStr"/>
       <c r="D737" t="inlineStr"/>
       <c r="E737" t="inlineStr">
         <is>
-          <t>https://www.greatforest.hu/property/42340-debrecen-kassai-campus-area-flat</t>
+          <t>https://www.greatforest.hu/property/101121-debrecen-greatforest-area-garage-individual-garage</t>
         </is>
       </c>
     </row>
@@ -19796,14 +19808,18 @@
       <c r="A738" t="inlineStr"/>
       <c r="B738" t="inlineStr">
         <is>
-          <t>2000</t>
-        </is>
-      </c>
-      <c r="C738" t="inlineStr"/>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="C738" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
       <c r="D738" t="inlineStr"/>
       <c r="E738" t="inlineStr">
         <is>
-          <t>https://www.greatforest.hu/property/100306-debrecen-city-south-east-industrial-building</t>
+          <t>https://www.greatforest.hu/property/41027-debrecen-city-center-flat</t>
         </is>
       </c>
     </row>
@@ -19811,99 +19827,99 @@
       <c r="A739" t="inlineStr"/>
       <c r="B739" t="inlineStr">
         <is>
-          <t>43</t>
+          <t>67</t>
         </is>
       </c>
       <c r="C739" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D739" t="inlineStr"/>
       <c r="E739" t="inlineStr">
         <is>
-          <t>https://www.greatforest.hu/property/101057-debrecen-flat</t>
+          <t>https://www.greatforest.hu/property/101104-debrecen-close-to-tesco-area-block-of-flats</t>
         </is>
       </c>
     </row>
     <row r="740">
       <c r="A740" t="inlineStr">
         <is>
-          <t>350 000</t>
+          <t>220 000</t>
         </is>
       </c>
       <c r="B740" t="inlineStr">
         <is>
-          <t>118</t>
+          <t>38</t>
         </is>
       </c>
       <c r="C740" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D740" t="inlineStr"/>
       <c r="E740" t="inlineStr">
         <is>
-          <t>https://www.greatforest.hu/property/89979-debrecen-city-center-office-not-in-office-building</t>
+          <t>https://www.greatforest.hu/property/99213-debrecen-close-to-main-campus-flat</t>
         </is>
       </c>
     </row>
     <row r="741">
       <c r="A741" t="inlineStr">
         <is>
-          <t>595 000</t>
+          <t>350 000</t>
         </is>
       </c>
       <c r="B741" t="inlineStr">
         <is>
-          <t>92</t>
+          <t>118</t>
         </is>
       </c>
       <c r="C741" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="D741" t="inlineStr"/>
       <c r="E741" t="inlineStr">
         <is>
-          <t>https://www.greatforest.hu/property/36059-debrecen-kassai-campus-area-flat</t>
+          <t>https://www.greatforest.hu/property/89979-debrecen-city-center-office-not-in-office-building</t>
         </is>
       </c>
     </row>
     <row r="742">
       <c r="A742" t="inlineStr">
         <is>
-          <t>300 000</t>
+          <t>595 000</t>
         </is>
       </c>
       <c r="B742" t="inlineStr">
         <is>
-          <t>89</t>
+          <t>92</t>
         </is>
       </c>
       <c r="C742" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D742" t="inlineStr"/>
       <c r="E742" t="inlineStr">
         <is>
-          <t>https://www.greatforest.hu/property/69432-debrecen-greatforest-area-flat</t>
+          <t>https://www.greatforest.hu/property/36059-debrecen-kassai-campus-area-flat</t>
         </is>
       </c>
     </row>
     <row r="743">
       <c r="A743" t="inlineStr">
         <is>
-          <t>150 000</t>
+          <t>300 000</t>
         </is>
       </c>
       <c r="B743" t="inlineStr">
         <is>
-          <t>63</t>
+          <t>89</t>
         </is>
       </c>
       <c r="C743" t="inlineStr">
@@ -19914,19 +19930,19 @@
       <c r="D743" t="inlineStr"/>
       <c r="E743" t="inlineStr">
         <is>
-          <t>https://www.greatforest.hu/property/65443-debrecen-city-west-office-in-office-building</t>
+          <t>https://www.greatforest.hu/property/69432-debrecen-greatforest-area-flat</t>
         </is>
       </c>
     </row>
     <row r="744">
       <c r="A744" t="inlineStr">
         <is>
-          <t>450 000</t>
+          <t>150 000</t>
         </is>
       </c>
       <c r="B744" t="inlineStr">
         <is>
-          <t>83</t>
+          <t>63</t>
         </is>
       </c>
       <c r="C744" t="inlineStr">
@@ -19937,99 +19953,99 @@
       <c r="D744" t="inlineStr"/>
       <c r="E744" t="inlineStr">
         <is>
-          <t>https://www.greatforest.hu/property/46734-debrecen-close-to-main-campus-flat</t>
+          <t>https://www.greatforest.hu/property/65443-debrecen-city-west-office-in-office-building</t>
         </is>
       </c>
     </row>
     <row r="745">
       <c r="A745" t="inlineStr">
         <is>
-          <t>280 000</t>
+          <t>450 000</t>
         </is>
       </c>
       <c r="B745" t="inlineStr">
         <is>
-          <t>69</t>
+          <t>83</t>
         </is>
       </c>
       <c r="C745" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D745" t="inlineStr"/>
       <c r="E745" t="inlineStr">
         <is>
-          <t>https://www.greatforest.hu/property/97856-debrecen-city-center-office-not-in-office-building</t>
+          <t>https://www.greatforest.hu/property/46734-debrecen-close-to-main-campus-flat</t>
         </is>
       </c>
     </row>
     <row r="746">
       <c r="A746" t="inlineStr">
         <is>
-          <t>230 000</t>
+          <t>280 000</t>
         </is>
       </c>
       <c r="B746" t="inlineStr">
         <is>
-          <t>54</t>
+          <t>69</t>
         </is>
       </c>
       <c r="C746" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D746" t="inlineStr"/>
       <c r="E746" t="inlineStr">
         <is>
-          <t>https://www.greatforest.hu/property/98613-debrecen-jozsa-lower-flat</t>
+          <t>https://www.greatforest.hu/property/97856-debrecen-city-center-office-not-in-office-building</t>
         </is>
       </c>
     </row>
     <row r="747">
       <c r="A747" t="inlineStr">
         <is>
-          <t>580 000</t>
+          <t>230 000</t>
         </is>
       </c>
       <c r="B747" t="inlineStr">
         <is>
-          <t>100</t>
+          <t>54</t>
         </is>
       </c>
       <c r="C747" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D747" t="inlineStr"/>
       <c r="E747" t="inlineStr">
         <is>
-          <t>https://www.greatforest.hu/property/98425-debrecen-city-center-flat</t>
+          <t>https://www.greatforest.hu/property/98613-debrecen-jozsa-lower-flat</t>
         </is>
       </c>
     </row>
     <row r="748">
       <c r="A748" t="inlineStr">
         <is>
-          <t>480 000</t>
+          <t>580 000</t>
         </is>
       </c>
       <c r="B748" t="inlineStr">
         <is>
-          <t>73</t>
+          <t>100</t>
         </is>
       </c>
       <c r="C748" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="D748" t="inlineStr"/>
       <c r="E748" t="inlineStr">
         <is>
-          <t>https://www.greatforest.hu/property/97186-debrecen-city-center-flat</t>
+          <t>https://www.greatforest.hu/property/98425-debrecen-city-center-flat</t>
         </is>
       </c>
     </row>
@@ -20037,18 +20053,18 @@
       <c r="A749" t="inlineStr"/>
       <c r="B749" t="inlineStr">
         <is>
-          <t>640</t>
+          <t>140</t>
         </is>
       </c>
       <c r="C749" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>5</t>
         </is>
       </c>
       <c r="D749" t="inlineStr"/>
       <c r="E749" t="inlineStr">
         <is>
-          <t>https://www.greatforest.hu/property/101126-debrecen-city-center-office-not-in-office-building</t>
+          <t>https://www.greatforest.hu/property/101048-hajduszoboszlo-family-house</t>
         </is>
       </c>
     </row>
@@ -20056,14 +20072,18 @@
       <c r="A750" t="inlineStr"/>
       <c r="B750" t="inlineStr">
         <is>
-          <t>25</t>
-        </is>
-      </c>
-      <c r="C750" t="inlineStr"/>
+          <t>54</t>
+        </is>
+      </c>
+      <c r="C750" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
       <c r="D750" t="inlineStr"/>
       <c r="E750" t="inlineStr">
         <is>
-          <t>https://www.greatforest.hu/property/101121-debrecen-greatforest-area-garage-individual-garage</t>
+          <t>https://www.greatforest.hu/property/100958-debrecen-close-to-tesco-area-block-of-flats</t>
         </is>
       </c>
     </row>
@@ -20071,18 +20091,18 @@
       <c r="A751" t="inlineStr"/>
       <c r="B751" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>74</t>
         </is>
       </c>
       <c r="C751" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D751" t="inlineStr"/>
       <c r="E751" t="inlineStr">
         <is>
-          <t>https://www.greatforest.hu/property/41027-debrecen-close-to-bem-square-flat</t>
+          <t>https://www.greatforest.hu/property/100009-debrecen-city-east-family-house</t>
         </is>
       </c>
     </row>
@@ -20090,18 +20110,18 @@
       <c r="A752" t="inlineStr"/>
       <c r="B752" t="inlineStr">
         <is>
-          <t>67</t>
+          <t>60</t>
         </is>
       </c>
       <c r="C752" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D752" t="inlineStr"/>
       <c r="E752" t="inlineStr">
         <is>
-          <t>https://www.greatforest.hu/property/101104-debrecen-close-to-tesco-area-block-of-flats</t>
+          <t>https://www.greatforest.hu/property/99898-hajdusamson-family-house</t>
         </is>
       </c>
     </row>
@@ -20109,18 +20129,18 @@
       <c r="A753" t="inlineStr"/>
       <c r="B753" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>640</t>
         </is>
       </c>
       <c r="C753" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>12</t>
         </is>
       </c>
       <c r="D753" t="inlineStr"/>
       <c r="E753" t="inlineStr">
         <is>
-          <t>https://www.greatforest.hu/property/54030-debrecen-greatforest-area-flat</t>
+          <t>https://www.greatforest.hu/property/101126-debrecen-city-center-office-not-in-office-building</t>
         </is>
       </c>
     </row>
@@ -20128,18 +20148,14 @@
       <c r="A754" t="inlineStr"/>
       <c r="B754" t="inlineStr">
         <is>
-          <t>55</t>
-        </is>
-      </c>
-      <c r="C754" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="C754" t="inlineStr"/>
       <c r="D754" t="inlineStr"/>
       <c r="E754" t="inlineStr">
         <is>
-          <t>https://www.greatforest.hu/property/42340-debrecen-kassai-campus-area-flat</t>
+          <t>https://www.greatforest.hu/property/101121-debrecen-greatforest-area-garage-individual-garage</t>
         </is>
       </c>
     </row>
@@ -20147,14 +20163,18 @@
       <c r="A755" t="inlineStr"/>
       <c r="B755" t="inlineStr">
         <is>
-          <t>2000</t>
-        </is>
-      </c>
-      <c r="C755" t="inlineStr"/>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="C755" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
       <c r="D755" t="inlineStr"/>
       <c r="E755" t="inlineStr">
         <is>
-          <t>https://www.greatforest.hu/property/100306-debrecen-city-south-east-industrial-building</t>
+          <t>https://www.greatforest.hu/property/41027-debrecen-city-center-flat</t>
         </is>
       </c>
     </row>
@@ -20162,18 +20182,18 @@
       <c r="A756" t="inlineStr"/>
       <c r="B756" t="inlineStr">
         <is>
-          <t>43</t>
+          <t>67</t>
         </is>
       </c>
       <c r="C756" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D756" t="inlineStr"/>
       <c r="E756" t="inlineStr">
         <is>
-          <t>https://www.greatforest.hu/property/101057-debrecen-flat</t>
+          <t>https://www.greatforest.hu/property/101104-debrecen-close-to-tesco-area-block-of-flats</t>
         </is>
       </c>
     </row>
@@ -20185,7 +20205,7 @@
       </c>
       <c r="B757" t="inlineStr">
         <is>
-          <t>83</t>
+          <t>73</t>
         </is>
       </c>
       <c r="C757" t="inlineStr">
@@ -20196,42 +20216,42 @@
       <c r="D757" t="inlineStr"/>
       <c r="E757" t="inlineStr">
         <is>
-          <t>https://www.greatforest.hu/property/97187-debrecen-flat</t>
+          <t>https://www.greatforest.hu/property/97186-debrecen-city-center-flat</t>
         </is>
       </c>
     </row>
     <row r="758">
       <c r="A758" t="inlineStr">
         <is>
-          <t>5 000</t>
+          <t>480 000</t>
         </is>
       </c>
       <c r="B758" t="inlineStr">
         <is>
-          <t>600</t>
+          <t>83</t>
         </is>
       </c>
       <c r="C758" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D758" t="inlineStr"/>
       <c r="E758" t="inlineStr">
         <is>
-          <t>https://www.greatforest.hu/property/98074-hajduszoboszlo-pension</t>
+          <t>https://www.greatforest.hu/property/97187-debrecen-flat</t>
         </is>
       </c>
     </row>
     <row r="759">
       <c r="A759" t="inlineStr">
         <is>
-          <t>100 000</t>
+          <t>5 000</t>
         </is>
       </c>
       <c r="B759" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>600</t>
         </is>
       </c>
       <c r="C759" t="inlineStr">
@@ -20242,133 +20262,137 @@
       <c r="D759" t="inlineStr"/>
       <c r="E759" t="inlineStr">
         <is>
-          <t>https://www.greatforest.hu/property/97809-debrecen-block-of-flats</t>
+          <t>https://www.greatforest.hu/property/98074-hajduszoboszlo-pension</t>
         </is>
       </c>
     </row>
     <row r="760">
       <c r="A760" t="inlineStr">
         <is>
-          <t>400 000</t>
+          <t>100 000</t>
         </is>
       </c>
       <c r="B760" t="inlineStr">
         <is>
-          <t>159</t>
+          <t>30</t>
         </is>
       </c>
       <c r="C760" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D760" t="inlineStr"/>
       <c r="E760" t="inlineStr">
         <is>
-          <t>https://www.greatforest.hu/property/67666-debrecen-city-center-flat</t>
+          <t>https://www.greatforest.hu/property/97809-debrecen-block-of-flats</t>
         </is>
       </c>
     </row>
     <row r="761">
       <c r="A761" t="inlineStr">
         <is>
-          <t>200 000</t>
+          <t>400 000</t>
         </is>
       </c>
       <c r="B761" t="inlineStr">
         <is>
-          <t>1000</t>
-        </is>
-      </c>
-      <c r="C761" t="inlineStr"/>
+          <t>159</t>
+        </is>
+      </c>
+      <c r="C761" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
       <c r="D761" t="inlineStr"/>
       <c r="E761" t="inlineStr">
         <is>
-          <t>https://www.greatforest.hu/property/97273-debrecen-city-south-east-industrial-building-plot</t>
+          <t>https://www.greatforest.hu/property/67666-debrecen-city-center-flat</t>
         </is>
       </c>
     </row>
     <row r="762">
       <c r="A762" t="inlineStr">
         <is>
-          <t>650 000</t>
+          <t>200 000</t>
         </is>
       </c>
       <c r="B762" t="inlineStr">
         <is>
-          <t>228</t>
-        </is>
-      </c>
-      <c r="C762" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
+          <t>1000</t>
+        </is>
+      </c>
+      <c r="C762" t="inlineStr"/>
       <c r="D762" t="inlineStr"/>
       <c r="E762" t="inlineStr">
         <is>
-          <t>https://www.greatforest.hu/property/97238-debrecen-family-house</t>
+          <t>https://www.greatforest.hu/property/97273-debrecen-city-south-east-industrial-building-plot</t>
         </is>
       </c>
     </row>
     <row r="763">
       <c r="A763" t="inlineStr">
         <is>
-          <t>555 000</t>
+          <t>650 000</t>
         </is>
       </c>
       <c r="B763" t="inlineStr">
         <is>
-          <t>154</t>
+          <t>228</t>
         </is>
       </c>
       <c r="C763" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>4</t>
         </is>
       </c>
       <c r="D763" t="inlineStr"/>
       <c r="E763" t="inlineStr">
         <is>
-          <t>https://www.greatforest.hu/property/96621-debrecen-city-center-office-not-in-office-building</t>
+          <t>https://www.greatforest.hu/property/97238-debrecen-family-house</t>
         </is>
       </c>
     </row>
     <row r="764">
       <c r="A764" t="inlineStr">
         <is>
-          <t>20 000</t>
+          <t>555 000</t>
         </is>
       </c>
       <c r="B764" t="inlineStr">
         <is>
-          <t>20</t>
-        </is>
-      </c>
-      <c r="C764" t="inlineStr"/>
+          <t>154</t>
+        </is>
+      </c>
+      <c r="C764" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
       <c r="D764" t="inlineStr"/>
       <c r="E764" t="inlineStr">
         <is>
-          <t>https://www.greatforest.hu/property/95866-debrecen-parking-lot-underground</t>
+          <t>https://www.greatforest.hu/property/96621-debrecen-city-center-office-not-in-office-building</t>
         </is>
       </c>
     </row>
     <row r="765">
       <c r="A765" t="inlineStr">
         <is>
-          <t>400 000</t>
+          <t>20 000</t>
         </is>
       </c>
       <c r="B765" t="inlineStr">
         <is>
-          <t>1240</t>
+          <t>20</t>
         </is>
       </c>
       <c r="C765" t="inlineStr"/>
       <c r="D765" t="inlineStr"/>
       <c r="E765" t="inlineStr">
         <is>
-          <t>https://www.greatforest.hu/property/95366-debrecen-city-south-east-industrial-building-plot</t>
+          <t>https://www.greatforest.hu/property/95866-debrecen-parking-lot-underground</t>
         </is>
       </c>
     </row>
@@ -20376,18 +20400,18 @@
       <c r="A766" t="inlineStr"/>
       <c r="B766" t="inlineStr">
         <is>
-          <t>640</t>
+          <t>140</t>
         </is>
       </c>
       <c r="C766" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>5</t>
         </is>
       </c>
       <c r="D766" t="inlineStr"/>
       <c r="E766" t="inlineStr">
         <is>
-          <t>https://www.greatforest.hu/property/101126-debrecen-city-center-office-not-in-office-building</t>
+          <t>https://www.greatforest.hu/property/101048-hajduszoboszlo-family-house</t>
         </is>
       </c>
     </row>
@@ -20395,14 +20419,18 @@
       <c r="A767" t="inlineStr"/>
       <c r="B767" t="inlineStr">
         <is>
-          <t>25</t>
-        </is>
-      </c>
-      <c r="C767" t="inlineStr"/>
+          <t>54</t>
+        </is>
+      </c>
+      <c r="C767" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
       <c r="D767" t="inlineStr"/>
       <c r="E767" t="inlineStr">
         <is>
-          <t>https://www.greatforest.hu/property/101121-debrecen-greatforest-area-garage-individual-garage</t>
+          <t>https://www.greatforest.hu/property/100958-debrecen-close-to-tesco-area-block-of-flats</t>
         </is>
       </c>
     </row>
@@ -20410,18 +20438,18 @@
       <c r="A768" t="inlineStr"/>
       <c r="B768" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>74</t>
         </is>
       </c>
       <c r="C768" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D768" t="inlineStr"/>
       <c r="E768" t="inlineStr">
         <is>
-          <t>https://www.greatforest.hu/property/41027-debrecen-close-to-bem-square-flat</t>
+          <t>https://www.greatforest.hu/property/100009-debrecen-city-east-family-house</t>
         </is>
       </c>
     </row>
@@ -20429,18 +20457,18 @@
       <c r="A769" t="inlineStr"/>
       <c r="B769" t="inlineStr">
         <is>
-          <t>67</t>
+          <t>60</t>
         </is>
       </c>
       <c r="C769" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D769" t="inlineStr"/>
       <c r="E769" t="inlineStr">
         <is>
-          <t>https://www.greatforest.hu/property/101104-debrecen-close-to-tesco-area-block-of-flats</t>
+          <t>https://www.greatforest.hu/property/99898-hajdusamson-family-house</t>
         </is>
       </c>
     </row>
@@ -20448,18 +20476,18 @@
       <c r="A770" t="inlineStr"/>
       <c r="B770" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>640</t>
         </is>
       </c>
       <c r="C770" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>12</t>
         </is>
       </c>
       <c r="D770" t="inlineStr"/>
       <c r="E770" t="inlineStr">
         <is>
-          <t>https://www.greatforest.hu/property/54030-debrecen-greatforest-area-flat</t>
+          <t>https://www.greatforest.hu/property/101126-debrecen-city-center-office-not-in-office-building</t>
         </is>
       </c>
     </row>
@@ -20467,18 +20495,14 @@
       <c r="A771" t="inlineStr"/>
       <c r="B771" t="inlineStr">
         <is>
-          <t>55</t>
-        </is>
-      </c>
-      <c r="C771" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="C771" t="inlineStr"/>
       <c r="D771" t="inlineStr"/>
       <c r="E771" t="inlineStr">
         <is>
-          <t>https://www.greatforest.hu/property/42340-debrecen-kassai-campus-area-flat</t>
+          <t>https://www.greatforest.hu/property/101121-debrecen-greatforest-area-garage-individual-garage</t>
         </is>
       </c>
     </row>
@@ -20486,14 +20510,18 @@
       <c r="A772" t="inlineStr"/>
       <c r="B772" t="inlineStr">
         <is>
-          <t>2000</t>
-        </is>
-      </c>
-      <c r="C772" t="inlineStr"/>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="C772" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
       <c r="D772" t="inlineStr"/>
       <c r="E772" t="inlineStr">
         <is>
-          <t>https://www.greatforest.hu/property/100306-debrecen-city-south-east-industrial-building</t>
+          <t>https://www.greatforest.hu/property/41027-debrecen-city-center-flat</t>
         </is>
       </c>
     </row>
@@ -20501,205 +20529,201 @@
       <c r="A773" t="inlineStr"/>
       <c r="B773" t="inlineStr">
         <is>
-          <t>43</t>
+          <t>67</t>
         </is>
       </c>
       <c r="C773" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D773" t="inlineStr"/>
       <c r="E773" t="inlineStr">
         <is>
-          <t>https://www.greatforest.hu/property/101057-debrecen-flat</t>
+          <t>https://www.greatforest.hu/property/101104-debrecen-close-to-tesco-area-block-of-flats</t>
         </is>
       </c>
     </row>
     <row r="774">
       <c r="A774" t="inlineStr">
         <is>
-          <t>30 000</t>
+          <t>400 000</t>
         </is>
       </c>
       <c r="B774" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>1240</t>
         </is>
       </c>
       <c r="C774" t="inlineStr"/>
       <c r="D774" t="inlineStr"/>
       <c r="E774" t="inlineStr">
         <is>
-          <t>https://www.greatforest.hu/property/95348-debrecen-city-center-parking-lot-underground</t>
+          <t>https://www.greatforest.hu/property/95366-debrecen-city-south-east-industrial-building-plot</t>
         </is>
       </c>
     </row>
     <row r="775">
       <c r="A775" t="inlineStr">
         <is>
-          <t>24 000</t>
+          <t>30 000</t>
         </is>
       </c>
       <c r="B775" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>13</t>
         </is>
       </c>
       <c r="C775" t="inlineStr"/>
       <c r="D775" t="inlineStr"/>
       <c r="E775" t="inlineStr">
         <is>
-          <t>https://www.greatforest.hu/property/95092-debrecen-city-center-parking-lot-underground</t>
+          <t>https://www.greatforest.hu/property/95348-debrecen-city-center-parking-lot-underground</t>
         </is>
       </c>
     </row>
     <row r="776">
       <c r="A776" t="inlineStr">
         <is>
-          <t>190 000</t>
+          <t>24 000</t>
         </is>
       </c>
       <c r="B776" t="inlineStr">
         <is>
-          <t>56</t>
+          <t>18</t>
         </is>
       </c>
       <c r="C776" t="inlineStr"/>
       <c r="D776" t="inlineStr"/>
       <c r="E776" t="inlineStr">
         <is>
-          <t>https://www.greatforest.hu/property/95018-debrecen-city-center-commercial-premises-not-in-shopping-center</t>
+          <t>https://www.greatforest.hu/property/95092-debrecen-city-center-parking-lot-underground</t>
         </is>
       </c>
     </row>
     <row r="777">
       <c r="A777" t="inlineStr">
         <is>
-          <t>15 000</t>
+          <t>190 000</t>
         </is>
       </c>
       <c r="B777" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>56</t>
         </is>
       </c>
       <c r="C777" t="inlineStr"/>
       <c r="D777" t="inlineStr"/>
       <c r="E777" t="inlineStr">
         <is>
-          <t>https://www.greatforest.hu/property/94880-debrecen-close-to-main-campus-parking-lot-underground</t>
+          <t>https://www.greatforest.hu/property/95018-debrecen-city-center-commercial-premises-not-in-shopping-center</t>
         </is>
       </c>
     </row>
     <row r="778">
       <c r="A778" t="inlineStr">
         <is>
-          <t>150 000</t>
+          <t>15 000</t>
         </is>
       </c>
       <c r="B778" t="inlineStr">
         <is>
-          <t>41</t>
-        </is>
-      </c>
-      <c r="C778" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="C778" t="inlineStr"/>
       <c r="D778" t="inlineStr"/>
       <c r="E778" t="inlineStr">
         <is>
-          <t>https://www.greatforest.hu/property/51448-debrecen-close-to-kassai-campus-office-not-in-office-building</t>
+          <t>https://www.greatforest.hu/property/94880-debrecen-close-to-main-campus-parking-lot-underground</t>
         </is>
       </c>
     </row>
     <row r="779">
       <c r="A779" t="inlineStr">
         <is>
-          <t>25 000</t>
+          <t>150 000</t>
         </is>
       </c>
       <c r="B779" t="inlineStr">
         <is>
-          <t>15</t>
-        </is>
-      </c>
-      <c r="C779" t="inlineStr"/>
+          <t>41</t>
+        </is>
+      </c>
+      <c r="C779" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
       <c r="D779" t="inlineStr"/>
       <c r="E779" t="inlineStr">
         <is>
-          <t>https://www.greatforest.hu/property/94783-debrecen-main-campus-area-garage-individual-garage</t>
+          <t>https://www.greatforest.hu/property/51448-debrecen-close-to-kassai-campus-office-not-in-office-building</t>
         </is>
       </c>
     </row>
     <row r="780">
       <c r="A780" t="inlineStr">
         <is>
-          <t>200 000</t>
+          <t>25 000</t>
         </is>
       </c>
       <c r="B780" t="inlineStr">
         <is>
-          <t>47</t>
-        </is>
-      </c>
-      <c r="C780" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="C780" t="inlineStr"/>
       <c r="D780" t="inlineStr"/>
       <c r="E780" t="inlineStr">
         <is>
-          <t>https://www.greatforest.hu/property/94781-debrecen-city-center-commercial-premises-not-in-shopping-center</t>
+          <t>https://www.greatforest.hu/property/94783-debrecen-main-campus-area-garage-individual-garage</t>
         </is>
       </c>
     </row>
     <row r="781">
       <c r="A781" t="inlineStr">
         <is>
-          <t>3 300 000</t>
+          <t>200 000</t>
         </is>
       </c>
       <c r="B781" t="inlineStr">
         <is>
-          <t>713</t>
+          <t>47</t>
         </is>
       </c>
       <c r="C781" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D781" t="inlineStr"/>
       <c r="E781" t="inlineStr">
         <is>
-          <t>https://www.greatforest.hu/property/94247-debrecen-city-center-office-in-office-building</t>
+          <t>https://www.greatforest.hu/property/94781-debrecen-city-center-commercial-premises-not-in-shopping-center</t>
         </is>
       </c>
     </row>
     <row r="782">
       <c r="A782" t="inlineStr">
         <is>
-          <t>1 600 000</t>
+          <t>3 300 000</t>
         </is>
       </c>
       <c r="B782" t="inlineStr">
         <is>
-          <t>230</t>
+          <t>713</t>
         </is>
       </c>
       <c r="C782" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D782" t="inlineStr"/>
       <c r="E782" t="inlineStr">
         <is>
-          <t>https://www.greatforest.hu/property/93893-debrecen-family-house</t>
+          <t>https://www.greatforest.hu/property/94247-debrecen-city-center-office-in-office-building</t>
         </is>
       </c>
     </row>
@@ -20707,18 +20731,18 @@
       <c r="A783" t="inlineStr"/>
       <c r="B783" t="inlineStr">
         <is>
-          <t>640</t>
+          <t>140</t>
         </is>
       </c>
       <c r="C783" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>5</t>
         </is>
       </c>
       <c r="D783" t="inlineStr"/>
       <c r="E783" t="inlineStr">
         <is>
-          <t>https://www.greatforest.hu/property/101126-debrecen-city-center-office-not-in-office-building</t>
+          <t>https://www.greatforest.hu/property/101048-hajduszoboszlo-family-house</t>
         </is>
       </c>
     </row>
@@ -20726,14 +20750,18 @@
       <c r="A784" t="inlineStr"/>
       <c r="B784" t="inlineStr">
         <is>
-          <t>25</t>
-        </is>
-      </c>
-      <c r="C784" t="inlineStr"/>
+          <t>54</t>
+        </is>
+      </c>
+      <c r="C784" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
       <c r="D784" t="inlineStr"/>
       <c r="E784" t="inlineStr">
         <is>
-          <t>https://www.greatforest.hu/property/101121-debrecen-greatforest-area-garage-individual-garage</t>
+          <t>https://www.greatforest.hu/property/100958-debrecen-close-to-tesco-area-block-of-flats</t>
         </is>
       </c>
     </row>
@@ -20741,18 +20769,18 @@
       <c r="A785" t="inlineStr"/>
       <c r="B785" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>74</t>
         </is>
       </c>
       <c r="C785" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D785" t="inlineStr"/>
       <c r="E785" t="inlineStr">
         <is>
-          <t>https://www.greatforest.hu/property/41027-debrecen-close-to-bem-square-flat</t>
+          <t>https://www.greatforest.hu/property/100009-debrecen-city-east-family-house</t>
         </is>
       </c>
     </row>
@@ -20760,18 +20788,18 @@
       <c r="A786" t="inlineStr"/>
       <c r="B786" t="inlineStr">
         <is>
-          <t>67</t>
+          <t>60</t>
         </is>
       </c>
       <c r="C786" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D786" t="inlineStr"/>
       <c r="E786" t="inlineStr">
         <is>
-          <t>https://www.greatforest.hu/property/101104-debrecen-close-to-tesco-area-block-of-flats</t>
+          <t>https://www.greatforest.hu/property/99898-hajdusamson-family-house</t>
         </is>
       </c>
     </row>
@@ -20779,18 +20807,18 @@
       <c r="A787" t="inlineStr"/>
       <c r="B787" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>640</t>
         </is>
       </c>
       <c r="C787" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>12</t>
         </is>
       </c>
       <c r="D787" t="inlineStr"/>
       <c r="E787" t="inlineStr">
         <is>
-          <t>https://www.greatforest.hu/property/54030-debrecen-greatforest-area-flat</t>
+          <t>https://www.greatforest.hu/property/101126-debrecen-city-center-office-not-in-office-building</t>
         </is>
       </c>
     </row>
@@ -20798,18 +20826,14 @@
       <c r="A788" t="inlineStr"/>
       <c r="B788" t="inlineStr">
         <is>
-          <t>55</t>
-        </is>
-      </c>
-      <c r="C788" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="C788" t="inlineStr"/>
       <c r="D788" t="inlineStr"/>
       <c r="E788" t="inlineStr">
         <is>
-          <t>https://www.greatforest.hu/property/42340-debrecen-kassai-campus-area-flat</t>
+          <t>https://www.greatforest.hu/property/101121-debrecen-greatforest-area-garage-individual-garage</t>
         </is>
       </c>
     </row>
@@ -20817,14 +20841,18 @@
       <c r="A789" t="inlineStr"/>
       <c r="B789" t="inlineStr">
         <is>
-          <t>2000</t>
-        </is>
-      </c>
-      <c r="C789" t="inlineStr"/>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="C789" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
       <c r="D789" t="inlineStr"/>
       <c r="E789" t="inlineStr">
         <is>
-          <t>https://www.greatforest.hu/property/100306-debrecen-city-south-east-industrial-building</t>
+          <t>https://www.greatforest.hu/property/41027-debrecen-city-center-flat</t>
         </is>
       </c>
     </row>
@@ -20832,148 +20860,168 @@
       <c r="A790" t="inlineStr"/>
       <c r="B790" t="inlineStr">
         <is>
-          <t>43</t>
+          <t>67</t>
         </is>
       </c>
       <c r="C790" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D790" t="inlineStr"/>
       <c r="E790" t="inlineStr">
         <is>
-          <t>https://www.greatforest.hu/property/101057-debrecen-flat</t>
+          <t>https://www.greatforest.hu/property/101104-debrecen-close-to-tesco-area-block-of-flats</t>
         </is>
       </c>
     </row>
     <row r="791">
       <c r="A791" t="inlineStr">
         <is>
-          <t>30 000</t>
+          <t>1 600 000</t>
         </is>
       </c>
       <c r="B791" t="inlineStr">
         <is>
-          <t>13</t>
-        </is>
-      </c>
-      <c r="C791" t="inlineStr"/>
+          <t>230</t>
+        </is>
+      </c>
+      <c r="C791" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
       <c r="D791" t="inlineStr"/>
       <c r="E791" t="inlineStr">
         <is>
-          <t>https://www.greatforest.hu/property/95348-debrecen-city-center-parking-lot-underground</t>
+          <t>https://www.greatforest.hu/property/93893-debrecen-family-house</t>
         </is>
       </c>
     </row>
     <row r="792">
       <c r="A792" t="inlineStr">
         <is>
-          <t>24 000</t>
+          <t>250 000</t>
         </is>
       </c>
       <c r="B792" t="inlineStr">
         <is>
-          <t>18</t>
-        </is>
-      </c>
-      <c r="C792" t="inlineStr"/>
+          <t>152</t>
+        </is>
+      </c>
+      <c r="C792" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
       <c r="D792" t="inlineStr"/>
       <c r="E792" t="inlineStr">
         <is>
-          <t>https://www.greatforest.hu/property/95092-debrecen-city-center-parking-lot-underground</t>
+          <t>https://www.greatforest.hu/property/70458-debrecen-close-to-bem-square-commercial-premises-not-in-shopping-center</t>
         </is>
       </c>
     </row>
     <row r="793">
       <c r="A793" t="inlineStr">
         <is>
-          <t>190 000</t>
+          <t>850 000</t>
         </is>
       </c>
       <c r="B793" t="inlineStr">
         <is>
-          <t>56</t>
-        </is>
-      </c>
-      <c r="C793" t="inlineStr"/>
+          <t>250</t>
+        </is>
+      </c>
+      <c r="C793" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
       <c r="D793" t="inlineStr"/>
       <c r="E793" t="inlineStr">
         <is>
-          <t>https://www.greatforest.hu/property/95018-debrecen-city-center-commercial-premises-not-in-shopping-center</t>
+          <t>https://www.greatforest.hu/property/84313-debrecen-greatforest-area-family-house</t>
         </is>
       </c>
     </row>
     <row r="794">
       <c r="A794" t="inlineStr">
         <is>
-          <t>15 000</t>
+          <t>175 000</t>
         </is>
       </c>
       <c r="B794" t="inlineStr">
         <is>
-          <t>15</t>
-        </is>
-      </c>
-      <c r="C794" t="inlineStr"/>
+          <t>58</t>
+        </is>
+      </c>
+      <c r="C794" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
       <c r="D794" t="inlineStr"/>
       <c r="E794" t="inlineStr">
         <is>
-          <t>https://www.greatforest.hu/property/94880-debrecen-close-to-main-campus-parking-lot-underground</t>
+          <t>https://www.greatforest.hu/property/50904-debrecen-city-center-office-not-in-office-building</t>
         </is>
       </c>
     </row>
     <row r="795">
       <c r="A795" t="inlineStr">
         <is>
-          <t>150 000</t>
+          <t>595 000</t>
         </is>
       </c>
       <c r="B795" t="inlineStr">
         <is>
-          <t>41</t>
+          <t>167</t>
         </is>
       </c>
       <c r="C795" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>5</t>
         </is>
       </c>
       <c r="D795" t="inlineStr"/>
       <c r="E795" t="inlineStr">
         <is>
-          <t>https://www.greatforest.hu/property/51448-debrecen-close-to-kassai-campus-office-not-in-office-building</t>
+          <t>https://www.greatforest.hu/property/89378-debrecen-city-north-attached-house</t>
         </is>
       </c>
     </row>
     <row r="796">
       <c r="A796" t="inlineStr">
         <is>
-          <t>25 000</t>
+          <t>13 500</t>
         </is>
       </c>
       <c r="B796" t="inlineStr">
         <is>
-          <t>15</t>
-        </is>
-      </c>
-      <c r="C796" t="inlineStr"/>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="C796" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
       <c r="D796" t="inlineStr"/>
       <c r="E796" t="inlineStr">
         <is>
-          <t>https://www.greatforest.hu/property/94783-debrecen-main-campus-area-garage-individual-garage</t>
+          <t>https://www.greatforest.hu/property/54209-debrecen-main-campus-area-parking-lot-underground</t>
         </is>
       </c>
     </row>
     <row r="797">
       <c r="A797" t="inlineStr">
         <is>
-          <t>200 000</t>
+          <t>25 000</t>
         </is>
       </c>
       <c r="B797" t="inlineStr">
         <is>
-          <t>47</t>
+          <t>13</t>
         </is>
       </c>
       <c r="C797" t="inlineStr">
@@ -20984,53 +21032,53 @@
       <c r="D797" t="inlineStr"/>
       <c r="E797" t="inlineStr">
         <is>
-          <t>https://www.greatforest.hu/property/94781-debrecen-city-center-commercial-premises-not-in-shopping-center</t>
+          <t>https://www.greatforest.hu/property/85190-debrecen-main-campus-area-parking-lot-underground</t>
         </is>
       </c>
     </row>
     <row r="798">
       <c r="A798" t="inlineStr">
         <is>
-          <t>3 300 000</t>
+          <t>6 000</t>
         </is>
       </c>
       <c r="B798" t="inlineStr">
         <is>
-          <t>713</t>
+          <t>202</t>
         </is>
       </c>
       <c r="C798" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>6</t>
         </is>
       </c>
       <c r="D798" t="inlineStr"/>
       <c r="E798" t="inlineStr">
         <is>
-          <t>https://www.greatforest.hu/property/94247-debrecen-city-center-office-in-office-building</t>
+          <t>https://www.greatforest.hu/property/85001-budapest-office-not-in-office-building</t>
         </is>
       </c>
     </row>
     <row r="799">
       <c r="A799" t="inlineStr">
         <is>
-          <t>1 600 000</t>
+          <t>80 000</t>
         </is>
       </c>
       <c r="B799" t="inlineStr">
         <is>
-          <t>230</t>
+          <t>25</t>
         </is>
       </c>
       <c r="C799" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D799" t="inlineStr"/>
       <c r="E799" t="inlineStr">
         <is>
-          <t>https://www.greatforest.hu/property/93893-debrecen-family-house</t>
+          <t>https://www.greatforest.hu/property/84787-debrecen-city-center-office-not-in-office-building</t>
         </is>
       </c>
     </row>
@@ -21038,18 +21086,18 @@
       <c r="A800" t="inlineStr"/>
       <c r="B800" t="inlineStr">
         <is>
-          <t>640</t>
+          <t>140</t>
         </is>
       </c>
       <c r="C800" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>5</t>
         </is>
       </c>
       <c r="D800" t="inlineStr"/>
       <c r="E800" t="inlineStr">
         <is>
-          <t>https://www.greatforest.hu/property/101126-debrecen-city-center-office-not-in-office-building</t>
+          <t>https://www.greatforest.hu/property/101048-hajduszoboszlo-family-house</t>
         </is>
       </c>
     </row>
@@ -21057,14 +21105,18 @@
       <c r="A801" t="inlineStr"/>
       <c r="B801" t="inlineStr">
         <is>
-          <t>25</t>
-        </is>
-      </c>
-      <c r="C801" t="inlineStr"/>
+          <t>54</t>
+        </is>
+      </c>
+      <c r="C801" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
       <c r="D801" t="inlineStr"/>
       <c r="E801" t="inlineStr">
         <is>
-          <t>https://www.greatforest.hu/property/101121-debrecen-greatforest-area-garage-individual-garage</t>
+          <t>https://www.greatforest.hu/property/100958-debrecen-close-to-tesco-area-block-of-flats</t>
         </is>
       </c>
     </row>
@@ -21072,18 +21124,18 @@
       <c r="A802" t="inlineStr"/>
       <c r="B802" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>74</t>
         </is>
       </c>
       <c r="C802" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D802" t="inlineStr"/>
       <c r="E802" t="inlineStr">
         <is>
-          <t>https://www.greatforest.hu/property/41027-debrecen-close-to-bem-square-flat</t>
+          <t>https://www.greatforest.hu/property/100009-debrecen-city-east-family-house</t>
         </is>
       </c>
     </row>
@@ -21091,18 +21143,18 @@
       <c r="A803" t="inlineStr"/>
       <c r="B803" t="inlineStr">
         <is>
-          <t>67</t>
+          <t>60</t>
         </is>
       </c>
       <c r="C803" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D803" t="inlineStr"/>
       <c r="E803" t="inlineStr">
         <is>
-          <t>https://www.greatforest.hu/property/101104-debrecen-close-to-tesco-area-block-of-flats</t>
+          <t>https://www.greatforest.hu/property/99898-hajdusamson-family-house</t>
         </is>
       </c>
     </row>
@@ -21110,18 +21162,18 @@
       <c r="A804" t="inlineStr"/>
       <c r="B804" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>640</t>
         </is>
       </c>
       <c r="C804" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>12</t>
         </is>
       </c>
       <c r="D804" t="inlineStr"/>
       <c r="E804" t="inlineStr">
         <is>
-          <t>https://www.greatforest.hu/property/54030-debrecen-greatforest-area-flat</t>
+          <t>https://www.greatforest.hu/property/101126-debrecen-city-center-office-not-in-office-building</t>
         </is>
       </c>
     </row>
@@ -21129,18 +21181,14 @@
       <c r="A805" t="inlineStr"/>
       <c r="B805" t="inlineStr">
         <is>
-          <t>55</t>
-        </is>
-      </c>
-      <c r="C805" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="C805" t="inlineStr"/>
       <c r="D805" t="inlineStr"/>
       <c r="E805" t="inlineStr">
         <is>
-          <t>https://www.greatforest.hu/property/42340-debrecen-kassai-campus-area-flat</t>
+          <t>https://www.greatforest.hu/property/101121-debrecen-greatforest-area-garage-individual-garage</t>
         </is>
       </c>
     </row>
@@ -21148,14 +21196,18 @@
       <c r="A806" t="inlineStr"/>
       <c r="B806" t="inlineStr">
         <is>
-          <t>2000</t>
-        </is>
-      </c>
-      <c r="C806" t="inlineStr"/>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="C806" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
       <c r="D806" t="inlineStr"/>
       <c r="E806" t="inlineStr">
         <is>
-          <t>https://www.greatforest.hu/property/100306-debrecen-city-south-east-industrial-building</t>
+          <t>https://www.greatforest.hu/property/41027-debrecen-city-center-flat</t>
         </is>
       </c>
     </row>
@@ -21163,30 +21215,30 @@
       <c r="A807" t="inlineStr"/>
       <c r="B807" t="inlineStr">
         <is>
-          <t>43</t>
+          <t>67</t>
         </is>
       </c>
       <c r="C807" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D807" t="inlineStr"/>
       <c r="E807" t="inlineStr">
         <is>
-          <t>https://www.greatforest.hu/property/101057-debrecen-flat</t>
+          <t>https://www.greatforest.hu/property/101104-debrecen-close-to-tesco-area-block-of-flats</t>
         </is>
       </c>
     </row>
     <row r="808">
       <c r="A808" t="inlineStr">
         <is>
-          <t>170 000</t>
+          <t>100 000</t>
         </is>
       </c>
       <c r="B808" t="inlineStr">
         <is>
-          <t>65</t>
+          <t>25</t>
         </is>
       </c>
       <c r="C808" t="inlineStr">
@@ -21196,12 +21248,12 @@
       </c>
       <c r="D808" t="inlineStr">
         <is>
-          <t>Debrecen, Simonyi út</t>
+          <t>Debrecen, Vezér utca</t>
         </is>
       </c>
       <c r="E808" t="inlineStr">
         <is>
-          <t>https://debrecenrent.hu/for-rent/flat/debrecen-simonyi-ut/207872/</t>
+          <t>https://debrecenrent.hu/for-rent/flat/debrecen-vezer-utca/219797/</t>
         </is>
       </c>
     </row>
@@ -21267,7 +21319,7 @@
       </c>
       <c r="B811" t="inlineStr">
         <is>
-          <t>54</t>
+          <t>65</t>
         </is>
       </c>
       <c r="C811" t="inlineStr">
@@ -21277,12 +21329,12 @@
       </c>
       <c r="D811" t="inlineStr">
         <is>
-          <t>Debrecen, Cívis utca</t>
+          <t>Debrecen, Simonyi út</t>
         </is>
       </c>
       <c r="E811" t="inlineStr">
         <is>
-          <t>https://debrecenrent.hu/for-rent/flat/debrecen-civis-utca/219199/</t>
+          <t>https://debrecenrent.hu/for-rent/flat/debrecen-simonyi-ut/207872/</t>
         </is>
       </c>
     </row>
@@ -21316,12 +21368,12 @@
     <row r="813">
       <c r="A813" t="inlineStr">
         <is>
-          <t>490 000</t>
+          <t>119 000</t>
         </is>
       </c>
       <c r="B813" t="inlineStr">
         <is>
-          <t>52</t>
+          <t>23</t>
         </is>
       </c>
       <c r="C813" t="inlineStr">
@@ -21331,29 +21383,29 @@
       </c>
       <c r="D813" t="inlineStr">
         <is>
-          <t>Debrecen, Mikszáth Kálmán utca</t>
+          <t>Debrecen, Kassai út</t>
         </is>
       </c>
       <c r="E813" t="inlineStr">
         <is>
-          <t>https://debrecenrent.hu/for-rent/flat/debrecen-mikszath-kalman-utca/216981/</t>
+          <t>https://debrecenrent.hu/for-rent/house/debrecen-kassai-ut/176619/</t>
         </is>
       </c>
     </row>
     <row r="814">
       <c r="A814" t="inlineStr">
         <is>
-          <t>280 000</t>
+          <t>140 000</t>
         </is>
       </c>
       <c r="B814" t="inlineStr">
         <is>
-          <t>68</t>
+          <t>35</t>
         </is>
       </c>
       <c r="C814" t="inlineStr">
         <is>
-          <t>2 Bedrooms, 1 Bathrooms</t>
+          <t>1 Bedrooms, 1 Bathrooms</t>
         </is>
       </c>
       <c r="D814" t="inlineStr">
@@ -21363,46 +21415,46 @@
       </c>
       <c r="E814" t="inlineStr">
         <is>
-          <t>https://debrecenrent.hu/for-rent/flat/debrecen-csapo-utca/218738/</t>
+          <t>https://debrecenrent.hu/for-rent/flat/debrecen-csapo-utca/212757/</t>
         </is>
       </c>
     </row>
     <row r="815">
       <c r="A815" t="inlineStr">
         <is>
-          <t>390 000</t>
+          <t>115 000</t>
         </is>
       </c>
       <c r="B815" t="inlineStr">
         <is>
-          <t>115</t>
+          <t>28</t>
         </is>
       </c>
       <c r="C815" t="inlineStr">
         <is>
-          <t>3 Bedrooms, 1 Bathrooms</t>
+          <t>1 Bedrooms, 1 Bathrooms</t>
         </is>
       </c>
       <c r="D815" t="inlineStr">
         <is>
-          <t>Debrecen, Csapó utca</t>
+          <t>Debrecen, Faraktár utca</t>
         </is>
       </c>
       <c r="E815" t="inlineStr">
         <is>
-          <t>https://debrecenrent.hu/for-rent/flat/debrecen-csapo-utca/219320/</t>
+          <t>https://debrecenrent.hu/for-rent/flat/debrecen-faraktar-utca/219628/</t>
         </is>
       </c>
     </row>
     <row r="816">
       <c r="A816" t="inlineStr">
         <is>
-          <t>119 000</t>
+          <t>180 000</t>
         </is>
       </c>
       <c r="B816" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>78</t>
         </is>
       </c>
       <c r="C816" t="inlineStr">
@@ -21412,24 +21464,24 @@
       </c>
       <c r="D816" t="inlineStr">
         <is>
-          <t>Debrecen, Kassai út</t>
+          <t>Debrecen, Nagyerdei körút</t>
         </is>
       </c>
       <c r="E816" t="inlineStr">
         <is>
-          <t>https://debrecenrent.hu/for-rent/house/debrecen-kassai-ut/176619/</t>
+          <t>https://debrecenrent.hu/for-rent/flat/debrecen-nagyerdei-korut/199999/</t>
         </is>
       </c>
     </row>
     <row r="817">
       <c r="A817" t="inlineStr">
         <is>
-          <t>140 000</t>
+          <t>170 000</t>
         </is>
       </c>
       <c r="B817" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>54</t>
         </is>
       </c>
       <c r="C817" t="inlineStr">
@@ -21439,24 +21491,24 @@
       </c>
       <c r="D817" t="inlineStr">
         <is>
-          <t>Debrecen, Csapó utca</t>
+          <t>Debrecen, Cívis utca</t>
         </is>
       </c>
       <c r="E817" t="inlineStr">
         <is>
-          <t>https://debrecenrent.hu/for-rent/flat/debrecen-csapo-utca/212757/</t>
+          <t>https://debrecenrent.hu/for-rent/flat/debrecen-civis-utca/219199/</t>
         </is>
       </c>
     </row>
     <row r="818">
       <c r="A818" t="inlineStr">
         <is>
-          <t>140 000</t>
+          <t>490 000</t>
         </is>
       </c>
       <c r="B818" t="inlineStr">
         <is>
-          <t>38</t>
+          <t>52</t>
         </is>
       </c>
       <c r="C818" t="inlineStr">
@@ -21466,132 +21518,132 @@
       </c>
       <c r="D818" t="inlineStr">
         <is>
-          <t>Debrecen, Batthyány utca</t>
+          <t>Debrecen, Mikszáth Kálmán utca</t>
         </is>
       </c>
       <c r="E818" t="inlineStr">
         <is>
-          <t>https://debrecenrent.hu/for-rent/flat/debrecen-batthyany-utca/219726/</t>
+          <t>https://debrecenrent.hu/for-rent/flat/debrecen-mikszath-kalman-utca/216981/</t>
         </is>
       </c>
     </row>
     <row r="819">
       <c r="A819" t="inlineStr">
         <is>
-          <t>150 000</t>
+          <t>280 000</t>
         </is>
       </c>
       <c r="B819" t="inlineStr">
         <is>
-          <t>54</t>
+          <t>68</t>
         </is>
       </c>
       <c r="C819" t="inlineStr">
         <is>
-          <t>1 Bedrooms, 1 Bathrooms</t>
+          <t>2 Bedrooms, 1 Bathrooms</t>
         </is>
       </c>
       <c r="D819" t="inlineStr">
         <is>
-          <t>Debrecen, Dózsa György utca</t>
+          <t>Debrecen, Csapó utca</t>
         </is>
       </c>
       <c r="E819" t="inlineStr">
         <is>
-          <t>https://debrecenrent.hu/for-rent/flat/debrecen-dozsa-gyorgy-utca/218362/</t>
+          <t>https://debrecenrent.hu/for-rent/flat/debrecen-csapo-utca/218738/</t>
         </is>
       </c>
     </row>
     <row r="820">
       <c r="A820" t="inlineStr">
         <is>
-          <t>180 000</t>
+          <t>390 000</t>
         </is>
       </c>
       <c r="B820" t="inlineStr">
         <is>
-          <t>78</t>
+          <t>115</t>
         </is>
       </c>
       <c r="C820" t="inlineStr">
         <is>
-          <t>1 Bedrooms, 1 Bathrooms</t>
+          <t>3 Bedrooms, 1 Bathrooms</t>
         </is>
       </c>
       <c r="D820" t="inlineStr">
         <is>
-          <t>Debrecen, Nagyerdei körút</t>
+          <t>Debrecen, Csapó utca</t>
         </is>
       </c>
       <c r="E820" t="inlineStr">
         <is>
-          <t>https://debrecenrent.hu/for-rent/flat/debrecen-nagyerdei-korut/199999/</t>
+          <t>https://debrecenrent.hu/for-rent/flat/debrecen-csapo-utca/219320/</t>
         </is>
       </c>
     </row>
     <row r="821">
       <c r="A821" t="inlineStr">
         <is>
-          <t>190 000</t>
+          <t>140 000</t>
         </is>
       </c>
       <c r="B821" t="inlineStr">
         <is>
-          <t>72</t>
+          <t>38</t>
         </is>
       </c>
       <c r="C821" t="inlineStr">
         <is>
-          <t>2 Bedrooms, 1 Bathrooms</t>
+          <t>1 Bedrooms, 1 Bathrooms</t>
         </is>
       </c>
       <c r="D821" t="inlineStr">
         <is>
-          <t>Debrecen, Dienes János utca</t>
+          <t>Debrecen, Batthyány utca</t>
         </is>
       </c>
       <c r="E821" t="inlineStr">
         <is>
-          <t>https://debrecenrent.hu/for-rent/flat/debrecen-dienes-janos-utca/218718/</t>
+          <t>https://debrecenrent.hu/for-rent/flat/debrecen-batthyany-utca/219726/</t>
         </is>
       </c>
     </row>
     <row r="822">
       <c r="A822" t="inlineStr">
         <is>
-          <t>300 000</t>
+          <t>150 000</t>
         </is>
       </c>
       <c r="B822" t="inlineStr">
         <is>
-          <t>69</t>
+          <t>54</t>
         </is>
       </c>
       <c r="C822" t="inlineStr">
         <is>
-          <t>2 Bedrooms, 1 Bathrooms</t>
+          <t>1 Bedrooms, 1 Bathrooms</t>
         </is>
       </c>
       <c r="D822" t="inlineStr">
         <is>
-          <t>Debrecen, Antall József utca</t>
+          <t>Debrecen, Dózsa György utca</t>
         </is>
       </c>
       <c r="E822" t="inlineStr">
         <is>
-          <t>https://debrecenrent.hu/for-rent/flat/debrecen-antall-jozsef-utca/218121/</t>
+          <t>https://debrecenrent.hu/for-rent/flat/debrecen-dozsa-gyorgy-utca/218362/</t>
         </is>
       </c>
     </row>
     <row r="823">
       <c r="A823" t="inlineStr">
         <is>
-          <t>395 000</t>
+          <t>190 000</t>
         </is>
       </c>
       <c r="B823" t="inlineStr">
         <is>
-          <t>73</t>
+          <t>72</t>
         </is>
       </c>
       <c r="C823" t="inlineStr">
@@ -21601,100 +21653,100 @@
       </c>
       <c r="D823" t="inlineStr">
         <is>
-          <t>Debrecen, Garai utca</t>
+          <t>Debrecen, Dienes János utca</t>
         </is>
       </c>
       <c r="E823" t="inlineStr">
         <is>
-          <t>https://debrecenrent.hu/for-rent/flat/debrecen-garai-utca/217183/</t>
+          <t>https://debrecenrent.hu/for-rent/flat/debrecen-dienes-janos-utca/218718/</t>
         </is>
       </c>
     </row>
     <row r="824">
       <c r="A824" t="inlineStr">
         <is>
-          <t>395 000</t>
+          <t>300 000</t>
         </is>
       </c>
       <c r="B824" t="inlineStr">
         <is>
-          <t>83</t>
+          <t>69</t>
         </is>
       </c>
       <c r="C824" t="inlineStr">
         <is>
-          <t>2 Bedrooms, 2 Bathrooms</t>
+          <t>2 Bedrooms, 1 Bathrooms</t>
         </is>
       </c>
       <c r="D824" t="inlineStr">
         <is>
-          <t>Debrecen, Garai utca</t>
+          <t>Debrecen, Antall József utca</t>
         </is>
       </c>
       <c r="E824" t="inlineStr">
         <is>
-          <t>https://debrecenrent.hu/for-rent/flat/debrecen-garai-utca/217196/</t>
+          <t>https://debrecenrent.hu/for-rent/flat/debrecen-antall-jozsef-utca/218121/</t>
         </is>
       </c>
     </row>
     <row r="825">
       <c r="A825" t="inlineStr">
         <is>
-          <t>230 000</t>
+          <t>395 000</t>
         </is>
       </c>
       <c r="B825" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>73</t>
         </is>
       </c>
       <c r="C825" t="inlineStr">
         <is>
-          <t>1 Bedrooms, 1 Bathrooms</t>
+          <t>2 Bedrooms, 1 Bathrooms</t>
         </is>
       </c>
       <c r="D825" t="inlineStr">
         <is>
-          <t>Debrecen, Rózsahegy utca</t>
+          <t>Debrecen, Garai utca</t>
         </is>
       </c>
       <c r="E825" t="inlineStr">
         <is>
-          <t>https://debrecenrent.hu/for-rent/flat/debrecen-rozsahegy-utca/209110/</t>
+          <t>https://debrecenrent.hu/for-rent/flat/debrecen-garai-utca/217183/</t>
         </is>
       </c>
     </row>
     <row r="826">
       <c r="A826" t="inlineStr">
         <is>
-          <t>150 000</t>
+          <t>395 000</t>
         </is>
       </c>
       <c r="B826" t="inlineStr">
         <is>
-          <t>43</t>
+          <t>83</t>
         </is>
       </c>
       <c r="C826" t="inlineStr">
         <is>
-          <t>1 Bedrooms, 1 Bathrooms</t>
+          <t>2 Bedrooms, 2 Bathrooms</t>
         </is>
       </c>
       <c r="D826" t="inlineStr">
         <is>
-          <t>Debrecen, Kassai út</t>
+          <t>Debrecen, Garai utca</t>
         </is>
       </c>
       <c r="E826" t="inlineStr">
         <is>
-          <t>https://debrecenrent.hu/for-rent/flat/debrecen-kassai-ut/219562/</t>
+          <t>https://debrecenrent.hu/for-rent/flat/debrecen-garai-utca/217196/</t>
         </is>
       </c>
     </row>
     <row r="827">
       <c r="A827" t="inlineStr">
         <is>
-          <t>160 000</t>
+          <t>230 000</t>
         </is>
       </c>
       <c r="B827" t="inlineStr">
@@ -21709,24 +21761,24 @@
       </c>
       <c r="D827" t="inlineStr">
         <is>
-          <t>Debrecen, Hatvan utca</t>
+          <t>Debrecen, Rózsahegy utca</t>
         </is>
       </c>
       <c r="E827" t="inlineStr">
         <is>
-          <t>https://debrecenrent.hu/for-rent/flat/debrecen-hatvan-utca/219640/</t>
+          <t>https://debrecenrent.hu/for-rent/flat/debrecen-rozsahegy-utca/209110/</t>
         </is>
       </c>
     </row>
     <row r="828">
       <c r="A828" t="inlineStr">
         <is>
-          <t>120 000</t>
+          <t>150 000</t>
         </is>
       </c>
       <c r="B828" t="inlineStr">
         <is>
-          <t>28</t>
+          <t>43</t>
         </is>
       </c>
       <c r="C828" t="inlineStr">
@@ -21736,105 +21788,105 @@
       </c>
       <c r="D828" t="inlineStr">
         <is>
-          <t>Debrecen, Faraktár utca</t>
+          <t>Debrecen, Kassai út</t>
         </is>
       </c>
       <c r="E828" t="inlineStr">
         <is>
-          <t>https://debrecenrent.hu/for-rent/flat/debrecen-faraktar-utca/219628/</t>
+          <t>https://debrecenrent.hu/for-rent/flat/debrecen-kassai-ut/219562/</t>
         </is>
       </c>
     </row>
     <row r="829">
       <c r="A829" t="inlineStr">
         <is>
-          <t>400 000</t>
+          <t>160 000</t>
         </is>
       </c>
       <c r="B829" t="inlineStr">
         <is>
-          <t>159</t>
+          <t>50</t>
         </is>
       </c>
       <c r="C829" t="inlineStr">
         <is>
-          <t>4 Bedrooms, 2 Bathrooms</t>
+          <t>1 Bedrooms, 1 Bathrooms</t>
         </is>
       </c>
       <c r="D829" t="inlineStr">
         <is>
-          <t>Debrecen, Piac utca</t>
+          <t>Debrecen, Hatvan utca</t>
         </is>
       </c>
       <c r="E829" t="inlineStr">
         <is>
-          <t>https://debrecenrent.hu/for-rent/flat/debrecen-piac-utca/219173/</t>
+          <t>https://debrecenrent.hu/for-rent/flat/debrecen-hatvan-utca/219640/</t>
         </is>
       </c>
     </row>
     <row r="830">
       <c r="A830" t="inlineStr">
         <is>
-          <t>600 000</t>
+          <t>400 000</t>
         </is>
       </c>
       <c r="B830" t="inlineStr">
         <is>
-          <t>92</t>
+          <t>159</t>
         </is>
       </c>
       <c r="C830" t="inlineStr">
         <is>
-          <t>2 Bedrooms, 1 Bathrooms</t>
+          <t>4 Bedrooms, 2 Bathrooms</t>
         </is>
       </c>
       <c r="D830" t="inlineStr">
         <is>
-          <t>Debrecen, Hadházi út</t>
+          <t>Debrecen, Piac utca</t>
         </is>
       </c>
       <c r="E830" t="inlineStr">
         <is>
-          <t>https://debrecenrent.hu/for-rent/flat/debrecen-hadhazi-ut/219319/</t>
+          <t>https://debrecenrent.hu/for-rent/flat/debrecen-piac-utca/219173/</t>
         </is>
       </c>
     </row>
     <row r="831">
       <c r="A831" t="inlineStr">
         <is>
-          <t>240 000</t>
+          <t>600 000</t>
         </is>
       </c>
       <c r="B831" t="inlineStr">
         <is>
-          <t>60</t>
+          <t>92</t>
         </is>
       </c>
       <c r="C831" t="inlineStr">
         <is>
-          <t>1 Bedrooms, 1 Bathrooms</t>
+          <t>2 Bedrooms, 1 Bathrooms</t>
         </is>
       </c>
       <c r="D831" t="inlineStr">
         <is>
-          <t>Debrecen, Hatvani István utca</t>
+          <t>Debrecen, Hadházi út</t>
         </is>
       </c>
       <c r="E831" t="inlineStr">
         <is>
-          <t>https://debrecenrent.hu/for-rent/flat/debrecen-hatvani-istvan-utca/179322/</t>
+          <t>https://debrecenrent.hu/for-rent/flat/debrecen-hadhazi-ut/219319/</t>
         </is>
       </c>
     </row>
     <row r="832">
       <c r="A832" t="inlineStr">
         <is>
-          <t>170 000</t>
+          <t>240 000</t>
         </is>
       </c>
       <c r="B832" t="inlineStr">
         <is>
-          <t>56</t>
+          <t>60</t>
         </is>
       </c>
       <c r="C832" t="inlineStr">
@@ -21844,132 +21896,132 @@
       </c>
       <c r="D832" t="inlineStr">
         <is>
-          <t>Debrecen, Széchenyi utca</t>
+          <t>Debrecen, Hatvani István utca</t>
         </is>
       </c>
       <c r="E832" t="inlineStr">
         <is>
-          <t>https://debrecenrent.hu/for-rent/flat/debrecen-szechenyi-utca/219233/</t>
+          <t>https://debrecenrent.hu/for-rent/flat/debrecen-hatvani-istvan-utca/179322/</t>
         </is>
       </c>
     </row>
     <row r="833">
       <c r="A833" t="inlineStr">
         <is>
-          <t>220 000</t>
+          <t>170 000</t>
         </is>
       </c>
       <c r="B833" t="inlineStr">
         <is>
-          <t>60</t>
+          <t>56</t>
         </is>
       </c>
       <c r="C833" t="inlineStr">
         <is>
-          <t>2 Bedrooms, 1 Bathrooms</t>
+          <t>1 Bedrooms, 1 Bathrooms</t>
         </is>
       </c>
       <c r="D833" t="inlineStr">
         <is>
-          <t>Debrecen, Egyetem sugárút</t>
+          <t>Debrecen, Széchenyi utca</t>
         </is>
       </c>
       <c r="E833" t="inlineStr">
         <is>
-          <t>https://debrecenrent.hu/for-rent/flat/debrecen-egyetem-sugarut/216383/</t>
+          <t>https://debrecenrent.hu/for-rent/flat/debrecen-szechenyi-utca/219233/</t>
         </is>
       </c>
     </row>
     <row r="834">
       <c r="A834" t="inlineStr">
         <is>
-          <t>390 000</t>
+          <t>220 000</t>
         </is>
       </c>
       <c r="B834" t="inlineStr">
         <is>
-          <t>75</t>
+          <t>60</t>
         </is>
       </c>
       <c r="C834" t="inlineStr">
         <is>
-          <t>3 Bedrooms, 1 Bathrooms</t>
+          <t>2 Bedrooms, 1 Bathrooms</t>
         </is>
       </c>
       <c r="D834" t="inlineStr">
         <is>
-          <t>Debrecen, Nagyerdei körút</t>
+          <t>Debrecen, Egyetem sugárút</t>
         </is>
       </c>
       <c r="E834" t="inlineStr">
         <is>
-          <t>https://debrecenrent.hu/for-rent/flat/debrecen-nagyerdei-korut/213647/</t>
+          <t>https://debrecenrent.hu/for-rent/flat/debrecen-egyetem-sugarut/216383/</t>
         </is>
       </c>
     </row>
     <row r="835">
       <c r="A835" t="inlineStr">
         <is>
-          <t>230 000</t>
+          <t>390 000</t>
         </is>
       </c>
       <c r="B835" t="inlineStr">
         <is>
-          <t>59</t>
+          <t>75</t>
         </is>
       </c>
       <c r="C835" t="inlineStr">
         <is>
-          <t>1 Bedrooms, 1 Bathrooms</t>
+          <t>3 Bedrooms, 1 Bathrooms</t>
         </is>
       </c>
       <c r="D835" t="inlineStr">
         <is>
-          <t>Debrecen, Hadházi út</t>
+          <t>Debrecen, Nagyerdei körút</t>
         </is>
       </c>
       <c r="E835" t="inlineStr">
         <is>
-          <t>https://debrecenrent.hu/for-rent/flat/debrecen-hadhazi-ut/218454/</t>
+          <t>https://debrecenrent.hu/for-rent/flat/debrecen-nagyerdei-korut/213647/</t>
         </is>
       </c>
     </row>
     <row r="836">
       <c r="A836" t="inlineStr">
         <is>
-          <t>180 000</t>
+          <t>230 000</t>
         </is>
       </c>
       <c r="B836" t="inlineStr">
         <is>
-          <t>66</t>
+          <t>59</t>
         </is>
       </c>
       <c r="C836" t="inlineStr">
         <is>
-          <t>2 Bedrooms, 1 Bathrooms</t>
+          <t>1 Bedrooms, 1 Bathrooms</t>
         </is>
       </c>
       <c r="D836" t="inlineStr">
         <is>
-          <t>Debrecen, Csapó utca</t>
+          <t>Debrecen, Hadházi út</t>
         </is>
       </c>
       <c r="E836" t="inlineStr">
         <is>
-          <t>https://debrecenrent.hu/for-rent/flat/debrecen-csapo-utca/218492/</t>
+          <t>https://debrecenrent.hu/for-rent/flat/debrecen-hadhazi-ut/218454/</t>
         </is>
       </c>
     </row>
     <row r="837">
       <c r="A837" t="inlineStr">
         <is>
-          <t>210 000</t>
+          <t>180 000</t>
         </is>
       </c>
       <c r="B837" t="inlineStr">
         <is>
-          <t>71</t>
+          <t>66</t>
         </is>
       </c>
       <c r="C837" t="inlineStr">
@@ -21979,51 +22031,51 @@
       </c>
       <c r="D837" t="inlineStr">
         <is>
-          <t>Debrecen, Laktanya utca</t>
+          <t>Debrecen, Csapó utca</t>
         </is>
       </c>
       <c r="E837" t="inlineStr">
         <is>
-          <t>https://debrecenrent.hu/for-rent/flat/debrecen-laktanya-utca/203923/</t>
+          <t>https://debrecenrent.hu/for-rent/flat/debrecen-csapo-utca/218492/</t>
         </is>
       </c>
     </row>
     <row r="838">
       <c r="A838" t="inlineStr">
         <is>
-          <t>130 000</t>
+          <t>210 000</t>
         </is>
       </c>
       <c r="B838" t="inlineStr">
         <is>
-          <t>45</t>
+          <t>71</t>
         </is>
       </c>
       <c r="C838" t="inlineStr">
         <is>
-          <t>1 Bedrooms, 1 Bathrooms</t>
+          <t>2 Bedrooms, 1 Bathrooms</t>
         </is>
       </c>
       <c r="D838" t="inlineStr">
         <is>
-          <t>Debrecen, Honvéd utca</t>
+          <t>Debrecen, Laktanya utca</t>
         </is>
       </c>
       <c r="E838" t="inlineStr">
         <is>
-          <t>https://debrecenrent.hu/for-rent/flat/debrecen-honved-utca/192083/</t>
+          <t>https://debrecenrent.hu/for-rent/flat/debrecen-laktanya-utca/203923/</t>
         </is>
       </c>
     </row>
     <row r="839">
       <c r="A839" t="inlineStr">
         <is>
-          <t>240 000</t>
+          <t>130 000</t>
         </is>
       </c>
       <c r="B839" t="inlineStr">
         <is>
-          <t>54</t>
+          <t>45</t>
         </is>
       </c>
       <c r="C839" t="inlineStr">
@@ -22033,39 +22085,39 @@
       </c>
       <c r="D839" t="inlineStr">
         <is>
-          <t>Debrecen, Nagy Lajos király tér</t>
+          <t>Debrecen, Honvéd utca</t>
         </is>
       </c>
       <c r="E839" t="inlineStr">
         <is>
-          <t>https://debrecenrent.hu/for-rent/flat/debrecen-nagy-lajos-kiraly-ter/218134/</t>
+          <t>https://debrecenrent.hu/for-rent/flat/debrecen-honved-utca/192083/</t>
         </is>
       </c>
     </row>
     <row r="840">
       <c r="A840" t="inlineStr">
         <is>
-          <t>350 000</t>
+          <t>240 000</t>
         </is>
       </c>
       <c r="B840" t="inlineStr">
         <is>
-          <t>130</t>
+          <t>54</t>
         </is>
       </c>
       <c r="C840" t="inlineStr">
         <is>
-          <t>4 Bedrooms, 2 Bathrooms</t>
+          <t>1 Bedrooms, 1 Bathrooms</t>
         </is>
       </c>
       <c r="D840" t="inlineStr">
         <is>
-          <t>Debrecen, Akadémia utca</t>
+          <t>Debrecen, Nagy Lajos király tér</t>
         </is>
       </c>
       <c r="E840" t="inlineStr">
         <is>
-          <t>https://debrecenrent.hu/for-rent/house/debrecen-akademia-utca/217736/</t>
+          <t>https://debrecenrent.hu/for-rent/flat/debrecen-nagy-lajos-kiraly-ter/218134/</t>
         </is>
       </c>
     </row>
@@ -22077,61 +22129,61 @@
       </c>
       <c r="B841" t="inlineStr">
         <is>
-          <t>63</t>
+          <t>130</t>
         </is>
       </c>
       <c r="C841" t="inlineStr">
         <is>
-          <t>2 Bedrooms, 1 Bathrooms</t>
+          <t>4 Bedrooms, 2 Bathrooms</t>
         </is>
       </c>
       <c r="D841" t="inlineStr">
         <is>
-          <t>Debrecen, Antall József utca</t>
+          <t>Debrecen, Akadémia utca</t>
         </is>
       </c>
       <c r="E841" t="inlineStr">
         <is>
-          <t>https://debrecenrent.hu/for-rent/flat/debrecen-antall-jozsef-utca/218120/</t>
+          <t>https://debrecenrent.hu/for-rent/house/debrecen-akademia-utca/217736/</t>
         </is>
       </c>
     </row>
     <row r="842">
       <c r="A842" t="inlineStr">
         <is>
-          <t>190 000</t>
+          <t>350 000</t>
         </is>
       </c>
       <c r="B842" t="inlineStr">
         <is>
-          <t>65</t>
+          <t>63</t>
         </is>
       </c>
       <c r="C842" t="inlineStr">
         <is>
-          <t>1 Bedrooms, 1 Bathrooms</t>
+          <t>2 Bedrooms, 1 Bathrooms</t>
         </is>
       </c>
       <c r="D842" t="inlineStr">
         <is>
-          <t>Debrecen, Szoboszlói út</t>
+          <t>Debrecen, Antall József utca</t>
         </is>
       </c>
       <c r="E842" t="inlineStr">
         <is>
-          <t>https://debrecenrent.hu/for-rent/flat/debrecen-szoboszloi-ut/204247/</t>
+          <t>https://debrecenrent.hu/for-rent/flat/debrecen-antall-jozsef-utca/218120/</t>
         </is>
       </c>
     </row>
     <row r="843">
       <c r="A843" t="inlineStr">
         <is>
-          <t>200 000</t>
+          <t>190 000</t>
         </is>
       </c>
       <c r="B843" t="inlineStr">
         <is>
-          <t>55</t>
+          <t>65</t>
         </is>
       </c>
       <c r="C843" t="inlineStr">
@@ -22141,24 +22193,24 @@
       </c>
       <c r="D843" t="inlineStr">
         <is>
-          <t>Debrecen, Péterfia utca</t>
+          <t>Debrecen, Szoboszlói út</t>
         </is>
       </c>
       <c r="E843" t="inlineStr">
         <is>
-          <t>https://debrecenrent.hu/for-rent/flat/debrecen-peterfia-utca/210104/</t>
+          <t>https://debrecenrent.hu/for-rent/flat/debrecen-szoboszloi-ut/204247/</t>
         </is>
       </c>
     </row>
     <row r="844">
       <c r="A844" t="inlineStr">
         <is>
-          <t>170 000</t>
+          <t>200 000</t>
         </is>
       </c>
       <c r="B844" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>55</t>
         </is>
       </c>
       <c r="C844" t="inlineStr">
@@ -22173,19 +22225,19 @@
       </c>
       <c r="E844" t="inlineStr">
         <is>
-          <t>https://debrecenrent.hu/for-rent/flat/debrecen-peterfia-utca/215070/</t>
+          <t>https://debrecenrent.hu/for-rent/flat/debrecen-peterfia-utca/210104/</t>
         </is>
       </c>
     </row>
     <row r="845">
       <c r="A845" t="inlineStr">
         <is>
-          <t>190 000</t>
+          <t>170 000</t>
         </is>
       </c>
       <c r="B845" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>17</t>
         </is>
       </c>
       <c r="C845" t="inlineStr">
@@ -22200,7 +22252,7 @@
       </c>
       <c r="E845" t="inlineStr">
         <is>
-          <t>https://debrecenrent.hu/for-rent/flat/debrecen-peterfia-utca/205429/</t>
+          <t>https://debrecenrent.hu/for-rent/flat/debrecen-peterfia-utca/215070/</t>
         </is>
       </c>
     </row>
@@ -22212,7 +22264,7 @@
       </c>
       <c r="B846" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>13</t>
         </is>
       </c>
       <c r="C846" t="inlineStr">
@@ -22227,19 +22279,19 @@
       </c>
       <c r="E846" t="inlineStr">
         <is>
-          <t>https://debrecenrent.hu/for-rent/flat/debrecen-peterfia-utca/205422/</t>
+          <t>https://debrecenrent.hu/for-rent/flat/debrecen-peterfia-utca/205429/</t>
         </is>
       </c>
     </row>
     <row r="847">
       <c r="A847" t="inlineStr">
         <is>
-          <t>230 000</t>
+          <t>190 000</t>
         </is>
       </c>
       <c r="B847" t="inlineStr">
         <is>
-          <t>54</t>
+          <t>14</t>
         </is>
       </c>
       <c r="C847" t="inlineStr">
@@ -22249,125 +22301,152 @@
       </c>
       <c r="D847" t="inlineStr">
         <is>
-          <t>Debrecen, Gönczy Pál utca</t>
+          <t>Debrecen, Péterfia utca</t>
         </is>
       </c>
       <c r="E847" t="inlineStr">
         <is>
-          <t>https://debrecenrent.hu/for-rent/flat/debrecen-gonczy-pal-utca/216064/</t>
+          <t>https://debrecenrent.hu/for-rent/flat/debrecen-peterfia-utca/205422/</t>
         </is>
       </c>
     </row>
     <row r="848">
       <c r="A848" t="inlineStr">
         <is>
-          <t>600 000</t>
-        </is>
-      </c>
-      <c r="B848" t="inlineStr"/>
-      <c r="C848" t="inlineStr"/>
+          <t>230 000</t>
+        </is>
+      </c>
+      <c r="B848" t="inlineStr">
+        <is>
+          <t>54</t>
+        </is>
+      </c>
+      <c r="C848" t="inlineStr">
+        <is>
+          <t>1 Bedrooms, 1 Bathrooms</t>
+        </is>
+      </c>
       <c r="D848" t="inlineStr">
         <is>
-          <t>Hajdúszoboszló</t>
+          <t>Debrecen, Gönczy Pál utca</t>
         </is>
       </c>
       <c r="E848" t="inlineStr">
         <is>
-          <t>https://debrecenrent.hu/for-rent/house/hajduszoboszlo-/214748/</t>
+          <t>https://debrecenrent.hu/for-rent/flat/debrecen-gonczy-pal-utca/216064/</t>
         </is>
       </c>
     </row>
     <row r="849">
       <c r="A849" t="inlineStr">
         <is>
+          <t>600 000</t>
+        </is>
+      </c>
+      <c r="B849" t="inlineStr"/>
+      <c r="C849" t="inlineStr"/>
+      <c r="D849" t="inlineStr">
+        <is>
+          <t>Hajdúszoboszló</t>
+        </is>
+      </c>
+      <c r="E849" t="inlineStr">
+        <is>
+          <t>https://debrecenrent.hu/for-rent/house/hajduszoboszlo-/214748/</t>
+        </is>
+      </c>
+    </row>
+    <row r="850">
+      <c r="A850" t="inlineStr">
+        <is>
           <t>500 000</t>
         </is>
       </c>
-      <c r="B849" t="inlineStr">
+      <c r="B850" t="inlineStr">
         <is>
           <t>147</t>
         </is>
       </c>
-      <c r="C849" t="inlineStr">
+      <c r="C850" t="inlineStr">
         <is>
           <t>3 Bedrooms, 2 Bathrooms</t>
         </is>
       </c>
-      <c r="D849" t="inlineStr">
+      <c r="D850" t="inlineStr">
         <is>
           <t>Hajdúszoboszló, Hőforrás utca</t>
         </is>
       </c>
-      <c r="E849" t="inlineStr">
+      <c r="E850" t="inlineStr">
         <is>
           <t>https://debrecenrent.hu/for-rent/house/hajduszoboszlo-hoforras-utca/214766/</t>
         </is>
       </c>
     </row>
-    <row r="850">
-      <c r="A850" t="inlineStr"/>
-      <c r="B850" t="inlineStr"/>
-      <c r="C850" t="inlineStr"/>
-      <c r="D850" t="inlineStr">
+    <row r="851">
+      <c r="A851" t="inlineStr"/>
+      <c r="B851" t="inlineStr"/>
+      <c r="C851" t="inlineStr"/>
+      <c r="D851" t="inlineStr">
         <is>
           <t>Debrecen, Böszörményi út</t>
         </is>
       </c>
-      <c r="E850" t="inlineStr">
+      <c r="E851" t="inlineStr">
         <is>
           <t>https://debrecenrent.hu/for-rent/flat/debrecen-boszormenyi-ut/212458/</t>
-        </is>
-      </c>
-    </row>
-    <row r="851">
-      <c r="A851" t="inlineStr">
-        <is>
-          <t>420 000</t>
-        </is>
-      </c>
-      <c r="B851" t="inlineStr">
-        <is>
-          <t>228</t>
-        </is>
-      </c>
-      <c r="C851" t="inlineStr">
-        <is>
-          <t>4 Bedrooms, 2 Bathrooms</t>
-        </is>
-      </c>
-      <c r="D851" t="inlineStr">
-        <is>
-          <t>Debrecen, Simonyi út</t>
-        </is>
-      </c>
-      <c r="E851" t="inlineStr">
-        <is>
-          <t>https://debrecenrent.hu/for-rent/flat/debrecen-simonyi-ut/212003/</t>
         </is>
       </c>
     </row>
     <row r="852">
       <c r="A852" t="inlineStr">
         <is>
+          <t>420 000</t>
+        </is>
+      </c>
+      <c r="B852" t="inlineStr">
+        <is>
+          <t>228</t>
+        </is>
+      </c>
+      <c r="C852" t="inlineStr">
+        <is>
+          <t>4 Bedrooms, 2 Bathrooms</t>
+        </is>
+      </c>
+      <c r="D852" t="inlineStr">
+        <is>
+          <t>Debrecen, Simonyi út</t>
+        </is>
+      </c>
+      <c r="E852" t="inlineStr">
+        <is>
+          <t>https://debrecenrent.hu/for-rent/flat/debrecen-simonyi-ut/212003/</t>
+        </is>
+      </c>
+    </row>
+    <row r="853">
+      <c r="A853" t="inlineStr">
+        <is>
           <t>220 000</t>
         </is>
       </c>
-      <c r="B852" t="inlineStr">
+      <c r="B853" t="inlineStr">
         <is>
           <t>71</t>
         </is>
       </c>
-      <c r="C852" t="inlineStr">
+      <c r="C853" t="inlineStr">
         <is>
           <t>2 Bedrooms, 1 Bathrooms</t>
         </is>
       </c>
-      <c r="D852" t="inlineStr">
+      <c r="D853" t="inlineStr">
         <is>
           <t>Debrecen, Böszörményi út</t>
         </is>
       </c>
-      <c r="E852" t="inlineStr">
+      <c r="E853" t="inlineStr">
         <is>
           <t>https://debrecenrent.hu/for-rent/flat/debrecen-boszormenyi-ut/209447/</t>
         </is>

--- a/streamlit/housesTRIAL.xlsx
+++ b/streamlit/housesTRIAL.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E853"/>
+  <dimension ref="A1:E855"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -18094,65 +18094,69 @@
     <row r="655">
       <c r="A655" t="inlineStr">
         <is>
-          <t>150 000</t>
+          <t>595 000</t>
         </is>
       </c>
       <c r="B655" t="inlineStr">
         <is>
-          <t>54</t>
+          <t>147</t>
         </is>
       </c>
       <c r="C655" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>4</t>
         </is>
       </c>
       <c r="D655" t="inlineStr"/>
       <c r="E655" t="inlineStr">
         <is>
-          <t>https://www.greatforest.hu/property/100958-debrecen-close-to-tesco-area-block-of-flats</t>
+          <t>https://www.greatforest.hu/property/101274-hajduszoboszlo-attached-house</t>
         </is>
       </c>
     </row>
     <row r="656">
       <c r="A656" t="inlineStr">
         <is>
-          <t>3 000 000</t>
+          <t>290 000</t>
         </is>
       </c>
       <c r="B656" t="inlineStr">
         <is>
-          <t>640</t>
+          <t>50</t>
         </is>
       </c>
       <c r="C656" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D656" t="inlineStr"/>
       <c r="E656" t="inlineStr">
         <is>
-          <t>https://www.greatforest.hu/property/101126-debrecen-city-center-office-not-in-office-building</t>
+          <t>https://www.greatforest.hu/property/101246-debrecen-bem-square-flat</t>
         </is>
       </c>
     </row>
     <row r="657">
       <c r="A657" t="inlineStr">
         <is>
-          <t>25 000</t>
+          <t>390 000</t>
         </is>
       </c>
       <c r="B657" t="inlineStr">
         <is>
-          <t>25</t>
-        </is>
-      </c>
-      <c r="C657" t="inlineStr"/>
+          <t>60</t>
+        </is>
+      </c>
+      <c r="C657" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
       <c r="D657" t="inlineStr"/>
       <c r="E657" t="inlineStr">
         <is>
-          <t>https://www.greatforest.hu/property/101121-debrecen-greatforest-area-garage-individual-garage</t>
+          <t>https://www.greatforest.hu/property/101245-debrecen-greatforest-area-flat</t>
         </is>
       </c>
     </row>
@@ -18164,76 +18168,68 @@
       </c>
       <c r="B658" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>78</t>
         </is>
       </c>
       <c r="C658" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D658" t="inlineStr"/>
       <c r="E658" t="inlineStr">
         <is>
-          <t>https://www.greatforest.hu/property/41027-debrecen-city-center-flat</t>
+          <t>https://www.greatforest.hu/property/101244-debrecen-greatforest-area-flat</t>
         </is>
       </c>
     </row>
     <row r="659">
       <c r="A659" t="inlineStr">
         <is>
-          <t>155 000</t>
+          <t>25 000</t>
         </is>
       </c>
       <c r="B659" t="inlineStr">
         <is>
-          <t>51</t>
-        </is>
-      </c>
-      <c r="C659" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="C659" t="inlineStr"/>
       <c r="D659" t="inlineStr"/>
       <c r="E659" t="inlineStr">
         <is>
-          <t>https://www.greatforest.hu/property/54030-debrecen-greatforest-area-flat</t>
+          <t>https://www.greatforest.hu/property/101204-debrecen-city-center-parking-lot-underground</t>
         </is>
       </c>
     </row>
     <row r="660">
       <c r="A660" t="inlineStr">
         <is>
-          <t>300 000</t>
+          <t>20 000</t>
         </is>
       </c>
       <c r="B660" t="inlineStr">
         <is>
-          <t>55</t>
-        </is>
-      </c>
-      <c r="C660" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="C660" t="inlineStr"/>
       <c r="D660" t="inlineStr"/>
       <c r="E660" t="inlineStr">
         <is>
-          <t>https://www.greatforest.hu/property/42340-debrecen-kassai-campus-area-flat</t>
+          <t>https://www.greatforest.hu/property/101203-debrecen-main-campus-area-parking-lot-underground</t>
         </is>
       </c>
     </row>
     <row r="661">
       <c r="A661" t="inlineStr">
         <is>
-          <t>150 000</t>
+          <t>140 000</t>
         </is>
       </c>
       <c r="B661" t="inlineStr">
         <is>
-          <t>43</t>
+          <t>52</t>
         </is>
       </c>
       <c r="C661" t="inlineStr">
@@ -18244,7 +18240,7 @@
       <c r="D661" t="inlineStr"/>
       <c r="E661" t="inlineStr">
         <is>
-          <t>https://www.greatforest.hu/property/101057-debrecen-flat</t>
+          <t>https://www.greatforest.hu/property/14121-debrecen-close-to-main-campus-flat</t>
         </is>
       </c>
     </row>
@@ -18256,7 +18252,7 @@
       </c>
       <c r="B662" t="inlineStr">
         <is>
-          <t>44</t>
+          <t>54</t>
         </is>
       </c>
       <c r="C662" t="inlineStr">
@@ -18267,30 +18263,30 @@
       <c r="D662" t="inlineStr"/>
       <c r="E662" t="inlineStr">
         <is>
-          <t>https://www.greatforest.hu/property/101018-debrecen-close-to-tesco-area-block-of-flats</t>
+          <t>https://www.greatforest.hu/property/100958-debrecen-close-to-tesco-area-block-of-flats</t>
         </is>
       </c>
     </row>
     <row r="663">
       <c r="A663" t="inlineStr">
         <is>
-          <t>180 000</t>
+          <t>3 000 000</t>
         </is>
       </c>
       <c r="B663" t="inlineStr">
         <is>
-          <t>78</t>
+          <t>640</t>
         </is>
       </c>
       <c r="C663" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>12</t>
         </is>
       </c>
       <c r="D663" t="inlineStr"/>
       <c r="E663" t="inlineStr">
         <is>
-          <t>https://www.greatforest.hu/property/80392-debrecen-greatforest-area-flat</t>
+          <t>https://www.greatforest.hu/property/101126-debrecen-city-center-office-not-in-office-building</t>
         </is>
       </c>
     </row>
@@ -18298,18 +18294,18 @@
       <c r="A664" t="inlineStr"/>
       <c r="B664" t="inlineStr">
         <is>
-          <t>140</t>
+          <t>147</t>
         </is>
       </c>
       <c r="C664" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>4</t>
         </is>
       </c>
       <c r="D664" t="inlineStr"/>
       <c r="E664" t="inlineStr">
         <is>
-          <t>https://www.greatforest.hu/property/101048-hajduszoboszlo-family-house</t>
+          <t>https://www.greatforest.hu/property/101274-hajduszoboszlo-attached-house</t>
         </is>
       </c>
     </row>
@@ -18317,18 +18313,14 @@
       <c r="A665" t="inlineStr"/>
       <c r="B665" t="inlineStr">
         <is>
-          <t>54</t>
-        </is>
-      </c>
-      <c r="C665" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
+          <t>1200</t>
+        </is>
+      </c>
+      <c r="C665" t="inlineStr"/>
       <c r="D665" t="inlineStr"/>
       <c r="E665" t="inlineStr">
         <is>
-          <t>https://www.greatforest.hu/property/100958-debrecen-close-to-tesco-area-block-of-flats</t>
+          <t>https://www.greatforest.hu/property/99305-hajduszoboszlo-pension</t>
         </is>
       </c>
     </row>
@@ -18336,18 +18328,18 @@
       <c r="A666" t="inlineStr"/>
       <c r="B666" t="inlineStr">
         <is>
-          <t>74</t>
+          <t>48</t>
         </is>
       </c>
       <c r="C666" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D666" t="inlineStr"/>
       <c r="E666" t="inlineStr">
         <is>
-          <t>https://www.greatforest.hu/property/100009-debrecen-city-east-family-house</t>
+          <t>https://www.greatforest.hu/property/101250-debrecen-city-south-east-family-house</t>
         </is>
       </c>
     </row>
@@ -18355,7 +18347,7 @@
       <c r="A667" t="inlineStr"/>
       <c r="B667" t="inlineStr">
         <is>
-          <t>60</t>
+          <t>50</t>
         </is>
       </c>
       <c r="C667" t="inlineStr">
@@ -18366,7 +18358,7 @@
       <c r="D667" t="inlineStr"/>
       <c r="E667" t="inlineStr">
         <is>
-          <t>https://www.greatforest.hu/property/99898-hajdusamson-family-house</t>
+          <t>https://www.greatforest.hu/property/101246-debrecen-bem-square-flat</t>
         </is>
       </c>
     </row>
@@ -18374,18 +18366,18 @@
       <c r="A668" t="inlineStr"/>
       <c r="B668" t="inlineStr">
         <is>
-          <t>640</t>
+          <t>60</t>
         </is>
       </c>
       <c r="C668" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D668" t="inlineStr"/>
       <c r="E668" t="inlineStr">
         <is>
-          <t>https://www.greatforest.hu/property/101126-debrecen-city-center-office-not-in-office-building</t>
+          <t>https://www.greatforest.hu/property/101245-debrecen-greatforest-area-flat</t>
         </is>
       </c>
     </row>
@@ -18393,14 +18385,18 @@
       <c r="A669" t="inlineStr"/>
       <c r="B669" t="inlineStr">
         <is>
-          <t>25</t>
-        </is>
-      </c>
-      <c r="C669" t="inlineStr"/>
+          <t>78</t>
+        </is>
+      </c>
+      <c r="C669" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
       <c r="D669" t="inlineStr"/>
       <c r="E669" t="inlineStr">
         <is>
-          <t>https://www.greatforest.hu/property/101121-debrecen-greatforest-area-garage-individual-garage</t>
+          <t>https://www.greatforest.hu/property/101244-debrecen-greatforest-area-flat</t>
         </is>
       </c>
     </row>
@@ -18408,18 +18404,14 @@
       <c r="A670" t="inlineStr"/>
       <c r="B670" t="inlineStr">
         <is>
-          <t>96</t>
-        </is>
-      </c>
-      <c r="C670" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="C670" t="inlineStr"/>
       <c r="D670" t="inlineStr"/>
       <c r="E670" t="inlineStr">
         <is>
-          <t>https://www.greatforest.hu/property/41027-debrecen-city-center-flat</t>
+          <t>https://www.greatforest.hu/property/101204-debrecen-city-center-parking-lot-underground</t>
         </is>
       </c>
     </row>
@@ -18427,53 +18419,49 @@
       <c r="A671" t="inlineStr"/>
       <c r="B671" t="inlineStr">
         <is>
-          <t>67</t>
-        </is>
-      </c>
-      <c r="C671" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="C671" t="inlineStr"/>
       <c r="D671" t="inlineStr"/>
       <c r="E671" t="inlineStr">
         <is>
-          <t>https://www.greatforest.hu/property/101104-debrecen-close-to-tesco-area-block-of-flats</t>
+          <t>https://www.greatforest.hu/property/101203-debrecen-main-campus-area-parking-lot-underground</t>
         </is>
       </c>
     </row>
     <row r="672">
       <c r="A672" t="inlineStr">
         <is>
-          <t>210 000</t>
+          <t>300 000</t>
         </is>
       </c>
       <c r="B672" t="inlineStr">
         <is>
-          <t>53</t>
+          <t>96</t>
         </is>
       </c>
       <c r="C672" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>4</t>
         </is>
       </c>
       <c r="D672" t="inlineStr"/>
       <c r="E672" t="inlineStr">
         <is>
-          <t>https://www.greatforest.hu/property/89189-debrecen-city-center-flat</t>
+          <t>https://www.greatforest.hu/property/41027-debrecen-city-center-flat</t>
         </is>
       </c>
     </row>
     <row r="673">
       <c r="A673" t="inlineStr">
         <is>
-          <t>160 000</t>
+          <t>155 000</t>
         </is>
       </c>
       <c r="B673" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>51</t>
         </is>
       </c>
       <c r="C673" t="inlineStr">
@@ -18484,130 +18472,134 @@
       <c r="D673" t="inlineStr"/>
       <c r="E673" t="inlineStr">
         <is>
-          <t>https://www.greatforest.hu/property/100954-debrecen-city-center-flat</t>
+          <t>https://www.greatforest.hu/property/54030-debrecen-greatforest-area-flat</t>
         </is>
       </c>
     </row>
     <row r="674">
       <c r="A674" t="inlineStr">
         <is>
-          <t>270 000</t>
+          <t>300 000</t>
         </is>
       </c>
       <c r="B674" t="inlineStr">
         <is>
-          <t>70</t>
+          <t>55</t>
         </is>
       </c>
       <c r="C674" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D674" t="inlineStr"/>
       <c r="E674" t="inlineStr">
         <is>
-          <t>https://www.greatforest.hu/property/100658-debrecen-close-to-tesco-area-flat</t>
+          <t>https://www.greatforest.hu/property/42340-debrecen-kassai-campus-area-flat</t>
         </is>
       </c>
     </row>
     <row r="675">
       <c r="A675" t="inlineStr">
         <is>
-          <t>130 000</t>
+          <t>150 000</t>
         </is>
       </c>
       <c r="B675" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>43</t>
         </is>
       </c>
       <c r="C675" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D675" t="inlineStr"/>
       <c r="E675" t="inlineStr">
         <is>
-          <t>https://www.greatforest.hu/property/100649-debrecen-city-center-office-not-in-office-building</t>
+          <t>https://www.greatforest.hu/property/101057-debrecen-flat</t>
         </is>
       </c>
     </row>
     <row r="676">
       <c r="A676" t="inlineStr">
         <is>
-          <t>130 000</t>
+          <t>150 000</t>
         </is>
       </c>
       <c r="B676" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>44</t>
         </is>
       </c>
       <c r="C676" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D676" t="inlineStr"/>
       <c r="E676" t="inlineStr">
         <is>
-          <t>https://www.greatforest.hu/property/100624-debrecen-city-center-part-of-a-house</t>
+          <t>https://www.greatforest.hu/property/101018-debrecen-close-to-tesco-area-block-of-flats</t>
         </is>
       </c>
     </row>
     <row r="677">
       <c r="A677" t="inlineStr">
         <is>
-          <t>140 000</t>
+          <t>180 000</t>
         </is>
       </c>
       <c r="B677" t="inlineStr">
         <is>
-          <t>55</t>
+          <t>78</t>
         </is>
       </c>
       <c r="C677" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D677" t="inlineStr"/>
       <c r="E677" t="inlineStr">
         <is>
-          <t>https://www.greatforest.hu/property/100631-debrecen-flat</t>
+          <t>https://www.greatforest.hu/property/80392-debrecen-greatforest-area-flat</t>
         </is>
       </c>
     </row>
     <row r="678">
       <c r="A678" t="inlineStr">
         <is>
-          <t>1 800 000</t>
+          <t>210 000</t>
         </is>
       </c>
       <c r="B678" t="inlineStr">
         <is>
-          <t>1400</t>
-        </is>
-      </c>
-      <c r="C678" t="inlineStr"/>
+          <t>53</t>
+        </is>
+      </c>
+      <c r="C678" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
       <c r="D678" t="inlineStr"/>
       <c r="E678" t="inlineStr">
         <is>
-          <t>https://www.greatforest.hu/property/100619-debrecen-city-center-commercial-premises-not-in-shopping-center</t>
+          <t>https://www.greatforest.hu/property/89189-debrecen-city-center-flat</t>
         </is>
       </c>
     </row>
     <row r="679">
       <c r="A679" t="inlineStr">
         <is>
-          <t>140 000</t>
+          <t>160 000</t>
         </is>
       </c>
       <c r="B679" t="inlineStr">
         <is>
-          <t>58</t>
+          <t>50</t>
         </is>
       </c>
       <c r="C679" t="inlineStr">
@@ -18618,30 +18610,30 @@
       <c r="D679" t="inlineStr"/>
       <c r="E679" t="inlineStr">
         <is>
-          <t>https://www.greatforest.hu/property/100442-debrecen-city-center-part-of-a-house</t>
+          <t>https://www.greatforest.hu/property/100954-debrecen-city-center-flat</t>
         </is>
       </c>
     </row>
     <row r="680">
       <c r="A680" t="inlineStr">
         <is>
-          <t>160 000</t>
+          <t>270 000</t>
         </is>
       </c>
       <c r="B680" t="inlineStr">
         <is>
-          <t>54</t>
+          <t>70</t>
         </is>
       </c>
       <c r="C680" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D680" t="inlineStr"/>
       <c r="E680" t="inlineStr">
         <is>
-          <t>https://www.greatforest.hu/property/100444-debrecen-close-to-main-campus-agricult-unversity-block-of-flats</t>
+          <t>https://www.greatforest.hu/property/100658-debrecen-close-to-tesco-area-flat</t>
         </is>
       </c>
     </row>
@@ -18649,18 +18641,18 @@
       <c r="A681" t="inlineStr"/>
       <c r="B681" t="inlineStr">
         <is>
-          <t>140</t>
+          <t>147</t>
         </is>
       </c>
       <c r="C681" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>4</t>
         </is>
       </c>
       <c r="D681" t="inlineStr"/>
       <c r="E681" t="inlineStr">
         <is>
-          <t>https://www.greatforest.hu/property/101048-hajduszoboszlo-family-house</t>
+          <t>https://www.greatforest.hu/property/101274-hajduszoboszlo-attached-house</t>
         </is>
       </c>
     </row>
@@ -18668,18 +18660,14 @@
       <c r="A682" t="inlineStr"/>
       <c r="B682" t="inlineStr">
         <is>
-          <t>54</t>
-        </is>
-      </c>
-      <c r="C682" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
+          <t>1200</t>
+        </is>
+      </c>
+      <c r="C682" t="inlineStr"/>
       <c r="D682" t="inlineStr"/>
       <c r="E682" t="inlineStr">
         <is>
-          <t>https://www.greatforest.hu/property/100958-debrecen-close-to-tesco-area-block-of-flats</t>
+          <t>https://www.greatforest.hu/property/99305-hajduszoboszlo-pension</t>
         </is>
       </c>
     </row>
@@ -18687,18 +18675,18 @@
       <c r="A683" t="inlineStr"/>
       <c r="B683" t="inlineStr">
         <is>
-          <t>74</t>
+          <t>48</t>
         </is>
       </c>
       <c r="C683" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D683" t="inlineStr"/>
       <c r="E683" t="inlineStr">
         <is>
-          <t>https://www.greatforest.hu/property/100009-debrecen-city-east-family-house</t>
+          <t>https://www.greatforest.hu/property/101250-debrecen-city-south-east-family-house</t>
         </is>
       </c>
     </row>
@@ -18706,7 +18694,7 @@
       <c r="A684" t="inlineStr"/>
       <c r="B684" t="inlineStr">
         <is>
-          <t>60</t>
+          <t>50</t>
         </is>
       </c>
       <c r="C684" t="inlineStr">
@@ -18717,7 +18705,7 @@
       <c r="D684" t="inlineStr"/>
       <c r="E684" t="inlineStr">
         <is>
-          <t>https://www.greatforest.hu/property/99898-hajdusamson-family-house</t>
+          <t>https://www.greatforest.hu/property/101246-debrecen-bem-square-flat</t>
         </is>
       </c>
     </row>
@@ -18725,18 +18713,18 @@
       <c r="A685" t="inlineStr"/>
       <c r="B685" t="inlineStr">
         <is>
-          <t>640</t>
+          <t>60</t>
         </is>
       </c>
       <c r="C685" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D685" t="inlineStr"/>
       <c r="E685" t="inlineStr">
         <is>
-          <t>https://www.greatforest.hu/property/101126-debrecen-city-center-office-not-in-office-building</t>
+          <t>https://www.greatforest.hu/property/101245-debrecen-greatforest-area-flat</t>
         </is>
       </c>
     </row>
@@ -18744,14 +18732,18 @@
       <c r="A686" t="inlineStr"/>
       <c r="B686" t="inlineStr">
         <is>
-          <t>25</t>
-        </is>
-      </c>
-      <c r="C686" t="inlineStr"/>
+          <t>78</t>
+        </is>
+      </c>
+      <c r="C686" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
       <c r="D686" t="inlineStr"/>
       <c r="E686" t="inlineStr">
         <is>
-          <t>https://www.greatforest.hu/property/101121-debrecen-greatforest-area-garage-individual-garage</t>
+          <t>https://www.greatforest.hu/property/101244-debrecen-greatforest-area-flat</t>
         </is>
       </c>
     </row>
@@ -18759,18 +18751,14 @@
       <c r="A687" t="inlineStr"/>
       <c r="B687" t="inlineStr">
         <is>
-          <t>96</t>
-        </is>
-      </c>
-      <c r="C687" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="C687" t="inlineStr"/>
       <c r="D687" t="inlineStr"/>
       <c r="E687" t="inlineStr">
         <is>
-          <t>https://www.greatforest.hu/property/41027-debrecen-city-center-flat</t>
+          <t>https://www.greatforest.hu/property/101204-debrecen-city-center-parking-lot-underground</t>
         </is>
       </c>
     </row>
@@ -18778,217 +18766,213 @@
       <c r="A688" t="inlineStr"/>
       <c r="B688" t="inlineStr">
         <is>
-          <t>67</t>
-        </is>
-      </c>
-      <c r="C688" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="C688" t="inlineStr"/>
       <c r="D688" t="inlineStr"/>
       <c r="E688" t="inlineStr">
         <is>
-          <t>https://www.greatforest.hu/property/101104-debrecen-close-to-tesco-area-block-of-flats</t>
+          <t>https://www.greatforest.hu/property/101203-debrecen-main-campus-area-parking-lot-underground</t>
         </is>
       </c>
     </row>
     <row r="689">
       <c r="A689" t="inlineStr">
         <is>
-          <t>280 000</t>
+          <t>130 000</t>
         </is>
       </c>
       <c r="B689" t="inlineStr">
         <is>
-          <t>54</t>
-        </is>
-      </c>
-      <c r="C689" t="inlineStr"/>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="C689" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
       <c r="D689" t="inlineStr"/>
       <c r="E689" t="inlineStr">
         <is>
-          <t>https://www.greatforest.hu/property/100468-debrecen-city-center-commercial-premises-not-in-shopping-center</t>
+          <t>https://www.greatforest.hu/property/100649-debrecen-city-center-office-not-in-office-building</t>
         </is>
       </c>
     </row>
     <row r="690">
       <c r="A690" t="inlineStr">
         <is>
-          <t>185 000</t>
+          <t>130 000</t>
         </is>
       </c>
       <c r="B690" t="inlineStr">
         <is>
-          <t>65</t>
+          <t>50</t>
         </is>
       </c>
       <c r="C690" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D690" t="inlineStr"/>
       <c r="E690" t="inlineStr">
         <is>
-          <t>https://www.greatforest.hu/property/100277-debrecen-city-center-flat</t>
+          <t>https://www.greatforest.hu/property/100624-debrecen-city-center-part-of-a-house</t>
         </is>
       </c>
     </row>
     <row r="691">
       <c r="A691" t="inlineStr">
         <is>
-          <t>300 000</t>
+          <t>140 000</t>
         </is>
       </c>
       <c r="B691" t="inlineStr">
         <is>
-          <t>53</t>
+          <t>55</t>
         </is>
       </c>
       <c r="C691" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D691" t="inlineStr"/>
       <c r="E691" t="inlineStr">
         <is>
-          <t>https://www.greatforest.hu/property/100455-debrecen-flat</t>
+          <t>https://www.greatforest.hu/property/100631-debrecen-flat</t>
         </is>
       </c>
     </row>
     <row r="692">
       <c r="A692" t="inlineStr">
         <is>
-          <t>400 000</t>
+          <t>1 800 000</t>
         </is>
       </c>
       <c r="B692" t="inlineStr">
         <is>
-          <t>214</t>
+          <t>1400</t>
         </is>
       </c>
       <c r="C692" t="inlineStr"/>
       <c r="D692" t="inlineStr"/>
       <c r="E692" t="inlineStr">
         <is>
-          <t>https://www.greatforest.hu/property/98597-debrecen-eastern-western-industrial-area-industrial-building</t>
+          <t>https://www.greatforest.hu/property/100619-debrecen-city-center-commercial-premises-not-in-shopping-center</t>
         </is>
       </c>
     </row>
     <row r="693">
       <c r="A693" t="inlineStr">
         <is>
-          <t>200 000</t>
+          <t>140 000</t>
         </is>
       </c>
       <c r="B693" t="inlineStr">
         <is>
-          <t>100</t>
+          <t>58</t>
         </is>
       </c>
       <c r="C693" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D693" t="inlineStr"/>
       <c r="E693" t="inlineStr">
         <is>
-          <t>https://www.greatforest.hu/property/20816-debrecen-city-north-part-of-a-house</t>
+          <t>https://www.greatforest.hu/property/100442-debrecen-city-center-part-of-a-house</t>
         </is>
       </c>
     </row>
     <row r="694">
       <c r="A694" t="inlineStr">
         <is>
-          <t>375 000</t>
+          <t>160 000</t>
         </is>
       </c>
       <c r="B694" t="inlineStr">
         <is>
-          <t>82</t>
+          <t>54</t>
         </is>
       </c>
       <c r="C694" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D694" t="inlineStr"/>
       <c r="E694" t="inlineStr">
         <is>
-          <t>https://www.greatforest.hu/property/96519-debrecen-greatforest-area-flat</t>
+          <t>https://www.greatforest.hu/property/100444-debrecen-close-to-main-campus-agricult-unversity-block-of-flats</t>
         </is>
       </c>
     </row>
     <row r="695">
       <c r="A695" t="inlineStr">
         <is>
-          <t>490 000</t>
+          <t>280 000</t>
         </is>
       </c>
       <c r="B695" t="inlineStr">
         <is>
-          <t>288</t>
-        </is>
-      </c>
-      <c r="C695" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
+          <t>54</t>
+        </is>
+      </c>
+      <c r="C695" t="inlineStr"/>
       <c r="D695" t="inlineStr"/>
       <c r="E695" t="inlineStr">
         <is>
-          <t>https://www.greatforest.hu/property/100132-debrecen-close-to-bem-square-family-house</t>
+          <t>https://www.greatforest.hu/property/100468-debrecen-city-center-commercial-premises-not-in-shopping-center</t>
         </is>
       </c>
     </row>
     <row r="696">
       <c r="A696" t="inlineStr">
         <is>
-          <t>290 000</t>
+          <t>185 000</t>
         </is>
       </c>
       <c r="B696" t="inlineStr">
         <is>
-          <t>136</t>
+          <t>65</t>
         </is>
       </c>
       <c r="C696" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D696" t="inlineStr"/>
       <c r="E696" t="inlineStr">
         <is>
-          <t>https://www.greatforest.hu/property/65827-debrecen-close-to-bem-square-part-of-a-house</t>
+          <t>https://www.greatforest.hu/property/100277-debrecen-city-center-flat</t>
         </is>
       </c>
     </row>
     <row r="697">
       <c r="A697" t="inlineStr">
         <is>
-          <t>130 000</t>
+          <t>300 000</t>
         </is>
       </c>
       <c r="B697" t="inlineStr">
         <is>
-          <t>45</t>
+          <t>53</t>
         </is>
       </c>
       <c r="C697" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D697" t="inlineStr"/>
       <c r="E697" t="inlineStr">
         <is>
-          <t>https://www.greatforest.hu/property/84773-debrecen-close-to-plaza-office-not-in-office-building</t>
+          <t>https://www.greatforest.hu/property/100455-debrecen-flat</t>
         </is>
       </c>
     </row>
@@ -18996,18 +18980,18 @@
       <c r="A698" t="inlineStr"/>
       <c r="B698" t="inlineStr">
         <is>
-          <t>140</t>
+          <t>147</t>
         </is>
       </c>
       <c r="C698" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>4</t>
         </is>
       </c>
       <c r="D698" t="inlineStr"/>
       <c r="E698" t="inlineStr">
         <is>
-          <t>https://www.greatforest.hu/property/101048-hajduszoboszlo-family-house</t>
+          <t>https://www.greatforest.hu/property/101274-hajduszoboszlo-attached-house</t>
         </is>
       </c>
     </row>
@@ -19015,18 +18999,14 @@
       <c r="A699" t="inlineStr"/>
       <c r="B699" t="inlineStr">
         <is>
-          <t>54</t>
-        </is>
-      </c>
-      <c r="C699" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
+          <t>1200</t>
+        </is>
+      </c>
+      <c r="C699" t="inlineStr"/>
       <c r="D699" t="inlineStr"/>
       <c r="E699" t="inlineStr">
         <is>
-          <t>https://www.greatforest.hu/property/100958-debrecen-close-to-tesco-area-block-of-flats</t>
+          <t>https://www.greatforest.hu/property/99305-hajduszoboszlo-pension</t>
         </is>
       </c>
     </row>
@@ -19034,18 +19014,18 @@
       <c r="A700" t="inlineStr"/>
       <c r="B700" t="inlineStr">
         <is>
-          <t>74</t>
+          <t>48</t>
         </is>
       </c>
       <c r="C700" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D700" t="inlineStr"/>
       <c r="E700" t="inlineStr">
         <is>
-          <t>https://www.greatforest.hu/property/100009-debrecen-city-east-family-house</t>
+          <t>https://www.greatforest.hu/property/101250-debrecen-city-south-east-family-house</t>
         </is>
       </c>
     </row>
@@ -19053,7 +19033,7 @@
       <c r="A701" t="inlineStr"/>
       <c r="B701" t="inlineStr">
         <is>
-          <t>60</t>
+          <t>50</t>
         </is>
       </c>
       <c r="C701" t="inlineStr">
@@ -19064,7 +19044,7 @@
       <c r="D701" t="inlineStr"/>
       <c r="E701" t="inlineStr">
         <is>
-          <t>https://www.greatforest.hu/property/99898-hajdusamson-family-house</t>
+          <t>https://www.greatforest.hu/property/101246-debrecen-bem-square-flat</t>
         </is>
       </c>
     </row>
@@ -19072,18 +19052,18 @@
       <c r="A702" t="inlineStr"/>
       <c r="B702" t="inlineStr">
         <is>
-          <t>640</t>
+          <t>60</t>
         </is>
       </c>
       <c r="C702" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D702" t="inlineStr"/>
       <c r="E702" t="inlineStr">
         <is>
-          <t>https://www.greatforest.hu/property/101126-debrecen-city-center-office-not-in-office-building</t>
+          <t>https://www.greatforest.hu/property/101245-debrecen-greatforest-area-flat</t>
         </is>
       </c>
     </row>
@@ -19091,14 +19071,18 @@
       <c r="A703" t="inlineStr"/>
       <c r="B703" t="inlineStr">
         <is>
-          <t>25</t>
-        </is>
-      </c>
-      <c r="C703" t="inlineStr"/>
+          <t>78</t>
+        </is>
+      </c>
+      <c r="C703" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
       <c r="D703" t="inlineStr"/>
       <c r="E703" t="inlineStr">
         <is>
-          <t>https://www.greatforest.hu/property/101121-debrecen-greatforest-area-garage-individual-garage</t>
+          <t>https://www.greatforest.hu/property/101244-debrecen-greatforest-area-flat</t>
         </is>
       </c>
     </row>
@@ -19106,18 +19090,14 @@
       <c r="A704" t="inlineStr"/>
       <c r="B704" t="inlineStr">
         <is>
-          <t>96</t>
-        </is>
-      </c>
-      <c r="C704" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="C704" t="inlineStr"/>
       <c r="D704" t="inlineStr"/>
       <c r="E704" t="inlineStr">
         <is>
-          <t>https://www.greatforest.hu/property/41027-debrecen-city-center-flat</t>
+          <t>https://www.greatforest.hu/property/101204-debrecen-city-center-parking-lot-underground</t>
         </is>
       </c>
     </row>
@@ -19125,160 +19105,160 @@
       <c r="A705" t="inlineStr"/>
       <c r="B705" t="inlineStr">
         <is>
-          <t>67</t>
-        </is>
-      </c>
-      <c r="C705" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="C705" t="inlineStr"/>
       <c r="D705" t="inlineStr"/>
       <c r="E705" t="inlineStr">
         <is>
-          <t>https://www.greatforest.hu/property/101104-debrecen-close-to-tesco-area-block-of-flats</t>
+          <t>https://www.greatforest.hu/property/101203-debrecen-main-campus-area-parking-lot-underground</t>
         </is>
       </c>
     </row>
     <row r="706">
       <c r="A706" t="inlineStr">
         <is>
-          <t>280 000</t>
+          <t>400 000</t>
         </is>
       </c>
       <c r="B706" t="inlineStr">
         <is>
-          <t>54</t>
+          <t>214</t>
         </is>
       </c>
       <c r="C706" t="inlineStr"/>
       <c r="D706" t="inlineStr"/>
       <c r="E706" t="inlineStr">
         <is>
-          <t>https://www.greatforest.hu/property/100468-debrecen-city-center-commercial-premises-not-in-shopping-center</t>
+          <t>https://www.greatforest.hu/property/98597-debrecen-eastern-western-industrial-area-industrial-building</t>
         </is>
       </c>
     </row>
     <row r="707">
       <c r="A707" t="inlineStr">
         <is>
-          <t>185 000</t>
+          <t>200 000</t>
         </is>
       </c>
       <c r="B707" t="inlineStr">
         <is>
-          <t>65</t>
+          <t>100</t>
         </is>
       </c>
       <c r="C707" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="D707" t="inlineStr"/>
       <c r="E707" t="inlineStr">
         <is>
-          <t>https://www.greatforest.hu/property/100277-debrecen-city-center-flat</t>
+          <t>https://www.greatforest.hu/property/20816-debrecen-city-north-part-of-a-house</t>
         </is>
       </c>
     </row>
     <row r="708">
       <c r="A708" t="inlineStr">
         <is>
-          <t>300 000</t>
+          <t>375 000</t>
         </is>
       </c>
       <c r="B708" t="inlineStr">
         <is>
-          <t>53</t>
+          <t>82</t>
         </is>
       </c>
       <c r="C708" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="D708" t="inlineStr"/>
       <c r="E708" t="inlineStr">
         <is>
-          <t>https://www.greatforest.hu/property/100455-debrecen-flat</t>
+          <t>https://www.greatforest.hu/property/96519-debrecen-greatforest-area-flat</t>
         </is>
       </c>
     </row>
     <row r="709">
       <c r="A709" t="inlineStr">
         <is>
-          <t>400 000</t>
+          <t>490 000</t>
         </is>
       </c>
       <c r="B709" t="inlineStr">
         <is>
-          <t>214</t>
-        </is>
-      </c>
-      <c r="C709" t="inlineStr"/>
+          <t>288</t>
+        </is>
+      </c>
+      <c r="C709" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
       <c r="D709" t="inlineStr"/>
       <c r="E709" t="inlineStr">
         <is>
-          <t>https://www.greatforest.hu/property/98597-debrecen-eastern-western-industrial-area-industrial-building</t>
+          <t>https://www.greatforest.hu/property/100132-debrecen-close-to-bem-square-family-house</t>
         </is>
       </c>
     </row>
     <row r="710">
       <c r="A710" t="inlineStr">
         <is>
-          <t>200 000</t>
+          <t>290 000</t>
         </is>
       </c>
       <c r="B710" t="inlineStr">
         <is>
-          <t>100</t>
+          <t>136</t>
         </is>
       </c>
       <c r="C710" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D710" t="inlineStr"/>
       <c r="E710" t="inlineStr">
         <is>
-          <t>https://www.greatforest.hu/property/20816-debrecen-city-north-part-of-a-house</t>
+          <t>https://www.greatforest.hu/property/65827-debrecen-close-to-bem-square-part-of-a-house</t>
         </is>
       </c>
     </row>
     <row r="711">
       <c r="A711" t="inlineStr">
         <is>
-          <t>375 000</t>
+          <t>130 000</t>
         </is>
       </c>
       <c r="B711" t="inlineStr">
         <is>
-          <t>82</t>
+          <t>45</t>
         </is>
       </c>
       <c r="C711" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D711" t="inlineStr"/>
       <c r="E711" t="inlineStr">
         <is>
-          <t>https://www.greatforest.hu/property/96519-debrecen-greatforest-area-flat</t>
+          <t>https://www.greatforest.hu/property/84773-debrecen-close-to-plaza-office-not-in-office-building</t>
         </is>
       </c>
     </row>
     <row r="712">
       <c r="A712" t="inlineStr">
         <is>
-          <t>490 000</t>
+          <t>300 000</t>
         </is>
       </c>
       <c r="B712" t="inlineStr">
         <is>
-          <t>288</t>
+          <t>73</t>
         </is>
       </c>
       <c r="C712" t="inlineStr">
@@ -19289,53 +19269,53 @@
       <c r="D712" t="inlineStr"/>
       <c r="E712" t="inlineStr">
         <is>
-          <t>https://www.greatforest.hu/property/100132-debrecen-close-to-bem-square-family-house</t>
+          <t>https://www.greatforest.hu/property/99598-debrecen-flat</t>
         </is>
       </c>
     </row>
     <row r="713">
       <c r="A713" t="inlineStr">
         <is>
-          <t>290 000</t>
+          <t>230 000</t>
         </is>
       </c>
       <c r="B713" t="inlineStr">
         <is>
-          <t>136</t>
+          <t>64</t>
         </is>
       </c>
       <c r="C713" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D713" t="inlineStr"/>
       <c r="E713" t="inlineStr">
         <is>
-          <t>https://www.greatforest.hu/property/65827-debrecen-close-to-bem-square-part-of-a-house</t>
+          <t>https://www.greatforest.hu/property/99597-debrecen-flat</t>
         </is>
       </c>
     </row>
     <row r="714">
       <c r="A714" t="inlineStr">
         <is>
-          <t>130 000</t>
+          <t>280 000</t>
         </is>
       </c>
       <c r="B714" t="inlineStr">
         <is>
-          <t>45</t>
+          <t>88</t>
         </is>
       </c>
       <c r="C714" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>4</t>
         </is>
       </c>
       <c r="D714" t="inlineStr"/>
       <c r="E714" t="inlineStr">
         <is>
-          <t>https://www.greatforest.hu/property/84773-debrecen-close-to-plaza-office-not-in-office-building</t>
+          <t>https://www.greatforest.hu/property/99595-debrecen-flat</t>
         </is>
       </c>
     </row>
@@ -19343,18 +19323,18 @@
       <c r="A715" t="inlineStr"/>
       <c r="B715" t="inlineStr">
         <is>
-          <t>140</t>
+          <t>147</t>
         </is>
       </c>
       <c r="C715" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>4</t>
         </is>
       </c>
       <c r="D715" t="inlineStr"/>
       <c r="E715" t="inlineStr">
         <is>
-          <t>https://www.greatforest.hu/property/101048-hajduszoboszlo-family-house</t>
+          <t>https://www.greatforest.hu/property/101274-hajduszoboszlo-attached-house</t>
         </is>
       </c>
     </row>
@@ -19362,18 +19342,14 @@
       <c r="A716" t="inlineStr"/>
       <c r="B716" t="inlineStr">
         <is>
-          <t>54</t>
-        </is>
-      </c>
-      <c r="C716" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
+          <t>1200</t>
+        </is>
+      </c>
+      <c r="C716" t="inlineStr"/>
       <c r="D716" t="inlineStr"/>
       <c r="E716" t="inlineStr">
         <is>
-          <t>https://www.greatforest.hu/property/100958-debrecen-close-to-tesco-area-block-of-flats</t>
+          <t>https://www.greatforest.hu/property/99305-hajduszoboszlo-pension</t>
         </is>
       </c>
     </row>
@@ -19381,18 +19357,18 @@
       <c r="A717" t="inlineStr"/>
       <c r="B717" t="inlineStr">
         <is>
-          <t>74</t>
+          <t>48</t>
         </is>
       </c>
       <c r="C717" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D717" t="inlineStr"/>
       <c r="E717" t="inlineStr">
         <is>
-          <t>https://www.greatforest.hu/property/100009-debrecen-city-east-family-house</t>
+          <t>https://www.greatforest.hu/property/101250-debrecen-city-south-east-family-house</t>
         </is>
       </c>
     </row>
@@ -19400,7 +19376,7 @@
       <c r="A718" t="inlineStr"/>
       <c r="B718" t="inlineStr">
         <is>
-          <t>60</t>
+          <t>50</t>
         </is>
       </c>
       <c r="C718" t="inlineStr">
@@ -19411,7 +19387,7 @@
       <c r="D718" t="inlineStr"/>
       <c r="E718" t="inlineStr">
         <is>
-          <t>https://www.greatforest.hu/property/99898-hajdusamson-family-house</t>
+          <t>https://www.greatforest.hu/property/101246-debrecen-bem-square-flat</t>
         </is>
       </c>
     </row>
@@ -19419,18 +19395,18 @@
       <c r="A719" t="inlineStr"/>
       <c r="B719" t="inlineStr">
         <is>
-          <t>640</t>
+          <t>60</t>
         </is>
       </c>
       <c r="C719" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D719" t="inlineStr"/>
       <c r="E719" t="inlineStr">
         <is>
-          <t>https://www.greatforest.hu/property/101126-debrecen-city-center-office-not-in-office-building</t>
+          <t>https://www.greatforest.hu/property/101245-debrecen-greatforest-area-flat</t>
         </is>
       </c>
     </row>
@@ -19438,14 +19414,18 @@
       <c r="A720" t="inlineStr"/>
       <c r="B720" t="inlineStr">
         <is>
-          <t>25</t>
-        </is>
-      </c>
-      <c r="C720" t="inlineStr"/>
+          <t>78</t>
+        </is>
+      </c>
+      <c r="C720" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
       <c r="D720" t="inlineStr"/>
       <c r="E720" t="inlineStr">
         <is>
-          <t>https://www.greatforest.hu/property/101121-debrecen-greatforest-area-garage-individual-garage</t>
+          <t>https://www.greatforest.hu/property/101244-debrecen-greatforest-area-flat</t>
         </is>
       </c>
     </row>
@@ -19453,18 +19433,14 @@
       <c r="A721" t="inlineStr"/>
       <c r="B721" t="inlineStr">
         <is>
-          <t>96</t>
-        </is>
-      </c>
-      <c r="C721" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="C721" t="inlineStr"/>
       <c r="D721" t="inlineStr"/>
       <c r="E721" t="inlineStr">
         <is>
-          <t>https://www.greatforest.hu/property/41027-debrecen-city-center-flat</t>
+          <t>https://www.greatforest.hu/property/101204-debrecen-city-center-parking-lot-underground</t>
         </is>
       </c>
     </row>
@@ -19472,99 +19448,95 @@
       <c r="A722" t="inlineStr"/>
       <c r="B722" t="inlineStr">
         <is>
-          <t>67</t>
-        </is>
-      </c>
-      <c r="C722" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="C722" t="inlineStr"/>
       <c r="D722" t="inlineStr"/>
       <c r="E722" t="inlineStr">
         <is>
-          <t>https://www.greatforest.hu/property/101104-debrecen-close-to-tesco-area-block-of-flats</t>
+          <t>https://www.greatforest.hu/property/101203-debrecen-main-campus-area-parking-lot-underground</t>
         </is>
       </c>
     </row>
     <row r="723">
       <c r="A723" t="inlineStr">
         <is>
-          <t>320 000</t>
+          <t>270 000</t>
         </is>
       </c>
       <c r="B723" t="inlineStr">
         <is>
-          <t>42</t>
+          <t>72</t>
         </is>
       </c>
       <c r="C723" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>4</t>
         </is>
       </c>
       <c r="D723" t="inlineStr"/>
       <c r="E723" t="inlineStr">
         <is>
-          <t>https://www.greatforest.hu/property/99511-debrecen-close-to-main-campus-flat</t>
+          <t>https://www.greatforest.hu/property/99593-debrecen-flat</t>
         </is>
       </c>
     </row>
     <row r="724">
       <c r="A724" t="inlineStr">
         <is>
-          <t>399 000</t>
+          <t>280 000</t>
         </is>
       </c>
       <c r="B724" t="inlineStr">
         <is>
-          <t>42</t>
+          <t>73</t>
         </is>
       </c>
       <c r="C724" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>4</t>
         </is>
       </c>
       <c r="D724" t="inlineStr"/>
       <c r="E724" t="inlineStr">
         <is>
-          <t>https://www.greatforest.hu/property/99510-debrecen-close-to-main-campus-flat</t>
+          <t>https://www.greatforest.hu/property/99590-debrecen-flat</t>
         </is>
       </c>
     </row>
     <row r="725">
       <c r="A725" t="inlineStr">
         <is>
-          <t>300 000</t>
+          <t>230 000</t>
         </is>
       </c>
       <c r="B725" t="inlineStr">
         <is>
-          <t>73</t>
+          <t>64</t>
         </is>
       </c>
       <c r="C725" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D725" t="inlineStr"/>
       <c r="E725" t="inlineStr">
         <is>
-          <t>https://www.greatforest.hu/property/99598-debrecen-flat</t>
+          <t>https://www.greatforest.hu/property/99587-debrecen-flat</t>
         </is>
       </c>
     </row>
     <row r="726">
       <c r="A726" t="inlineStr">
         <is>
-          <t>230 000</t>
+          <t>250 000</t>
         </is>
       </c>
       <c r="B726" t="inlineStr">
         <is>
-          <t>64</t>
+          <t>91</t>
         </is>
       </c>
       <c r="C726" t="inlineStr">
@@ -19575,42 +19547,42 @@
       <c r="D726" t="inlineStr"/>
       <c r="E726" t="inlineStr">
         <is>
-          <t>https://www.greatforest.hu/property/99597-debrecen-flat</t>
+          <t>https://www.greatforest.hu/property/99332-debrecen-bem-square-office-in-office-building</t>
         </is>
       </c>
     </row>
     <row r="727">
       <c r="A727" t="inlineStr">
         <is>
-          <t>280 000</t>
+          <t>220 000</t>
         </is>
       </c>
       <c r="B727" t="inlineStr">
         <is>
-          <t>88</t>
+          <t>38</t>
         </is>
       </c>
       <c r="C727" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D727" t="inlineStr"/>
       <c r="E727" t="inlineStr">
         <is>
-          <t>https://www.greatforest.hu/property/99595-debrecen-flat</t>
+          <t>https://www.greatforest.hu/property/99213-debrecen-close-to-main-campus-flat</t>
         </is>
       </c>
     </row>
     <row r="728">
       <c r="A728" t="inlineStr">
         <is>
-          <t>270 000</t>
+          <t>350 000</t>
         </is>
       </c>
       <c r="B728" t="inlineStr">
         <is>
-          <t>72</t>
+          <t>118</t>
         </is>
       </c>
       <c r="C728" t="inlineStr">
@@ -19621,76 +19593,76 @@
       <c r="D728" t="inlineStr"/>
       <c r="E728" t="inlineStr">
         <is>
-          <t>https://www.greatforest.hu/property/99593-debrecen-flat</t>
+          <t>https://www.greatforest.hu/property/89979-debrecen-city-center-office-not-in-office-building</t>
         </is>
       </c>
     </row>
     <row r="729">
       <c r="A729" t="inlineStr">
         <is>
-          <t>280 000</t>
+          <t>595 000</t>
         </is>
       </c>
       <c r="B729" t="inlineStr">
         <is>
-          <t>73</t>
+          <t>92</t>
         </is>
       </c>
       <c r="C729" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D729" t="inlineStr"/>
       <c r="E729" t="inlineStr">
         <is>
-          <t>https://www.greatforest.hu/property/99590-debrecen-flat</t>
+          <t>https://www.greatforest.hu/property/36059-debrecen-kassai-campus-area-flat</t>
         </is>
       </c>
     </row>
     <row r="730">
       <c r="A730" t="inlineStr">
         <is>
-          <t>230 000</t>
+          <t>300 000</t>
         </is>
       </c>
       <c r="B730" t="inlineStr">
         <is>
-          <t>64</t>
+          <t>89</t>
         </is>
       </c>
       <c r="C730" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D730" t="inlineStr"/>
       <c r="E730" t="inlineStr">
         <is>
-          <t>https://www.greatforest.hu/property/99587-debrecen-flat</t>
+          <t>https://www.greatforest.hu/property/69432-debrecen-greatforest-area-flat</t>
         </is>
       </c>
     </row>
     <row r="731">
       <c r="A731" t="inlineStr">
         <is>
-          <t>250 000</t>
+          <t>150 000</t>
         </is>
       </c>
       <c r="B731" t="inlineStr">
         <is>
-          <t>91</t>
+          <t>63</t>
         </is>
       </c>
       <c r="C731" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D731" t="inlineStr"/>
       <c r="E731" t="inlineStr">
         <is>
-          <t>https://www.greatforest.hu/property/99332-debrecen-bem-square-office-in-office-building</t>
+          <t>https://www.greatforest.hu/property/65443-debrecen-city-west-office-in-office-building</t>
         </is>
       </c>
     </row>
@@ -19698,18 +19670,18 @@
       <c r="A732" t="inlineStr"/>
       <c r="B732" t="inlineStr">
         <is>
-          <t>140</t>
+          <t>147</t>
         </is>
       </c>
       <c r="C732" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>4</t>
         </is>
       </c>
       <c r="D732" t="inlineStr"/>
       <c r="E732" t="inlineStr">
         <is>
-          <t>https://www.greatforest.hu/property/101048-hajduszoboszlo-family-house</t>
+          <t>https://www.greatforest.hu/property/101274-hajduszoboszlo-attached-house</t>
         </is>
       </c>
     </row>
@@ -19717,18 +19689,14 @@
       <c r="A733" t="inlineStr"/>
       <c r="B733" t="inlineStr">
         <is>
-          <t>54</t>
-        </is>
-      </c>
-      <c r="C733" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
+          <t>1200</t>
+        </is>
+      </c>
+      <c r="C733" t="inlineStr"/>
       <c r="D733" t="inlineStr"/>
       <c r="E733" t="inlineStr">
         <is>
-          <t>https://www.greatforest.hu/property/100958-debrecen-close-to-tesco-area-block-of-flats</t>
+          <t>https://www.greatforest.hu/property/99305-hajduszoboszlo-pension</t>
         </is>
       </c>
     </row>
@@ -19736,18 +19704,18 @@
       <c r="A734" t="inlineStr"/>
       <c r="B734" t="inlineStr">
         <is>
-          <t>74</t>
+          <t>48</t>
         </is>
       </c>
       <c r="C734" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D734" t="inlineStr"/>
       <c r="E734" t="inlineStr">
         <is>
-          <t>https://www.greatforest.hu/property/100009-debrecen-city-east-family-house</t>
+          <t>https://www.greatforest.hu/property/101250-debrecen-city-south-east-family-house</t>
         </is>
       </c>
     </row>
@@ -19755,7 +19723,7 @@
       <c r="A735" t="inlineStr"/>
       <c r="B735" t="inlineStr">
         <is>
-          <t>60</t>
+          <t>50</t>
         </is>
       </c>
       <c r="C735" t="inlineStr">
@@ -19766,7 +19734,7 @@
       <c r="D735" t="inlineStr"/>
       <c r="E735" t="inlineStr">
         <is>
-          <t>https://www.greatforest.hu/property/99898-hajdusamson-family-house</t>
+          <t>https://www.greatforest.hu/property/101246-debrecen-bem-square-flat</t>
         </is>
       </c>
     </row>
@@ -19774,18 +19742,18 @@
       <c r="A736" t="inlineStr"/>
       <c r="B736" t="inlineStr">
         <is>
-          <t>640</t>
+          <t>60</t>
         </is>
       </c>
       <c r="C736" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D736" t="inlineStr"/>
       <c r="E736" t="inlineStr">
         <is>
-          <t>https://www.greatforest.hu/property/101126-debrecen-city-center-office-not-in-office-building</t>
+          <t>https://www.greatforest.hu/property/101245-debrecen-greatforest-area-flat</t>
         </is>
       </c>
     </row>
@@ -19793,14 +19761,18 @@
       <c r="A737" t="inlineStr"/>
       <c r="B737" t="inlineStr">
         <is>
-          <t>25</t>
-        </is>
-      </c>
-      <c r="C737" t="inlineStr"/>
+          <t>78</t>
+        </is>
+      </c>
+      <c r="C737" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
       <c r="D737" t="inlineStr"/>
       <c r="E737" t="inlineStr">
         <is>
-          <t>https://www.greatforest.hu/property/101121-debrecen-greatforest-area-garage-individual-garage</t>
+          <t>https://www.greatforest.hu/property/101244-debrecen-greatforest-area-flat</t>
         </is>
       </c>
     </row>
@@ -19808,18 +19780,14 @@
       <c r="A738" t="inlineStr"/>
       <c r="B738" t="inlineStr">
         <is>
-          <t>96</t>
-        </is>
-      </c>
-      <c r="C738" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="C738" t="inlineStr"/>
       <c r="D738" t="inlineStr"/>
       <c r="E738" t="inlineStr">
         <is>
-          <t>https://www.greatforest.hu/property/41027-debrecen-city-center-flat</t>
+          <t>https://www.greatforest.hu/property/101204-debrecen-city-center-parking-lot-underground</t>
         </is>
       </c>
     </row>
@@ -19827,53 +19795,49 @@
       <c r="A739" t="inlineStr"/>
       <c r="B739" t="inlineStr">
         <is>
-          <t>67</t>
-        </is>
-      </c>
-      <c r="C739" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="C739" t="inlineStr"/>
       <c r="D739" t="inlineStr"/>
       <c r="E739" t="inlineStr">
         <is>
-          <t>https://www.greatforest.hu/property/101104-debrecen-close-to-tesco-area-block-of-flats</t>
+          <t>https://www.greatforest.hu/property/101203-debrecen-main-campus-area-parking-lot-underground</t>
         </is>
       </c>
     </row>
     <row r="740">
       <c r="A740" t="inlineStr">
         <is>
-          <t>220 000</t>
+          <t>270 000</t>
         </is>
       </c>
       <c r="B740" t="inlineStr">
         <is>
-          <t>38</t>
+          <t>72</t>
         </is>
       </c>
       <c r="C740" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>4</t>
         </is>
       </c>
       <c r="D740" t="inlineStr"/>
       <c r="E740" t="inlineStr">
         <is>
-          <t>https://www.greatforest.hu/property/99213-debrecen-close-to-main-campus-flat</t>
+          <t>https://www.greatforest.hu/property/99593-debrecen-flat</t>
         </is>
       </c>
     </row>
     <row r="741">
       <c r="A741" t="inlineStr">
         <is>
-          <t>350 000</t>
+          <t>280 000</t>
         </is>
       </c>
       <c r="B741" t="inlineStr">
         <is>
-          <t>118</t>
+          <t>73</t>
         </is>
       </c>
       <c r="C741" t="inlineStr">
@@ -19884,19 +19848,19 @@
       <c r="D741" t="inlineStr"/>
       <c r="E741" t="inlineStr">
         <is>
-          <t>https://www.greatforest.hu/property/89979-debrecen-city-center-office-not-in-office-building</t>
+          <t>https://www.greatforest.hu/property/99590-debrecen-flat</t>
         </is>
       </c>
     </row>
     <row r="742">
       <c r="A742" t="inlineStr">
         <is>
-          <t>595 000</t>
+          <t>230 000</t>
         </is>
       </c>
       <c r="B742" t="inlineStr">
         <is>
-          <t>92</t>
+          <t>64</t>
         </is>
       </c>
       <c r="C742" t="inlineStr">
@@ -19907,88 +19871,88 @@
       <c r="D742" t="inlineStr"/>
       <c r="E742" t="inlineStr">
         <is>
-          <t>https://www.greatforest.hu/property/36059-debrecen-kassai-campus-area-flat</t>
+          <t>https://www.greatforest.hu/property/99587-debrecen-flat</t>
         </is>
       </c>
     </row>
     <row r="743">
       <c r="A743" t="inlineStr">
         <is>
-          <t>300 000</t>
+          <t>250 000</t>
         </is>
       </c>
       <c r="B743" t="inlineStr">
         <is>
-          <t>89</t>
+          <t>91</t>
         </is>
       </c>
       <c r="C743" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D743" t="inlineStr"/>
       <c r="E743" t="inlineStr">
         <is>
-          <t>https://www.greatforest.hu/property/69432-debrecen-greatforest-area-flat</t>
+          <t>https://www.greatforest.hu/property/99332-debrecen-bem-square-office-in-office-building</t>
         </is>
       </c>
     </row>
     <row r="744">
       <c r="A744" t="inlineStr">
         <is>
-          <t>150 000</t>
+          <t>220 000</t>
         </is>
       </c>
       <c r="B744" t="inlineStr">
         <is>
-          <t>63</t>
+          <t>38</t>
         </is>
       </c>
       <c r="C744" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D744" t="inlineStr"/>
       <c r="E744" t="inlineStr">
         <is>
-          <t>https://www.greatforest.hu/property/65443-debrecen-city-west-office-in-office-building</t>
+          <t>https://www.greatforest.hu/property/99213-debrecen-close-to-main-campus-flat</t>
         </is>
       </c>
     </row>
     <row r="745">
       <c r="A745" t="inlineStr">
         <is>
-          <t>450 000</t>
+          <t>350 000</t>
         </is>
       </c>
       <c r="B745" t="inlineStr">
         <is>
-          <t>83</t>
+          <t>118</t>
         </is>
       </c>
       <c r="C745" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>4</t>
         </is>
       </c>
       <c r="D745" t="inlineStr"/>
       <c r="E745" t="inlineStr">
         <is>
-          <t>https://www.greatforest.hu/property/46734-debrecen-close-to-main-campus-flat</t>
+          <t>https://www.greatforest.hu/property/89979-debrecen-city-center-office-not-in-office-building</t>
         </is>
       </c>
     </row>
     <row r="746">
       <c r="A746" t="inlineStr">
         <is>
-          <t>280 000</t>
+          <t>595 000</t>
         </is>
       </c>
       <c r="B746" t="inlineStr">
         <is>
-          <t>69</t>
+          <t>92</t>
         </is>
       </c>
       <c r="C746" t="inlineStr">
@@ -19999,53 +19963,53 @@
       <c r="D746" t="inlineStr"/>
       <c r="E746" t="inlineStr">
         <is>
-          <t>https://www.greatforest.hu/property/97856-debrecen-city-center-office-not-in-office-building</t>
+          <t>https://www.greatforest.hu/property/36059-debrecen-kassai-campus-area-flat</t>
         </is>
       </c>
     </row>
     <row r="747">
       <c r="A747" t="inlineStr">
         <is>
-          <t>230 000</t>
+          <t>300 000</t>
         </is>
       </c>
       <c r="B747" t="inlineStr">
         <is>
-          <t>54</t>
+          <t>89</t>
         </is>
       </c>
       <c r="C747" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D747" t="inlineStr"/>
       <c r="E747" t="inlineStr">
         <is>
-          <t>https://www.greatforest.hu/property/98613-debrecen-jozsa-lower-flat</t>
+          <t>https://www.greatforest.hu/property/69432-debrecen-greatforest-area-flat</t>
         </is>
       </c>
     </row>
     <row r="748">
       <c r="A748" t="inlineStr">
         <is>
-          <t>580 000</t>
+          <t>150 000</t>
         </is>
       </c>
       <c r="B748" t="inlineStr">
         <is>
-          <t>100</t>
+          <t>63</t>
         </is>
       </c>
       <c r="C748" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D748" t="inlineStr"/>
       <c r="E748" t="inlineStr">
         <is>
-          <t>https://www.greatforest.hu/property/98425-debrecen-city-center-flat</t>
+          <t>https://www.greatforest.hu/property/65443-debrecen-city-west-office-in-office-building</t>
         </is>
       </c>
     </row>
@@ -20053,18 +20017,18 @@
       <c r="A749" t="inlineStr"/>
       <c r="B749" t="inlineStr">
         <is>
-          <t>140</t>
+          <t>147</t>
         </is>
       </c>
       <c r="C749" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>4</t>
         </is>
       </c>
       <c r="D749" t="inlineStr"/>
       <c r="E749" t="inlineStr">
         <is>
-          <t>https://www.greatforest.hu/property/101048-hajduszoboszlo-family-house</t>
+          <t>https://www.greatforest.hu/property/101274-hajduszoboszlo-attached-house</t>
         </is>
       </c>
     </row>
@@ -20072,18 +20036,14 @@
       <c r="A750" t="inlineStr"/>
       <c r="B750" t="inlineStr">
         <is>
-          <t>54</t>
-        </is>
-      </c>
-      <c r="C750" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
+          <t>1200</t>
+        </is>
+      </c>
+      <c r="C750" t="inlineStr"/>
       <c r="D750" t="inlineStr"/>
       <c r="E750" t="inlineStr">
         <is>
-          <t>https://www.greatforest.hu/property/100958-debrecen-close-to-tesco-area-block-of-flats</t>
+          <t>https://www.greatforest.hu/property/99305-hajduszoboszlo-pension</t>
         </is>
       </c>
     </row>
@@ -20091,18 +20051,18 @@
       <c r="A751" t="inlineStr"/>
       <c r="B751" t="inlineStr">
         <is>
-          <t>74</t>
+          <t>48</t>
         </is>
       </c>
       <c r="C751" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D751" t="inlineStr"/>
       <c r="E751" t="inlineStr">
         <is>
-          <t>https://www.greatforest.hu/property/100009-debrecen-city-east-family-house</t>
+          <t>https://www.greatforest.hu/property/101250-debrecen-city-south-east-family-house</t>
         </is>
       </c>
     </row>
@@ -20110,7 +20070,7 @@
       <c r="A752" t="inlineStr"/>
       <c r="B752" t="inlineStr">
         <is>
-          <t>60</t>
+          <t>50</t>
         </is>
       </c>
       <c r="C752" t="inlineStr">
@@ -20121,7 +20081,7 @@
       <c r="D752" t="inlineStr"/>
       <c r="E752" t="inlineStr">
         <is>
-          <t>https://www.greatforest.hu/property/99898-hajdusamson-family-house</t>
+          <t>https://www.greatforest.hu/property/101246-debrecen-bem-square-flat</t>
         </is>
       </c>
     </row>
@@ -20129,18 +20089,18 @@
       <c r="A753" t="inlineStr"/>
       <c r="B753" t="inlineStr">
         <is>
-          <t>640</t>
+          <t>60</t>
         </is>
       </c>
       <c r="C753" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D753" t="inlineStr"/>
       <c r="E753" t="inlineStr">
         <is>
-          <t>https://www.greatforest.hu/property/101126-debrecen-city-center-office-not-in-office-building</t>
+          <t>https://www.greatforest.hu/property/101245-debrecen-greatforest-area-flat</t>
         </is>
       </c>
     </row>
@@ -20148,14 +20108,18 @@
       <c r="A754" t="inlineStr"/>
       <c r="B754" t="inlineStr">
         <is>
-          <t>25</t>
-        </is>
-      </c>
-      <c r="C754" t="inlineStr"/>
+          <t>78</t>
+        </is>
+      </c>
+      <c r="C754" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
       <c r="D754" t="inlineStr"/>
       <c r="E754" t="inlineStr">
         <is>
-          <t>https://www.greatforest.hu/property/101121-debrecen-greatforest-area-garage-individual-garage</t>
+          <t>https://www.greatforest.hu/property/101244-debrecen-greatforest-area-flat</t>
         </is>
       </c>
     </row>
@@ -20163,18 +20127,14 @@
       <c r="A755" t="inlineStr"/>
       <c r="B755" t="inlineStr">
         <is>
-          <t>96</t>
-        </is>
-      </c>
-      <c r="C755" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="C755" t="inlineStr"/>
       <c r="D755" t="inlineStr"/>
       <c r="E755" t="inlineStr">
         <is>
-          <t>https://www.greatforest.hu/property/41027-debrecen-city-center-flat</t>
+          <t>https://www.greatforest.hu/property/101204-debrecen-city-center-parking-lot-underground</t>
         </is>
       </c>
     </row>
@@ -20182,53 +20142,49 @@
       <c r="A756" t="inlineStr"/>
       <c r="B756" t="inlineStr">
         <is>
-          <t>67</t>
-        </is>
-      </c>
-      <c r="C756" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="C756" t="inlineStr"/>
       <c r="D756" t="inlineStr"/>
       <c r="E756" t="inlineStr">
         <is>
-          <t>https://www.greatforest.hu/property/101104-debrecen-close-to-tesco-area-block-of-flats</t>
+          <t>https://www.greatforest.hu/property/101203-debrecen-main-campus-area-parking-lot-underground</t>
         </is>
       </c>
     </row>
     <row r="757">
       <c r="A757" t="inlineStr">
         <is>
-          <t>480 000</t>
+          <t>450 000</t>
         </is>
       </c>
       <c r="B757" t="inlineStr">
         <is>
-          <t>73</t>
+          <t>83</t>
         </is>
       </c>
       <c r="C757" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D757" t="inlineStr"/>
       <c r="E757" t="inlineStr">
         <is>
-          <t>https://www.greatforest.hu/property/97186-debrecen-city-center-flat</t>
+          <t>https://www.greatforest.hu/property/46734-debrecen-close-to-main-campus-flat</t>
         </is>
       </c>
     </row>
     <row r="758">
       <c r="A758" t="inlineStr">
         <is>
-          <t>480 000</t>
+          <t>280 000</t>
         </is>
       </c>
       <c r="B758" t="inlineStr">
         <is>
-          <t>83</t>
+          <t>69</t>
         </is>
       </c>
       <c r="C758" t="inlineStr">
@@ -20239,19 +20195,19 @@
       <c r="D758" t="inlineStr"/>
       <c r="E758" t="inlineStr">
         <is>
-          <t>https://www.greatforest.hu/property/97187-debrecen-flat</t>
+          <t>https://www.greatforest.hu/property/97856-debrecen-city-center-office-not-in-office-building</t>
         </is>
       </c>
     </row>
     <row r="759">
       <c r="A759" t="inlineStr">
         <is>
-          <t>5 000</t>
+          <t>230 000</t>
         </is>
       </c>
       <c r="B759" t="inlineStr">
         <is>
-          <t>600</t>
+          <t>54</t>
         </is>
       </c>
       <c r="C759" t="inlineStr">
@@ -20262,107 +20218,111 @@
       <c r="D759" t="inlineStr"/>
       <c r="E759" t="inlineStr">
         <is>
-          <t>https://www.greatforest.hu/property/98074-hajduszoboszlo-pension</t>
+          <t>https://www.greatforest.hu/property/98613-debrecen-jozsa-lower-flat</t>
         </is>
       </c>
     </row>
     <row r="760">
       <c r="A760" t="inlineStr">
         <is>
-          <t>100 000</t>
+          <t>580 000</t>
         </is>
       </c>
       <c r="B760" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>100</t>
         </is>
       </c>
       <c r="C760" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>4</t>
         </is>
       </c>
       <c r="D760" t="inlineStr"/>
       <c r="E760" t="inlineStr">
         <is>
-          <t>https://www.greatforest.hu/property/97809-debrecen-block-of-flats</t>
+          <t>https://www.greatforest.hu/property/98425-debrecen-city-center-flat</t>
         </is>
       </c>
     </row>
     <row r="761">
       <c r="A761" t="inlineStr">
         <is>
-          <t>400 000</t>
+          <t>480 000</t>
         </is>
       </c>
       <c r="B761" t="inlineStr">
         <is>
-          <t>159</t>
+          <t>73</t>
         </is>
       </c>
       <c r="C761" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D761" t="inlineStr"/>
       <c r="E761" t="inlineStr">
         <is>
-          <t>https://www.greatforest.hu/property/67666-debrecen-city-center-flat</t>
+          <t>https://www.greatforest.hu/property/97186-debrecen-city-center-flat</t>
         </is>
       </c>
     </row>
     <row r="762">
       <c r="A762" t="inlineStr">
         <is>
-          <t>200 000</t>
+          <t>480 000</t>
         </is>
       </c>
       <c r="B762" t="inlineStr">
         <is>
-          <t>1000</t>
-        </is>
-      </c>
-      <c r="C762" t="inlineStr"/>
+          <t>83</t>
+        </is>
+      </c>
+      <c r="C762" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
       <c r="D762" t="inlineStr"/>
       <c r="E762" t="inlineStr">
         <is>
-          <t>https://www.greatforest.hu/property/97273-debrecen-city-south-east-industrial-building-plot</t>
+          <t>https://www.greatforest.hu/property/97187-debrecen-flat</t>
         </is>
       </c>
     </row>
     <row r="763">
       <c r="A763" t="inlineStr">
         <is>
-          <t>650 000</t>
+          <t>5 000</t>
         </is>
       </c>
       <c r="B763" t="inlineStr">
         <is>
-          <t>228</t>
+          <t>600</t>
         </is>
       </c>
       <c r="C763" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D763" t="inlineStr"/>
       <c r="E763" t="inlineStr">
         <is>
-          <t>https://www.greatforest.hu/property/97238-debrecen-family-house</t>
+          <t>https://www.greatforest.hu/property/98074-hajduszoboszlo-pension</t>
         </is>
       </c>
     </row>
     <row r="764">
       <c r="A764" t="inlineStr">
         <is>
-          <t>555 000</t>
+          <t>100 000</t>
         </is>
       </c>
       <c r="B764" t="inlineStr">
         <is>
-          <t>154</t>
+          <t>30</t>
         </is>
       </c>
       <c r="C764" t="inlineStr">
@@ -20373,26 +20333,30 @@
       <c r="D764" t="inlineStr"/>
       <c r="E764" t="inlineStr">
         <is>
-          <t>https://www.greatforest.hu/property/96621-debrecen-city-center-office-not-in-office-building</t>
+          <t>https://www.greatforest.hu/property/97809-debrecen-block-of-flats</t>
         </is>
       </c>
     </row>
     <row r="765">
       <c r="A765" t="inlineStr">
         <is>
-          <t>20 000</t>
+          <t>400 000</t>
         </is>
       </c>
       <c r="B765" t="inlineStr">
         <is>
-          <t>20</t>
-        </is>
-      </c>
-      <c r="C765" t="inlineStr"/>
+          <t>159</t>
+        </is>
+      </c>
+      <c r="C765" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
       <c r="D765" t="inlineStr"/>
       <c r="E765" t="inlineStr">
         <is>
-          <t>https://www.greatforest.hu/property/95866-debrecen-parking-lot-underground</t>
+          <t>https://www.greatforest.hu/property/67666-debrecen-city-center-flat</t>
         </is>
       </c>
     </row>
@@ -20400,18 +20364,18 @@
       <c r="A766" t="inlineStr"/>
       <c r="B766" t="inlineStr">
         <is>
-          <t>140</t>
+          <t>147</t>
         </is>
       </c>
       <c r="C766" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>4</t>
         </is>
       </c>
       <c r="D766" t="inlineStr"/>
       <c r="E766" t="inlineStr">
         <is>
-          <t>https://www.greatforest.hu/property/101048-hajduszoboszlo-family-house</t>
+          <t>https://www.greatforest.hu/property/101274-hajduszoboszlo-attached-house</t>
         </is>
       </c>
     </row>
@@ -20419,18 +20383,14 @@
       <c r="A767" t="inlineStr"/>
       <c r="B767" t="inlineStr">
         <is>
-          <t>54</t>
-        </is>
-      </c>
-      <c r="C767" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
+          <t>1200</t>
+        </is>
+      </c>
+      <c r="C767" t="inlineStr"/>
       <c r="D767" t="inlineStr"/>
       <c r="E767" t="inlineStr">
         <is>
-          <t>https://www.greatforest.hu/property/100958-debrecen-close-to-tesco-area-block-of-flats</t>
+          <t>https://www.greatforest.hu/property/99305-hajduszoboszlo-pension</t>
         </is>
       </c>
     </row>
@@ -20438,18 +20398,18 @@
       <c r="A768" t="inlineStr"/>
       <c r="B768" t="inlineStr">
         <is>
-          <t>74</t>
+          <t>48</t>
         </is>
       </c>
       <c r="C768" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D768" t="inlineStr"/>
       <c r="E768" t="inlineStr">
         <is>
-          <t>https://www.greatforest.hu/property/100009-debrecen-city-east-family-house</t>
+          <t>https://www.greatforest.hu/property/101250-debrecen-city-south-east-family-house</t>
         </is>
       </c>
     </row>
@@ -20457,7 +20417,7 @@
       <c r="A769" t="inlineStr"/>
       <c r="B769" t="inlineStr">
         <is>
-          <t>60</t>
+          <t>50</t>
         </is>
       </c>
       <c r="C769" t="inlineStr">
@@ -20468,7 +20428,7 @@
       <c r="D769" t="inlineStr"/>
       <c r="E769" t="inlineStr">
         <is>
-          <t>https://www.greatforest.hu/property/99898-hajdusamson-family-house</t>
+          <t>https://www.greatforest.hu/property/101246-debrecen-bem-square-flat</t>
         </is>
       </c>
     </row>
@@ -20476,18 +20436,18 @@
       <c r="A770" t="inlineStr"/>
       <c r="B770" t="inlineStr">
         <is>
-          <t>640</t>
+          <t>60</t>
         </is>
       </c>
       <c r="C770" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D770" t="inlineStr"/>
       <c r="E770" t="inlineStr">
         <is>
-          <t>https://www.greatforest.hu/property/101126-debrecen-city-center-office-not-in-office-building</t>
+          <t>https://www.greatforest.hu/property/101245-debrecen-greatforest-area-flat</t>
         </is>
       </c>
     </row>
@@ -20495,14 +20455,18 @@
       <c r="A771" t="inlineStr"/>
       <c r="B771" t="inlineStr">
         <is>
-          <t>25</t>
-        </is>
-      </c>
-      <c r="C771" t="inlineStr"/>
+          <t>78</t>
+        </is>
+      </c>
+      <c r="C771" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
       <c r="D771" t="inlineStr"/>
       <c r="E771" t="inlineStr">
         <is>
-          <t>https://www.greatforest.hu/property/101121-debrecen-greatforest-area-garage-individual-garage</t>
+          <t>https://www.greatforest.hu/property/101244-debrecen-greatforest-area-flat</t>
         </is>
       </c>
     </row>
@@ -20510,18 +20474,14 @@
       <c r="A772" t="inlineStr"/>
       <c r="B772" t="inlineStr">
         <is>
-          <t>96</t>
-        </is>
-      </c>
-      <c r="C772" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="C772" t="inlineStr"/>
       <c r="D772" t="inlineStr"/>
       <c r="E772" t="inlineStr">
         <is>
-          <t>https://www.greatforest.hu/property/41027-debrecen-city-center-flat</t>
+          <t>https://www.greatforest.hu/property/101204-debrecen-city-center-parking-lot-underground</t>
         </is>
       </c>
     </row>
@@ -20529,201 +20489,193 @@
       <c r="A773" t="inlineStr"/>
       <c r="B773" t="inlineStr">
         <is>
-          <t>67</t>
-        </is>
-      </c>
-      <c r="C773" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="C773" t="inlineStr"/>
       <c r="D773" t="inlineStr"/>
       <c r="E773" t="inlineStr">
         <is>
-          <t>https://www.greatforest.hu/property/101104-debrecen-close-to-tesco-area-block-of-flats</t>
+          <t>https://www.greatforest.hu/property/101203-debrecen-main-campus-area-parking-lot-underground</t>
         </is>
       </c>
     </row>
     <row r="774">
       <c r="A774" t="inlineStr">
         <is>
-          <t>400 000</t>
+          <t>200 000</t>
         </is>
       </c>
       <c r="B774" t="inlineStr">
         <is>
-          <t>1240</t>
+          <t>1000</t>
         </is>
       </c>
       <c r="C774" t="inlineStr"/>
       <c r="D774" t="inlineStr"/>
       <c r="E774" t="inlineStr">
         <is>
-          <t>https://www.greatforest.hu/property/95366-debrecen-city-south-east-industrial-building-plot</t>
+          <t>https://www.greatforest.hu/property/97273-debrecen-city-south-east-industrial-building-plot</t>
         </is>
       </c>
     </row>
     <row r="775">
       <c r="A775" t="inlineStr">
         <is>
-          <t>30 000</t>
+          <t>650 000</t>
         </is>
       </c>
       <c r="B775" t="inlineStr">
         <is>
-          <t>13</t>
-        </is>
-      </c>
-      <c r="C775" t="inlineStr"/>
+          <t>228</t>
+        </is>
+      </c>
+      <c r="C775" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
       <c r="D775" t="inlineStr"/>
       <c r="E775" t="inlineStr">
         <is>
-          <t>https://www.greatforest.hu/property/95348-debrecen-city-center-parking-lot-underground</t>
+          <t>https://www.greatforest.hu/property/97238-debrecen-family-house</t>
         </is>
       </c>
     </row>
     <row r="776">
       <c r="A776" t="inlineStr">
         <is>
-          <t>24 000</t>
+          <t>555 000</t>
         </is>
       </c>
       <c r="B776" t="inlineStr">
         <is>
-          <t>18</t>
-        </is>
-      </c>
-      <c r="C776" t="inlineStr"/>
+          <t>154</t>
+        </is>
+      </c>
+      <c r="C776" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
       <c r="D776" t="inlineStr"/>
       <c r="E776" t="inlineStr">
         <is>
-          <t>https://www.greatforest.hu/property/95092-debrecen-city-center-parking-lot-underground</t>
+          <t>https://www.greatforest.hu/property/96621-debrecen-city-center-office-not-in-office-building</t>
         </is>
       </c>
     </row>
     <row r="777">
       <c r="A777" t="inlineStr">
         <is>
-          <t>190 000</t>
+          <t>20 000</t>
         </is>
       </c>
       <c r="B777" t="inlineStr">
         <is>
-          <t>56</t>
+          <t>20</t>
         </is>
       </c>
       <c r="C777" t="inlineStr"/>
       <c r="D777" t="inlineStr"/>
       <c r="E777" t="inlineStr">
         <is>
-          <t>https://www.greatforest.hu/property/95018-debrecen-city-center-commercial-premises-not-in-shopping-center</t>
+          <t>https://www.greatforest.hu/property/95866-debrecen-parking-lot-underground</t>
         </is>
       </c>
     </row>
     <row r="778">
       <c r="A778" t="inlineStr">
         <is>
-          <t>15 000</t>
+          <t>400 000</t>
         </is>
       </c>
       <c r="B778" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>1240</t>
         </is>
       </c>
       <c r="C778" t="inlineStr"/>
       <c r="D778" t="inlineStr"/>
       <c r="E778" t="inlineStr">
         <is>
-          <t>https://www.greatforest.hu/property/94880-debrecen-close-to-main-campus-parking-lot-underground</t>
+          <t>https://www.greatforest.hu/property/95366-debrecen-city-south-east-industrial-building-plot</t>
         </is>
       </c>
     </row>
     <row r="779">
       <c r="A779" t="inlineStr">
         <is>
-          <t>150 000</t>
+          <t>30 000</t>
         </is>
       </c>
       <c r="B779" t="inlineStr">
         <is>
-          <t>41</t>
-        </is>
-      </c>
-      <c r="C779" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="C779" t="inlineStr"/>
       <c r="D779" t="inlineStr"/>
       <c r="E779" t="inlineStr">
         <is>
-          <t>https://www.greatforest.hu/property/51448-debrecen-close-to-kassai-campus-office-not-in-office-building</t>
+          <t>https://www.greatforest.hu/property/95348-debrecen-city-center-parking-lot-underground</t>
         </is>
       </c>
     </row>
     <row r="780">
       <c r="A780" t="inlineStr">
         <is>
-          <t>25 000</t>
+          <t>24 000</t>
         </is>
       </c>
       <c r="B780" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>18</t>
         </is>
       </c>
       <c r="C780" t="inlineStr"/>
       <c r="D780" t="inlineStr"/>
       <c r="E780" t="inlineStr">
         <is>
-          <t>https://www.greatforest.hu/property/94783-debrecen-main-campus-area-garage-individual-garage</t>
+          <t>https://www.greatforest.hu/property/95092-debrecen-city-center-parking-lot-underground</t>
         </is>
       </c>
     </row>
     <row r="781">
       <c r="A781" t="inlineStr">
         <is>
-          <t>200 000</t>
+          <t>190 000</t>
         </is>
       </c>
       <c r="B781" t="inlineStr">
         <is>
-          <t>47</t>
-        </is>
-      </c>
-      <c r="C781" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
+          <t>56</t>
+        </is>
+      </c>
+      <c r="C781" t="inlineStr"/>
       <c r="D781" t="inlineStr"/>
       <c r="E781" t="inlineStr">
         <is>
-          <t>https://www.greatforest.hu/property/94781-debrecen-city-center-commercial-premises-not-in-shopping-center</t>
+          <t>https://www.greatforest.hu/property/95018-debrecen-city-center-commercial-premises-not-in-shopping-center</t>
         </is>
       </c>
     </row>
     <row r="782">
       <c r="A782" t="inlineStr">
         <is>
-          <t>3 300 000</t>
+          <t>15 000</t>
         </is>
       </c>
       <c r="B782" t="inlineStr">
         <is>
-          <t>713</t>
-        </is>
-      </c>
-      <c r="C782" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="C782" t="inlineStr"/>
       <c r="D782" t="inlineStr"/>
       <c r="E782" t="inlineStr">
         <is>
-          <t>https://www.greatforest.hu/property/94247-debrecen-city-center-office-in-office-building</t>
+          <t>https://www.greatforest.hu/property/94880-debrecen-close-to-main-campus-parking-lot-underground</t>
         </is>
       </c>
     </row>
@@ -20731,18 +20683,18 @@
       <c r="A783" t="inlineStr"/>
       <c r="B783" t="inlineStr">
         <is>
-          <t>140</t>
+          <t>147</t>
         </is>
       </c>
       <c r="C783" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>4</t>
         </is>
       </c>
       <c r="D783" t="inlineStr"/>
       <c r="E783" t="inlineStr">
         <is>
-          <t>https://www.greatforest.hu/property/101048-hajduszoboszlo-family-house</t>
+          <t>https://www.greatforest.hu/property/101274-hajduszoboszlo-attached-house</t>
         </is>
       </c>
     </row>
@@ -20750,18 +20702,14 @@
       <c r="A784" t="inlineStr"/>
       <c r="B784" t="inlineStr">
         <is>
-          <t>54</t>
-        </is>
-      </c>
-      <c r="C784" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
+          <t>1200</t>
+        </is>
+      </c>
+      <c r="C784" t="inlineStr"/>
       <c r="D784" t="inlineStr"/>
       <c r="E784" t="inlineStr">
         <is>
-          <t>https://www.greatforest.hu/property/100958-debrecen-close-to-tesco-area-block-of-flats</t>
+          <t>https://www.greatforest.hu/property/99305-hajduszoboszlo-pension</t>
         </is>
       </c>
     </row>
@@ -20769,18 +20717,18 @@
       <c r="A785" t="inlineStr"/>
       <c r="B785" t="inlineStr">
         <is>
-          <t>74</t>
+          <t>48</t>
         </is>
       </c>
       <c r="C785" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D785" t="inlineStr"/>
       <c r="E785" t="inlineStr">
         <is>
-          <t>https://www.greatforest.hu/property/100009-debrecen-city-east-family-house</t>
+          <t>https://www.greatforest.hu/property/101250-debrecen-city-south-east-family-house</t>
         </is>
       </c>
     </row>
@@ -20788,7 +20736,7 @@
       <c r="A786" t="inlineStr"/>
       <c r="B786" t="inlineStr">
         <is>
-          <t>60</t>
+          <t>50</t>
         </is>
       </c>
       <c r="C786" t="inlineStr">
@@ -20799,7 +20747,7 @@
       <c r="D786" t="inlineStr"/>
       <c r="E786" t="inlineStr">
         <is>
-          <t>https://www.greatforest.hu/property/99898-hajdusamson-family-house</t>
+          <t>https://www.greatforest.hu/property/101246-debrecen-bem-square-flat</t>
         </is>
       </c>
     </row>
@@ -20807,18 +20755,18 @@
       <c r="A787" t="inlineStr"/>
       <c r="B787" t="inlineStr">
         <is>
-          <t>640</t>
+          <t>60</t>
         </is>
       </c>
       <c r="C787" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D787" t="inlineStr"/>
       <c r="E787" t="inlineStr">
         <is>
-          <t>https://www.greatforest.hu/property/101126-debrecen-city-center-office-not-in-office-building</t>
+          <t>https://www.greatforest.hu/property/101245-debrecen-greatforest-area-flat</t>
         </is>
       </c>
     </row>
@@ -20826,14 +20774,18 @@
       <c r="A788" t="inlineStr"/>
       <c r="B788" t="inlineStr">
         <is>
-          <t>25</t>
-        </is>
-      </c>
-      <c r="C788" t="inlineStr"/>
+          <t>78</t>
+        </is>
+      </c>
+      <c r="C788" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
       <c r="D788" t="inlineStr"/>
       <c r="E788" t="inlineStr">
         <is>
-          <t>https://www.greatforest.hu/property/101121-debrecen-greatforest-area-garage-individual-garage</t>
+          <t>https://www.greatforest.hu/property/101244-debrecen-greatforest-area-flat</t>
         </is>
       </c>
     </row>
@@ -20841,18 +20793,14 @@
       <c r="A789" t="inlineStr"/>
       <c r="B789" t="inlineStr">
         <is>
-          <t>96</t>
-        </is>
-      </c>
-      <c r="C789" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="C789" t="inlineStr"/>
       <c r="D789" t="inlineStr"/>
       <c r="E789" t="inlineStr">
         <is>
-          <t>https://www.greatforest.hu/property/41027-debrecen-city-center-flat</t>
+          <t>https://www.greatforest.hu/property/101204-debrecen-city-center-parking-lot-underground</t>
         </is>
       </c>
     </row>
@@ -20860,122 +20808,114 @@
       <c r="A790" t="inlineStr"/>
       <c r="B790" t="inlineStr">
         <is>
-          <t>67</t>
-        </is>
-      </c>
-      <c r="C790" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="C790" t="inlineStr"/>
       <c r="D790" t="inlineStr"/>
       <c r="E790" t="inlineStr">
         <is>
-          <t>https://www.greatforest.hu/property/101104-debrecen-close-to-tesco-area-block-of-flats</t>
+          <t>https://www.greatforest.hu/property/101203-debrecen-main-campus-area-parking-lot-underground</t>
         </is>
       </c>
     </row>
     <row r="791">
       <c r="A791" t="inlineStr">
         <is>
-          <t>1 600 000</t>
+          <t>150 000</t>
         </is>
       </c>
       <c r="B791" t="inlineStr">
         <is>
-          <t>230</t>
+          <t>41</t>
         </is>
       </c>
       <c r="C791" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D791" t="inlineStr"/>
       <c r="E791" t="inlineStr">
         <is>
-          <t>https://www.greatforest.hu/property/93893-debrecen-family-house</t>
+          <t>https://www.greatforest.hu/property/51448-debrecen-close-to-kassai-campus-office-not-in-office-building</t>
         </is>
       </c>
     </row>
     <row r="792">
       <c r="A792" t="inlineStr">
         <is>
-          <t>250 000</t>
+          <t>25 000</t>
         </is>
       </c>
       <c r="B792" t="inlineStr">
         <is>
-          <t>152</t>
-        </is>
-      </c>
-      <c r="C792" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="C792" t="inlineStr"/>
       <c r="D792" t="inlineStr"/>
       <c r="E792" t="inlineStr">
         <is>
-          <t>https://www.greatforest.hu/property/70458-debrecen-close-to-bem-square-commercial-premises-not-in-shopping-center</t>
+          <t>https://www.greatforest.hu/property/94783-debrecen-main-campus-area-garage-individual-garage</t>
         </is>
       </c>
     </row>
     <row r="793">
       <c r="A793" t="inlineStr">
         <is>
-          <t>850 000</t>
+          <t>200 000</t>
         </is>
       </c>
       <c r="B793" t="inlineStr">
         <is>
-          <t>250</t>
+          <t>47</t>
         </is>
       </c>
       <c r="C793" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D793" t="inlineStr"/>
       <c r="E793" t="inlineStr">
         <is>
-          <t>https://www.greatforest.hu/property/84313-debrecen-greatforest-area-family-house</t>
+          <t>https://www.greatforest.hu/property/94781-debrecen-city-center-commercial-premises-not-in-shopping-center</t>
         </is>
       </c>
     </row>
     <row r="794">
       <c r="A794" t="inlineStr">
         <is>
-          <t>175 000</t>
+          <t>3 300 000</t>
         </is>
       </c>
       <c r="B794" t="inlineStr">
         <is>
-          <t>58</t>
+          <t>713</t>
         </is>
       </c>
       <c r="C794" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D794" t="inlineStr"/>
       <c r="E794" t="inlineStr">
         <is>
-          <t>https://www.greatforest.hu/property/50904-debrecen-city-center-office-not-in-office-building</t>
+          <t>https://www.greatforest.hu/property/94247-debrecen-city-center-office-in-office-building</t>
         </is>
       </c>
     </row>
     <row r="795">
       <c r="A795" t="inlineStr">
         <is>
-          <t>595 000</t>
+          <t>1 600 000</t>
         </is>
       </c>
       <c r="B795" t="inlineStr">
         <is>
-          <t>167</t>
+          <t>230</t>
         </is>
       </c>
       <c r="C795" t="inlineStr">
@@ -20986,19 +20926,19 @@
       <c r="D795" t="inlineStr"/>
       <c r="E795" t="inlineStr">
         <is>
-          <t>https://www.greatforest.hu/property/89378-debrecen-city-north-attached-house</t>
+          <t>https://www.greatforest.hu/property/93893-debrecen-family-house</t>
         </is>
       </c>
     </row>
     <row r="796">
       <c r="A796" t="inlineStr">
         <is>
-          <t>13 500</t>
+          <t>250 000</t>
         </is>
       </c>
       <c r="B796" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>152</t>
         </is>
       </c>
       <c r="C796" t="inlineStr">
@@ -21009,76 +20949,76 @@
       <c r="D796" t="inlineStr"/>
       <c r="E796" t="inlineStr">
         <is>
-          <t>https://www.greatforest.hu/property/54209-debrecen-main-campus-area-parking-lot-underground</t>
+          <t>https://www.greatforest.hu/property/70458-debrecen-close-to-bem-square-commercial-premises-not-in-shopping-center</t>
         </is>
       </c>
     </row>
     <row r="797">
       <c r="A797" t="inlineStr">
         <is>
-          <t>25 000</t>
+          <t>850 000</t>
         </is>
       </c>
       <c r="B797" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>250</t>
         </is>
       </c>
       <c r="C797" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>7</t>
         </is>
       </c>
       <c r="D797" t="inlineStr"/>
       <c r="E797" t="inlineStr">
         <is>
-          <t>https://www.greatforest.hu/property/85190-debrecen-main-campus-area-parking-lot-underground</t>
+          <t>https://www.greatforest.hu/property/84313-debrecen-greatforest-area-family-house</t>
         </is>
       </c>
     </row>
     <row r="798">
       <c r="A798" t="inlineStr">
         <is>
-          <t>6 000</t>
+          <t>175 000</t>
         </is>
       </c>
       <c r="B798" t="inlineStr">
         <is>
-          <t>202</t>
+          <t>58</t>
         </is>
       </c>
       <c r="C798" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D798" t="inlineStr"/>
       <c r="E798" t="inlineStr">
         <is>
-          <t>https://www.greatforest.hu/property/85001-budapest-office-not-in-office-building</t>
+          <t>https://www.greatforest.hu/property/50904-debrecen-city-center-office-not-in-office-building</t>
         </is>
       </c>
     </row>
     <row r="799">
       <c r="A799" t="inlineStr">
         <is>
-          <t>80 000</t>
+          <t>595 000</t>
         </is>
       </c>
       <c r="B799" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>167</t>
         </is>
       </c>
       <c r="C799" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>5</t>
         </is>
       </c>
       <c r="D799" t="inlineStr"/>
       <c r="E799" t="inlineStr">
         <is>
-          <t>https://www.greatforest.hu/property/84787-debrecen-city-center-office-not-in-office-building</t>
+          <t>https://www.greatforest.hu/property/89378-debrecen-city-north-attached-house</t>
         </is>
       </c>
     </row>
@@ -21086,18 +21026,18 @@
       <c r="A800" t="inlineStr"/>
       <c r="B800" t="inlineStr">
         <is>
-          <t>140</t>
+          <t>147</t>
         </is>
       </c>
       <c r="C800" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>4</t>
         </is>
       </c>
       <c r="D800" t="inlineStr"/>
       <c r="E800" t="inlineStr">
         <is>
-          <t>https://www.greatforest.hu/property/101048-hajduszoboszlo-family-house</t>
+          <t>https://www.greatforest.hu/property/101274-hajduszoboszlo-attached-house</t>
         </is>
       </c>
     </row>
@@ -21105,18 +21045,14 @@
       <c r="A801" t="inlineStr"/>
       <c r="B801" t="inlineStr">
         <is>
-          <t>54</t>
-        </is>
-      </c>
-      <c r="C801" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
+          <t>1200</t>
+        </is>
+      </c>
+      <c r="C801" t="inlineStr"/>
       <c r="D801" t="inlineStr"/>
       <c r="E801" t="inlineStr">
         <is>
-          <t>https://www.greatforest.hu/property/100958-debrecen-close-to-tesco-area-block-of-flats</t>
+          <t>https://www.greatforest.hu/property/99305-hajduszoboszlo-pension</t>
         </is>
       </c>
     </row>
@@ -21124,18 +21060,18 @@
       <c r="A802" t="inlineStr"/>
       <c r="B802" t="inlineStr">
         <is>
-          <t>74</t>
+          <t>48</t>
         </is>
       </c>
       <c r="C802" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D802" t="inlineStr"/>
       <c r="E802" t="inlineStr">
         <is>
-          <t>https://www.greatforest.hu/property/100009-debrecen-city-east-family-house</t>
+          <t>https://www.greatforest.hu/property/101250-debrecen-city-south-east-family-house</t>
         </is>
       </c>
     </row>
@@ -21143,7 +21079,7 @@
       <c r="A803" t="inlineStr"/>
       <c r="B803" t="inlineStr">
         <is>
-          <t>60</t>
+          <t>50</t>
         </is>
       </c>
       <c r="C803" t="inlineStr">
@@ -21154,7 +21090,7 @@
       <c r="D803" t="inlineStr"/>
       <c r="E803" t="inlineStr">
         <is>
-          <t>https://www.greatforest.hu/property/99898-hajdusamson-family-house</t>
+          <t>https://www.greatforest.hu/property/101246-debrecen-bem-square-flat</t>
         </is>
       </c>
     </row>
@@ -21162,18 +21098,18 @@
       <c r="A804" t="inlineStr"/>
       <c r="B804" t="inlineStr">
         <is>
-          <t>640</t>
+          <t>60</t>
         </is>
       </c>
       <c r="C804" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D804" t="inlineStr"/>
       <c r="E804" t="inlineStr">
         <is>
-          <t>https://www.greatforest.hu/property/101126-debrecen-city-center-office-not-in-office-building</t>
+          <t>https://www.greatforest.hu/property/101245-debrecen-greatforest-area-flat</t>
         </is>
       </c>
     </row>
@@ -21181,14 +21117,18 @@
       <c r="A805" t="inlineStr"/>
       <c r="B805" t="inlineStr">
         <is>
-          <t>25</t>
-        </is>
-      </c>
-      <c r="C805" t="inlineStr"/>
+          <t>78</t>
+        </is>
+      </c>
+      <c r="C805" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
       <c r="D805" t="inlineStr"/>
       <c r="E805" t="inlineStr">
         <is>
-          <t>https://www.greatforest.hu/property/101121-debrecen-greatforest-area-garage-individual-garage</t>
+          <t>https://www.greatforest.hu/property/101244-debrecen-greatforest-area-flat</t>
         </is>
       </c>
     </row>
@@ -21196,18 +21136,14 @@
       <c r="A806" t="inlineStr"/>
       <c r="B806" t="inlineStr">
         <is>
-          <t>96</t>
-        </is>
-      </c>
-      <c r="C806" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="C806" t="inlineStr"/>
       <c r="D806" t="inlineStr"/>
       <c r="E806" t="inlineStr">
         <is>
-          <t>https://www.greatforest.hu/property/41027-debrecen-city-center-flat</t>
+          <t>https://www.greatforest.hu/property/101204-debrecen-city-center-parking-lot-underground</t>
         </is>
       </c>
     </row>
@@ -21215,30 +21151,26 @@
       <c r="A807" t="inlineStr"/>
       <c r="B807" t="inlineStr">
         <is>
-          <t>67</t>
-        </is>
-      </c>
-      <c r="C807" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="C807" t="inlineStr"/>
       <c r="D807" t="inlineStr"/>
       <c r="E807" t="inlineStr">
         <is>
-          <t>https://www.greatforest.hu/property/101104-debrecen-close-to-tesco-area-block-of-flats</t>
+          <t>https://www.greatforest.hu/property/101203-debrecen-main-campus-area-parking-lot-underground</t>
         </is>
       </c>
     </row>
     <row r="808">
       <c r="A808" t="inlineStr">
         <is>
-          <t>100 000</t>
+          <t>170 000</t>
         </is>
       </c>
       <c r="B808" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>51</t>
         </is>
       </c>
       <c r="C808" t="inlineStr">
@@ -21248,29 +21180,29 @@
       </c>
       <c r="D808" t="inlineStr">
         <is>
-          <t>Debrecen, Vezér utca</t>
+          <t>Debrecen, Görgey utca</t>
         </is>
       </c>
       <c r="E808" t="inlineStr">
         <is>
-          <t>https://debrecenrent.hu/for-rent/flat/debrecen-vezer-utca/219797/</t>
+          <t>https://debrecenrent.hu/for-rent/flat/debrecen-gorgey-utca/219854/</t>
         </is>
       </c>
     </row>
     <row r="809">
       <c r="A809" t="inlineStr">
         <is>
-          <t>140 000</t>
+          <t>160 000</t>
         </is>
       </c>
       <c r="B809" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>70</t>
         </is>
       </c>
       <c r="C809" t="inlineStr">
         <is>
-          <t>1 Bedrooms, 1 Bathrooms</t>
+          <t>0 Bedrooms, 1 Bathrooms</t>
         </is>
       </c>
       <c r="D809" t="inlineStr">
@@ -21280,46 +21212,46 @@
       </c>
       <c r="E809" t="inlineStr">
         <is>
-          <t>https://debrecenrent.hu/for-rent/flat/debrecen-bem-ter/169681/</t>
+          <t>https://debrecenrent.hu/for-rent/flat/debrecen-bem-ter/207975/</t>
         </is>
       </c>
     </row>
     <row r="810">
       <c r="A810" t="inlineStr">
         <is>
-          <t>280 000</t>
+          <t>170 000</t>
         </is>
       </c>
       <c r="B810" t="inlineStr">
         <is>
-          <t>92</t>
+          <t>54</t>
         </is>
       </c>
       <c r="C810" t="inlineStr">
         <is>
-          <t>3 Bedrooms, 1 Bathrooms</t>
+          <t>1 Bedrooms, 1 Bathrooms</t>
         </is>
       </c>
       <c r="D810" t="inlineStr">
         <is>
-          <t>Debrecen, Csapó utca</t>
+          <t>Debrecen, Cívis utca</t>
         </is>
       </c>
       <c r="E810" t="inlineStr">
         <is>
-          <t>https://debrecenrent.hu/for-rent/flat/debrecen-csapo-utca/206077/</t>
+          <t>https://debrecenrent.hu/for-rent/flat/debrecen-civis-utca/219199/</t>
         </is>
       </c>
     </row>
     <row r="811">
       <c r="A811" t="inlineStr">
         <is>
-          <t>170 000</t>
+          <t>220 000</t>
         </is>
       </c>
       <c r="B811" t="inlineStr">
         <is>
-          <t>65</t>
+          <t>50</t>
         </is>
       </c>
       <c r="C811" t="inlineStr">
@@ -21329,51 +21261,51 @@
       </c>
       <c r="D811" t="inlineStr">
         <is>
-          <t>Debrecen, Simonyi út</t>
+          <t>Debrecen, Rózsahegy utca</t>
         </is>
       </c>
       <c r="E811" t="inlineStr">
         <is>
-          <t>https://debrecenrent.hu/for-rent/flat/debrecen-simonyi-ut/207872/</t>
+          <t>https://debrecenrent.hu/for-rent/flat/debrecen-rozsahegy-utca/209110/</t>
         </is>
       </c>
     </row>
     <row r="812">
       <c r="A812" t="inlineStr">
         <is>
-          <t>270 000</t>
+          <t>170 000</t>
         </is>
       </c>
       <c r="B812" t="inlineStr">
         <is>
-          <t>120</t>
+          <t>56</t>
         </is>
       </c>
       <c r="C812" t="inlineStr">
         <is>
-          <t>3 Bedrooms, 2 Bathrooms</t>
+          <t>1 Bedrooms, 1 Bathrooms</t>
         </is>
       </c>
       <c r="D812" t="inlineStr">
         <is>
-          <t>Debrecen, Bartók Béla út</t>
+          <t>Debrecen, Széchenyi utca</t>
         </is>
       </c>
       <c r="E812" t="inlineStr">
         <is>
-          <t>https://debrecenrent.hu/for-rent/house/debrecen-bartok-bela-ut/163569/</t>
+          <t>https://debrecenrent.hu/for-rent/flat/debrecen-szechenyi-utca/219233/</t>
         </is>
       </c>
     </row>
     <row r="813">
       <c r="A813" t="inlineStr">
         <is>
-          <t>119 000</t>
+          <t>180 000</t>
         </is>
       </c>
       <c r="B813" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>78</t>
         </is>
       </c>
       <c r="C813" t="inlineStr">
@@ -21383,12 +21315,12 @@
       </c>
       <c r="D813" t="inlineStr">
         <is>
-          <t>Debrecen, Kassai út</t>
+          <t>Debrecen, Nagyerdei körút</t>
         </is>
       </c>
       <c r="E813" t="inlineStr">
         <is>
-          <t>https://debrecenrent.hu/for-rent/house/debrecen-kassai-ut/176619/</t>
+          <t>https://debrecenrent.hu/for-rent/flat/debrecen-nagyerdei-korut/199999/</t>
         </is>
       </c>
     </row>
@@ -21400,7 +21332,7 @@
       </c>
       <c r="B814" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>41</t>
         </is>
       </c>
       <c r="C814" t="inlineStr">
@@ -21410,24 +21342,24 @@
       </c>
       <c r="D814" t="inlineStr">
         <is>
-          <t>Debrecen, Csapó utca</t>
+          <t>Debrecen, Kossuth utca</t>
         </is>
       </c>
       <c r="E814" t="inlineStr">
         <is>
-          <t>https://debrecenrent.hu/for-rent/flat/debrecen-csapo-utca/212757/</t>
+          <t>https://debrecenrent.hu/for-rent/flat/debrecen-kossuth-utca/219810/</t>
         </is>
       </c>
     </row>
     <row r="815">
       <c r="A815" t="inlineStr">
         <is>
-          <t>115 000</t>
+          <t>185 000</t>
         </is>
       </c>
       <c r="B815" t="inlineStr">
         <is>
-          <t>28</t>
+          <t>54</t>
         </is>
       </c>
       <c r="C815" t="inlineStr">
@@ -21437,24 +21369,24 @@
       </c>
       <c r="D815" t="inlineStr">
         <is>
-          <t>Debrecen, Faraktár utca</t>
+          <t>Debrecen, Görgey utca</t>
         </is>
       </c>
       <c r="E815" t="inlineStr">
         <is>
-          <t>https://debrecenrent.hu/for-rent/flat/debrecen-faraktar-utca/219628/</t>
+          <t>https://debrecenrent.hu/for-rent/flat/debrecen-gorgey-utca/219815/</t>
         </is>
       </c>
     </row>
     <row r="816">
       <c r="A816" t="inlineStr">
         <is>
-          <t>180 000</t>
+          <t>120 000</t>
         </is>
       </c>
       <c r="B816" t="inlineStr">
         <is>
-          <t>78</t>
+          <t>25</t>
         </is>
       </c>
       <c r="C816" t="inlineStr">
@@ -21464,24 +21396,24 @@
       </c>
       <c r="D816" t="inlineStr">
         <is>
-          <t>Debrecen, Nagyerdei körút</t>
+          <t>Debrecen, Vezér utca</t>
         </is>
       </c>
       <c r="E816" t="inlineStr">
         <is>
-          <t>https://debrecenrent.hu/for-rent/flat/debrecen-nagyerdei-korut/199999/</t>
+          <t>https://debrecenrent.hu/for-rent/flat/debrecen-vezer-utca/219797/</t>
         </is>
       </c>
     </row>
     <row r="817">
       <c r="A817" t="inlineStr">
         <is>
-          <t>170 000</t>
+          <t>140 000</t>
         </is>
       </c>
       <c r="B817" t="inlineStr">
         <is>
-          <t>54</t>
+          <t>35</t>
         </is>
       </c>
       <c r="C817" t="inlineStr">
@@ -21491,93 +21423,93 @@
       </c>
       <c r="D817" t="inlineStr">
         <is>
-          <t>Debrecen, Cívis utca</t>
+          <t>Debrecen, Bem tér</t>
         </is>
       </c>
       <c r="E817" t="inlineStr">
         <is>
-          <t>https://debrecenrent.hu/for-rent/flat/debrecen-civis-utca/219199/</t>
+          <t>https://debrecenrent.hu/for-rent/flat/debrecen-bem-ter/169681/</t>
         </is>
       </c>
     </row>
     <row r="818">
       <c r="A818" t="inlineStr">
         <is>
-          <t>490 000</t>
+          <t>280 000</t>
         </is>
       </c>
       <c r="B818" t="inlineStr">
         <is>
-          <t>52</t>
+          <t>92</t>
         </is>
       </c>
       <c r="C818" t="inlineStr">
         <is>
-          <t>1 Bedrooms, 1 Bathrooms</t>
+          <t>3 Bedrooms, 1 Bathrooms</t>
         </is>
       </c>
       <c r="D818" t="inlineStr">
         <is>
-          <t>Debrecen, Mikszáth Kálmán utca</t>
+          <t>Debrecen, Csapó utca</t>
         </is>
       </c>
       <c r="E818" t="inlineStr">
         <is>
-          <t>https://debrecenrent.hu/for-rent/flat/debrecen-mikszath-kalman-utca/216981/</t>
+          <t>https://debrecenrent.hu/for-rent/flat/debrecen-csapo-utca/206077/</t>
         </is>
       </c>
     </row>
     <row r="819">
       <c r="A819" t="inlineStr">
         <is>
-          <t>280 000</t>
+          <t>270 000</t>
         </is>
       </c>
       <c r="B819" t="inlineStr">
         <is>
-          <t>68</t>
+          <t>120</t>
         </is>
       </c>
       <c r="C819" t="inlineStr">
         <is>
-          <t>2 Bedrooms, 1 Bathrooms</t>
+          <t>3 Bedrooms, 2 Bathrooms</t>
         </is>
       </c>
       <c r="D819" t="inlineStr">
         <is>
-          <t>Debrecen, Csapó utca</t>
+          <t>Debrecen, Bartók Béla út</t>
         </is>
       </c>
       <c r="E819" t="inlineStr">
         <is>
-          <t>https://debrecenrent.hu/for-rent/flat/debrecen-csapo-utca/218738/</t>
+          <t>https://debrecenrent.hu/for-rent/house/debrecen-bartok-bela-ut/163569/</t>
         </is>
       </c>
     </row>
     <row r="820">
       <c r="A820" t="inlineStr">
         <is>
-          <t>390 000</t>
+          <t>119 000</t>
         </is>
       </c>
       <c r="B820" t="inlineStr">
         <is>
-          <t>115</t>
+          <t>23</t>
         </is>
       </c>
       <c r="C820" t="inlineStr">
         <is>
-          <t>3 Bedrooms, 1 Bathrooms</t>
+          <t>1 Bedrooms, 1 Bathrooms</t>
         </is>
       </c>
       <c r="D820" t="inlineStr">
         <is>
-          <t>Debrecen, Csapó utca</t>
+          <t>Debrecen, Kassai út</t>
         </is>
       </c>
       <c r="E820" t="inlineStr">
         <is>
-          <t>https://debrecenrent.hu/for-rent/flat/debrecen-csapo-utca/219320/</t>
+          <t>https://debrecenrent.hu/for-rent/house/debrecen-kassai-ut/176619/</t>
         </is>
       </c>
     </row>
@@ -21589,7 +21521,7 @@
       </c>
       <c r="B821" t="inlineStr">
         <is>
-          <t>38</t>
+          <t>35</t>
         </is>
       </c>
       <c r="C821" t="inlineStr">
@@ -21599,24 +21531,24 @@
       </c>
       <c r="D821" t="inlineStr">
         <is>
-          <t>Debrecen, Batthyány utca</t>
+          <t>Debrecen, Csapó utca</t>
         </is>
       </c>
       <c r="E821" t="inlineStr">
         <is>
-          <t>https://debrecenrent.hu/for-rent/flat/debrecen-batthyany-utca/219726/</t>
+          <t>https://debrecenrent.hu/for-rent/flat/debrecen-csapo-utca/212757/</t>
         </is>
       </c>
     </row>
     <row r="822">
       <c r="A822" t="inlineStr">
         <is>
-          <t>150 000</t>
+          <t>115 000</t>
         </is>
       </c>
       <c r="B822" t="inlineStr">
         <is>
-          <t>54</t>
+          <t>28</t>
         </is>
       </c>
       <c r="C822" t="inlineStr">
@@ -21626,51 +21558,51 @@
       </c>
       <c r="D822" t="inlineStr">
         <is>
-          <t>Debrecen, Dózsa György utca</t>
+          <t>Debrecen, Faraktár utca</t>
         </is>
       </c>
       <c r="E822" t="inlineStr">
         <is>
-          <t>https://debrecenrent.hu/for-rent/flat/debrecen-dozsa-gyorgy-utca/218362/</t>
+          <t>https://debrecenrent.hu/for-rent/flat/debrecen-faraktar-utca/219628/</t>
         </is>
       </c>
     </row>
     <row r="823">
       <c r="A823" t="inlineStr">
         <is>
-          <t>190 000</t>
+          <t>490 000</t>
         </is>
       </c>
       <c r="B823" t="inlineStr">
         <is>
-          <t>72</t>
+          <t>52</t>
         </is>
       </c>
       <c r="C823" t="inlineStr">
         <is>
-          <t>2 Bedrooms, 1 Bathrooms</t>
+          <t>1 Bedrooms, 1 Bathrooms</t>
         </is>
       </c>
       <c r="D823" t="inlineStr">
         <is>
-          <t>Debrecen, Dienes János utca</t>
+          <t>Debrecen, Mikszáth Kálmán utca</t>
         </is>
       </c>
       <c r="E823" t="inlineStr">
         <is>
-          <t>https://debrecenrent.hu/for-rent/flat/debrecen-dienes-janos-utca/218718/</t>
+          <t>https://debrecenrent.hu/for-rent/flat/debrecen-mikszath-kalman-utca/216981/</t>
         </is>
       </c>
     </row>
     <row r="824">
       <c r="A824" t="inlineStr">
         <is>
-          <t>300 000</t>
+          <t>280 000</t>
         </is>
       </c>
       <c r="B824" t="inlineStr">
         <is>
-          <t>69</t>
+          <t>68</t>
         </is>
       </c>
       <c r="C824" t="inlineStr">
@@ -21680,78 +21612,78 @@
       </c>
       <c r="D824" t="inlineStr">
         <is>
-          <t>Debrecen, Antall József utca</t>
+          <t>Debrecen, Csapó utca</t>
         </is>
       </c>
       <c r="E824" t="inlineStr">
         <is>
-          <t>https://debrecenrent.hu/for-rent/flat/debrecen-antall-jozsef-utca/218121/</t>
+          <t>https://debrecenrent.hu/for-rent/flat/debrecen-csapo-utca/218738/</t>
         </is>
       </c>
     </row>
     <row r="825">
       <c r="A825" t="inlineStr">
         <is>
-          <t>395 000</t>
+          <t>390 000</t>
         </is>
       </c>
       <c r="B825" t="inlineStr">
         <is>
-          <t>73</t>
+          <t>115</t>
         </is>
       </c>
       <c r="C825" t="inlineStr">
         <is>
-          <t>2 Bedrooms, 1 Bathrooms</t>
+          <t>3 Bedrooms, 1 Bathrooms</t>
         </is>
       </c>
       <c r="D825" t="inlineStr">
         <is>
-          <t>Debrecen, Garai utca</t>
+          <t>Debrecen, Csapó utca</t>
         </is>
       </c>
       <c r="E825" t="inlineStr">
         <is>
-          <t>https://debrecenrent.hu/for-rent/flat/debrecen-garai-utca/217183/</t>
+          <t>https://debrecenrent.hu/for-rent/flat/debrecen-csapo-utca/219320/</t>
         </is>
       </c>
     </row>
     <row r="826">
       <c r="A826" t="inlineStr">
         <is>
-          <t>395 000</t>
+          <t>140 000</t>
         </is>
       </c>
       <c r="B826" t="inlineStr">
         <is>
-          <t>83</t>
+          <t>38</t>
         </is>
       </c>
       <c r="C826" t="inlineStr">
         <is>
-          <t>2 Bedrooms, 2 Bathrooms</t>
+          <t>1 Bedrooms, 1 Bathrooms</t>
         </is>
       </c>
       <c r="D826" t="inlineStr">
         <is>
-          <t>Debrecen, Garai utca</t>
+          <t>Debrecen, Batthyány utca</t>
         </is>
       </c>
       <c r="E826" t="inlineStr">
         <is>
-          <t>https://debrecenrent.hu/for-rent/flat/debrecen-garai-utca/217196/</t>
+          <t>https://debrecenrent.hu/for-rent/flat/debrecen-batthyany-utca/219726/</t>
         </is>
       </c>
     </row>
     <row r="827">
       <c r="A827" t="inlineStr">
         <is>
-          <t>230 000</t>
+          <t>150 000</t>
         </is>
       </c>
       <c r="B827" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>54</t>
         </is>
       </c>
       <c r="C827" t="inlineStr">
@@ -21761,132 +21693,132 @@
       </c>
       <c r="D827" t="inlineStr">
         <is>
-          <t>Debrecen, Rózsahegy utca</t>
+          <t>Debrecen, Dózsa György utca</t>
         </is>
       </c>
       <c r="E827" t="inlineStr">
         <is>
-          <t>https://debrecenrent.hu/for-rent/flat/debrecen-rozsahegy-utca/209110/</t>
+          <t>https://debrecenrent.hu/for-rent/flat/debrecen-dozsa-gyorgy-utca/218362/</t>
         </is>
       </c>
     </row>
     <row r="828">
       <c r="A828" t="inlineStr">
         <is>
-          <t>150 000</t>
+          <t>190 000</t>
         </is>
       </c>
       <c r="B828" t="inlineStr">
         <is>
-          <t>43</t>
+          <t>72</t>
         </is>
       </c>
       <c r="C828" t="inlineStr">
         <is>
-          <t>1 Bedrooms, 1 Bathrooms</t>
+          <t>2 Bedrooms, 1 Bathrooms</t>
         </is>
       </c>
       <c r="D828" t="inlineStr">
         <is>
-          <t>Debrecen, Kassai út</t>
+          <t>Debrecen, Dienes János utca</t>
         </is>
       </c>
       <c r="E828" t="inlineStr">
         <is>
-          <t>https://debrecenrent.hu/for-rent/flat/debrecen-kassai-ut/219562/</t>
+          <t>https://debrecenrent.hu/for-rent/flat/debrecen-dienes-janos-utca/218718/</t>
         </is>
       </c>
     </row>
     <row r="829">
       <c r="A829" t="inlineStr">
         <is>
-          <t>160 000</t>
+          <t>300 000</t>
         </is>
       </c>
       <c r="B829" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>69</t>
         </is>
       </c>
       <c r="C829" t="inlineStr">
         <is>
-          <t>1 Bedrooms, 1 Bathrooms</t>
+          <t>2 Bedrooms, 1 Bathrooms</t>
         </is>
       </c>
       <c r="D829" t="inlineStr">
         <is>
-          <t>Debrecen, Hatvan utca</t>
+          <t>Debrecen, Antall József utca</t>
         </is>
       </c>
       <c r="E829" t="inlineStr">
         <is>
-          <t>https://debrecenrent.hu/for-rent/flat/debrecen-hatvan-utca/219640/</t>
+          <t>https://debrecenrent.hu/for-rent/flat/debrecen-antall-jozsef-utca/218121/</t>
         </is>
       </c>
     </row>
     <row r="830">
       <c r="A830" t="inlineStr">
         <is>
-          <t>400 000</t>
+          <t>395 000</t>
         </is>
       </c>
       <c r="B830" t="inlineStr">
         <is>
-          <t>159</t>
+          <t>73</t>
         </is>
       </c>
       <c r="C830" t="inlineStr">
         <is>
-          <t>4 Bedrooms, 2 Bathrooms</t>
+          <t>2 Bedrooms, 1 Bathrooms</t>
         </is>
       </c>
       <c r="D830" t="inlineStr">
         <is>
-          <t>Debrecen, Piac utca</t>
+          <t>Debrecen, Garai utca</t>
         </is>
       </c>
       <c r="E830" t="inlineStr">
         <is>
-          <t>https://debrecenrent.hu/for-rent/flat/debrecen-piac-utca/219173/</t>
+          <t>https://debrecenrent.hu/for-rent/flat/debrecen-garai-utca/217183/</t>
         </is>
       </c>
     </row>
     <row r="831">
       <c r="A831" t="inlineStr">
         <is>
-          <t>600 000</t>
+          <t>395 000</t>
         </is>
       </c>
       <c r="B831" t="inlineStr">
         <is>
-          <t>92</t>
+          <t>83</t>
         </is>
       </c>
       <c r="C831" t="inlineStr">
         <is>
-          <t>2 Bedrooms, 1 Bathrooms</t>
+          <t>2 Bedrooms, 2 Bathrooms</t>
         </is>
       </c>
       <c r="D831" t="inlineStr">
         <is>
-          <t>Debrecen, Hadházi út</t>
+          <t>Debrecen, Garai utca</t>
         </is>
       </c>
       <c r="E831" t="inlineStr">
         <is>
-          <t>https://debrecenrent.hu/for-rent/flat/debrecen-hadhazi-ut/219319/</t>
+          <t>https://debrecenrent.hu/for-rent/flat/debrecen-garai-utca/217196/</t>
         </is>
       </c>
     </row>
     <row r="832">
       <c r="A832" t="inlineStr">
         <is>
-          <t>240 000</t>
+          <t>150 000</t>
         </is>
       </c>
       <c r="B832" t="inlineStr">
         <is>
-          <t>60</t>
+          <t>43</t>
         </is>
       </c>
       <c r="C832" t="inlineStr">
@@ -21896,24 +21828,24 @@
       </c>
       <c r="D832" t="inlineStr">
         <is>
-          <t>Debrecen, Hatvani István utca</t>
+          <t>Debrecen, Kassai út</t>
         </is>
       </c>
       <c r="E832" t="inlineStr">
         <is>
-          <t>https://debrecenrent.hu/for-rent/flat/debrecen-hatvani-istvan-utca/179322/</t>
+          <t>https://debrecenrent.hu/for-rent/flat/debrecen-kassai-ut/219562/</t>
         </is>
       </c>
     </row>
     <row r="833">
       <c r="A833" t="inlineStr">
         <is>
-          <t>170 000</t>
+          <t>160 000</t>
         </is>
       </c>
       <c r="B833" t="inlineStr">
         <is>
-          <t>56</t>
+          <t>50</t>
         </is>
       </c>
       <c r="C833" t="inlineStr">
@@ -21923,78 +21855,78 @@
       </c>
       <c r="D833" t="inlineStr">
         <is>
-          <t>Debrecen, Széchenyi utca</t>
+          <t>Debrecen, Hatvan utca</t>
         </is>
       </c>
       <c r="E833" t="inlineStr">
         <is>
-          <t>https://debrecenrent.hu/for-rent/flat/debrecen-szechenyi-utca/219233/</t>
+          <t>https://debrecenrent.hu/for-rent/flat/debrecen-hatvan-utca/219640/</t>
         </is>
       </c>
     </row>
     <row r="834">
       <c r="A834" t="inlineStr">
         <is>
-          <t>220 000</t>
+          <t>400 000</t>
         </is>
       </c>
       <c r="B834" t="inlineStr">
         <is>
-          <t>60</t>
+          <t>159</t>
         </is>
       </c>
       <c r="C834" t="inlineStr">
         <is>
-          <t>2 Bedrooms, 1 Bathrooms</t>
+          <t>4 Bedrooms, 2 Bathrooms</t>
         </is>
       </c>
       <c r="D834" t="inlineStr">
         <is>
-          <t>Debrecen, Egyetem sugárút</t>
+          <t>Debrecen, Piac utca</t>
         </is>
       </c>
       <c r="E834" t="inlineStr">
         <is>
-          <t>https://debrecenrent.hu/for-rent/flat/debrecen-egyetem-sugarut/216383/</t>
+          <t>https://debrecenrent.hu/for-rent/flat/debrecen-piac-utca/219173/</t>
         </is>
       </c>
     </row>
     <row r="835">
       <c r="A835" t="inlineStr">
         <is>
-          <t>390 000</t>
+          <t>600 000</t>
         </is>
       </c>
       <c r="B835" t="inlineStr">
         <is>
-          <t>75</t>
+          <t>92</t>
         </is>
       </c>
       <c r="C835" t="inlineStr">
         <is>
-          <t>3 Bedrooms, 1 Bathrooms</t>
+          <t>2 Bedrooms, 1 Bathrooms</t>
         </is>
       </c>
       <c r="D835" t="inlineStr">
         <is>
-          <t>Debrecen, Nagyerdei körút</t>
+          <t>Debrecen, Hadházi út</t>
         </is>
       </c>
       <c r="E835" t="inlineStr">
         <is>
-          <t>https://debrecenrent.hu/for-rent/flat/debrecen-nagyerdei-korut/213647/</t>
+          <t>https://debrecenrent.hu/for-rent/flat/debrecen-hadhazi-ut/219319/</t>
         </is>
       </c>
     </row>
     <row r="836">
       <c r="A836" t="inlineStr">
         <is>
-          <t>230 000</t>
+          <t>240 000</t>
         </is>
       </c>
       <c r="B836" t="inlineStr">
         <is>
-          <t>59</t>
+          <t>60</t>
         </is>
       </c>
       <c r="C836" t="inlineStr">
@@ -22004,24 +21936,24 @@
       </c>
       <c r="D836" t="inlineStr">
         <is>
-          <t>Debrecen, Hadházi út</t>
+          <t>Debrecen, Hatvani István utca</t>
         </is>
       </c>
       <c r="E836" t="inlineStr">
         <is>
-          <t>https://debrecenrent.hu/for-rent/flat/debrecen-hadhazi-ut/218454/</t>
+          <t>https://debrecenrent.hu/for-rent/flat/debrecen-hatvani-istvan-utca/179322/</t>
         </is>
       </c>
     </row>
     <row r="837">
       <c r="A837" t="inlineStr">
         <is>
-          <t>180 000</t>
+          <t>220 000</t>
         </is>
       </c>
       <c r="B837" t="inlineStr">
         <is>
-          <t>66</t>
+          <t>60</t>
         </is>
       </c>
       <c r="C837" t="inlineStr">
@@ -22031,51 +21963,51 @@
       </c>
       <c r="D837" t="inlineStr">
         <is>
-          <t>Debrecen, Csapó utca</t>
+          <t>Debrecen, Egyetem sugárút</t>
         </is>
       </c>
       <c r="E837" t="inlineStr">
         <is>
-          <t>https://debrecenrent.hu/for-rent/flat/debrecen-csapo-utca/218492/</t>
+          <t>https://debrecenrent.hu/for-rent/flat/debrecen-egyetem-sugarut/216383/</t>
         </is>
       </c>
     </row>
     <row r="838">
       <c r="A838" t="inlineStr">
         <is>
-          <t>210 000</t>
+          <t>390 000</t>
         </is>
       </c>
       <c r="B838" t="inlineStr">
         <is>
-          <t>71</t>
+          <t>75</t>
         </is>
       </c>
       <c r="C838" t="inlineStr">
         <is>
-          <t>2 Bedrooms, 1 Bathrooms</t>
+          <t>3 Bedrooms, 1 Bathrooms</t>
         </is>
       </c>
       <c r="D838" t="inlineStr">
         <is>
-          <t>Debrecen, Laktanya utca</t>
+          <t>Debrecen, Nagyerdei körút</t>
         </is>
       </c>
       <c r="E838" t="inlineStr">
         <is>
-          <t>https://debrecenrent.hu/for-rent/flat/debrecen-laktanya-utca/203923/</t>
+          <t>https://debrecenrent.hu/for-rent/flat/debrecen-nagyerdei-korut/213647/</t>
         </is>
       </c>
     </row>
     <row r="839">
       <c r="A839" t="inlineStr">
         <is>
-          <t>130 000</t>
+          <t>230 000</t>
         </is>
       </c>
       <c r="B839" t="inlineStr">
         <is>
-          <t>45</t>
+          <t>59</t>
         </is>
       </c>
       <c r="C839" t="inlineStr">
@@ -22085,105 +22017,105 @@
       </c>
       <c r="D839" t="inlineStr">
         <is>
-          <t>Debrecen, Honvéd utca</t>
+          <t>Debrecen, Hadházi út</t>
         </is>
       </c>
       <c r="E839" t="inlineStr">
         <is>
-          <t>https://debrecenrent.hu/for-rent/flat/debrecen-honved-utca/192083/</t>
+          <t>https://debrecenrent.hu/for-rent/flat/debrecen-hadhazi-ut/218454/</t>
         </is>
       </c>
     </row>
     <row r="840">
       <c r="A840" t="inlineStr">
         <is>
-          <t>240 000</t>
+          <t>180 000</t>
         </is>
       </c>
       <c r="B840" t="inlineStr">
         <is>
-          <t>54</t>
+          <t>66</t>
         </is>
       </c>
       <c r="C840" t="inlineStr">
         <is>
-          <t>1 Bedrooms, 1 Bathrooms</t>
+          <t>2 Bedrooms, 1 Bathrooms</t>
         </is>
       </c>
       <c r="D840" t="inlineStr">
         <is>
-          <t>Debrecen, Nagy Lajos király tér</t>
+          <t>Debrecen, Csapó utca</t>
         </is>
       </c>
       <c r="E840" t="inlineStr">
         <is>
-          <t>https://debrecenrent.hu/for-rent/flat/debrecen-nagy-lajos-kiraly-ter/218134/</t>
+          <t>https://debrecenrent.hu/for-rent/flat/debrecen-csapo-utca/218492/</t>
         </is>
       </c>
     </row>
     <row r="841">
       <c r="A841" t="inlineStr">
         <is>
-          <t>350 000</t>
+          <t>210 000</t>
         </is>
       </c>
       <c r="B841" t="inlineStr">
         <is>
-          <t>130</t>
+          <t>71</t>
         </is>
       </c>
       <c r="C841" t="inlineStr">
         <is>
-          <t>4 Bedrooms, 2 Bathrooms</t>
+          <t>2 Bedrooms, 1 Bathrooms</t>
         </is>
       </c>
       <c r="D841" t="inlineStr">
         <is>
-          <t>Debrecen, Akadémia utca</t>
+          <t>Debrecen, Laktanya utca</t>
         </is>
       </c>
       <c r="E841" t="inlineStr">
         <is>
-          <t>https://debrecenrent.hu/for-rent/house/debrecen-akademia-utca/217736/</t>
+          <t>https://debrecenrent.hu/for-rent/flat/debrecen-laktanya-utca/203923/</t>
         </is>
       </c>
     </row>
     <row r="842">
       <c r="A842" t="inlineStr">
         <is>
-          <t>350 000</t>
+          <t>130 000</t>
         </is>
       </c>
       <c r="B842" t="inlineStr">
         <is>
-          <t>63</t>
+          <t>45</t>
         </is>
       </c>
       <c r="C842" t="inlineStr">
         <is>
-          <t>2 Bedrooms, 1 Bathrooms</t>
+          <t>1 Bedrooms, 1 Bathrooms</t>
         </is>
       </c>
       <c r="D842" t="inlineStr">
         <is>
-          <t>Debrecen, Antall József utca</t>
+          <t>Debrecen, Honvéd utca</t>
         </is>
       </c>
       <c r="E842" t="inlineStr">
         <is>
-          <t>https://debrecenrent.hu/for-rent/flat/debrecen-antall-jozsef-utca/218120/</t>
+          <t>https://debrecenrent.hu/for-rent/flat/debrecen-honved-utca/192083/</t>
         </is>
       </c>
     </row>
     <row r="843">
       <c r="A843" t="inlineStr">
         <is>
-          <t>190 000</t>
+          <t>240 000</t>
         </is>
       </c>
       <c r="B843" t="inlineStr">
         <is>
-          <t>65</t>
+          <t>54</t>
         </is>
       </c>
       <c r="C843" t="inlineStr">
@@ -22193,51 +22125,51 @@
       </c>
       <c r="D843" t="inlineStr">
         <is>
-          <t>Debrecen, Szoboszlói út</t>
+          <t>Debrecen, Nagy Lajos király tér</t>
         </is>
       </c>
       <c r="E843" t="inlineStr">
         <is>
-          <t>https://debrecenrent.hu/for-rent/flat/debrecen-szoboszloi-ut/204247/</t>
+          <t>https://debrecenrent.hu/for-rent/flat/debrecen-nagy-lajos-kiraly-ter/218134/</t>
         </is>
       </c>
     </row>
     <row r="844">
       <c r="A844" t="inlineStr">
         <is>
-          <t>200 000</t>
+          <t>350 000</t>
         </is>
       </c>
       <c r="B844" t="inlineStr">
         <is>
-          <t>55</t>
+          <t>130</t>
         </is>
       </c>
       <c r="C844" t="inlineStr">
         <is>
-          <t>1 Bedrooms, 1 Bathrooms</t>
+          <t>4 Bedrooms, 2 Bathrooms</t>
         </is>
       </c>
       <c r="D844" t="inlineStr">
         <is>
-          <t>Debrecen, Péterfia utca</t>
+          <t>Debrecen, Akadémia utca</t>
         </is>
       </c>
       <c r="E844" t="inlineStr">
         <is>
-          <t>https://debrecenrent.hu/for-rent/flat/debrecen-peterfia-utca/210104/</t>
+          <t>https://debrecenrent.hu/for-rent/house/debrecen-akademia-utca/217736/</t>
         </is>
       </c>
     </row>
     <row r="845">
       <c r="A845" t="inlineStr">
         <is>
-          <t>170 000</t>
+          <t>190 000</t>
         </is>
       </c>
       <c r="B845" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>65</t>
         </is>
       </c>
       <c r="C845" t="inlineStr">
@@ -22247,24 +22179,24 @@
       </c>
       <c r="D845" t="inlineStr">
         <is>
-          <t>Debrecen, Péterfia utca</t>
+          <t>Debrecen, Szoboszlói út</t>
         </is>
       </c>
       <c r="E845" t="inlineStr">
         <is>
-          <t>https://debrecenrent.hu/for-rent/flat/debrecen-peterfia-utca/215070/</t>
+          <t>https://debrecenrent.hu/for-rent/flat/debrecen-szoboszloi-ut/204247/</t>
         </is>
       </c>
     </row>
     <row r="846">
       <c r="A846" t="inlineStr">
         <is>
-          <t>190 000</t>
+          <t>200 000</t>
         </is>
       </c>
       <c r="B846" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>55</t>
         </is>
       </c>
       <c r="C846" t="inlineStr">
@@ -22279,19 +22211,19 @@
       </c>
       <c r="E846" t="inlineStr">
         <is>
-          <t>https://debrecenrent.hu/for-rent/flat/debrecen-peterfia-utca/205429/</t>
+          <t>https://debrecenrent.hu/for-rent/flat/debrecen-peterfia-utca/210104/</t>
         </is>
       </c>
     </row>
     <row r="847">
       <c r="A847" t="inlineStr">
         <is>
-          <t>190 000</t>
+          <t>170 000</t>
         </is>
       </c>
       <c r="B847" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>17</t>
         </is>
       </c>
       <c r="C847" t="inlineStr">
@@ -22306,19 +22238,19 @@
       </c>
       <c r="E847" t="inlineStr">
         <is>
-          <t>https://debrecenrent.hu/for-rent/flat/debrecen-peterfia-utca/205422/</t>
+          <t>https://debrecenrent.hu/for-rent/flat/debrecen-peterfia-utca/215070/</t>
         </is>
       </c>
     </row>
     <row r="848">
       <c r="A848" t="inlineStr">
         <is>
-          <t>230 000</t>
+          <t>190 000</t>
         </is>
       </c>
       <c r="B848" t="inlineStr">
         <is>
-          <t>54</t>
+          <t>13</t>
         </is>
       </c>
       <c r="C848" t="inlineStr">
@@ -22328,125 +22260,179 @@
       </c>
       <c r="D848" t="inlineStr">
         <is>
-          <t>Debrecen, Gönczy Pál utca</t>
+          <t>Debrecen, Péterfia utca</t>
         </is>
       </c>
       <c r="E848" t="inlineStr">
         <is>
-          <t>https://debrecenrent.hu/for-rent/flat/debrecen-gonczy-pal-utca/216064/</t>
+          <t>https://debrecenrent.hu/for-rent/flat/debrecen-peterfia-utca/205429/</t>
         </is>
       </c>
     </row>
     <row r="849">
       <c r="A849" t="inlineStr">
         <is>
-          <t>600 000</t>
-        </is>
-      </c>
-      <c r="B849" t="inlineStr"/>
-      <c r="C849" t="inlineStr"/>
+          <t>190 000</t>
+        </is>
+      </c>
+      <c r="B849" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="C849" t="inlineStr">
+        <is>
+          <t>1 Bedrooms, 1 Bathrooms</t>
+        </is>
+      </c>
       <c r="D849" t="inlineStr">
         <is>
-          <t>Hajdúszoboszló</t>
+          <t>Debrecen, Péterfia utca</t>
         </is>
       </c>
       <c r="E849" t="inlineStr">
         <is>
-          <t>https://debrecenrent.hu/for-rent/house/hajduszoboszlo-/214748/</t>
+          <t>https://debrecenrent.hu/for-rent/flat/debrecen-peterfia-utca/205422/</t>
         </is>
       </c>
     </row>
     <row r="850">
       <c r="A850" t="inlineStr">
         <is>
-          <t>500 000</t>
+          <t>230 000</t>
         </is>
       </c>
       <c r="B850" t="inlineStr">
         <is>
-          <t>147</t>
+          <t>54</t>
         </is>
       </c>
       <c r="C850" t="inlineStr">
         <is>
-          <t>3 Bedrooms, 2 Bathrooms</t>
+          <t>1 Bedrooms, 1 Bathrooms</t>
         </is>
       </c>
       <c r="D850" t="inlineStr">
         <is>
-          <t>Hajdúszoboszló, Hőforrás utca</t>
+          <t>Debrecen, Gönczy Pál utca</t>
         </is>
       </c>
       <c r="E850" t="inlineStr">
         <is>
-          <t>https://debrecenrent.hu/for-rent/house/hajduszoboszlo-hoforras-utca/214766/</t>
+          <t>https://debrecenrent.hu/for-rent/flat/debrecen-gonczy-pal-utca/216064/</t>
         </is>
       </c>
     </row>
     <row r="851">
-      <c r="A851" t="inlineStr"/>
+      <c r="A851" t="inlineStr">
+        <is>
+          <t>600 000</t>
+        </is>
+      </c>
       <c r="B851" t="inlineStr"/>
       <c r="C851" t="inlineStr"/>
       <c r="D851" t="inlineStr">
         <is>
-          <t>Debrecen, Böszörményi út</t>
+          <t>Hajdúszoboszló</t>
         </is>
       </c>
       <c r="E851" t="inlineStr">
         <is>
-          <t>https://debrecenrent.hu/for-rent/flat/debrecen-boszormenyi-ut/212458/</t>
+          <t>https://debrecenrent.hu/for-rent/house/hajduszoboszlo-/214748/</t>
         </is>
       </c>
     </row>
     <row r="852">
       <c r="A852" t="inlineStr">
         <is>
+          <t>500 000</t>
+        </is>
+      </c>
+      <c r="B852" t="inlineStr">
+        <is>
+          <t>147</t>
+        </is>
+      </c>
+      <c r="C852" t="inlineStr">
+        <is>
+          <t>3 Bedrooms, 2 Bathrooms</t>
+        </is>
+      </c>
+      <c r="D852" t="inlineStr">
+        <is>
+          <t>Hajdúszoboszló, Hőforrás utca</t>
+        </is>
+      </c>
+      <c r="E852" t="inlineStr">
+        <is>
+          <t>https://debrecenrent.hu/for-rent/house/hajduszoboszlo-hoforras-utca/214766/</t>
+        </is>
+      </c>
+    </row>
+    <row r="853">
+      <c r="A853" t="inlineStr"/>
+      <c r="B853" t="inlineStr"/>
+      <c r="C853" t="inlineStr"/>
+      <c r="D853" t="inlineStr">
+        <is>
+          <t>Debrecen, Böszörményi út</t>
+        </is>
+      </c>
+      <c r="E853" t="inlineStr">
+        <is>
+          <t>https://debrecenrent.hu/for-rent/flat/debrecen-boszormenyi-ut/212458/</t>
+        </is>
+      </c>
+    </row>
+    <row r="854">
+      <c r="A854" t="inlineStr">
+        <is>
           <t>420 000</t>
         </is>
       </c>
-      <c r="B852" t="inlineStr">
+      <c r="B854" t="inlineStr">
         <is>
           <t>228</t>
         </is>
       </c>
-      <c r="C852" t="inlineStr">
+      <c r="C854" t="inlineStr">
         <is>
           <t>4 Bedrooms, 2 Bathrooms</t>
         </is>
       </c>
-      <c r="D852" t="inlineStr">
+      <c r="D854" t="inlineStr">
         <is>
           <t>Debrecen, Simonyi út</t>
         </is>
       </c>
-      <c r="E852" t="inlineStr">
+      <c r="E854" t="inlineStr">
         <is>
           <t>https://debrecenrent.hu/for-rent/flat/debrecen-simonyi-ut/212003/</t>
         </is>
       </c>
     </row>
-    <row r="853">
-      <c r="A853" t="inlineStr">
+    <row r="855">
+      <c r="A855" t="inlineStr">
         <is>
           <t>220 000</t>
         </is>
       </c>
-      <c r="B853" t="inlineStr">
+      <c r="B855" t="inlineStr">
         <is>
           <t>71</t>
         </is>
       </c>
-      <c r="C853" t="inlineStr">
+      <c r="C855" t="inlineStr">
         <is>
           <t>2 Bedrooms, 1 Bathrooms</t>
         </is>
       </c>
-      <c r="D853" t="inlineStr">
+      <c r="D855" t="inlineStr">
         <is>
           <t>Debrecen, Böszörményi út</t>
         </is>
       </c>
-      <c r="E853" t="inlineStr">
+      <c r="E855" t="inlineStr">
         <is>
           <t>https://debrecenrent.hu/for-rent/flat/debrecen-boszormenyi-ut/209447/</t>
         </is>

--- a/streamlit/housesTRIAL.xlsx
+++ b/streamlit/housesTRIAL.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E855"/>
+  <dimension ref="A1:E854"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -463,12 +463,12 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>120 000</t>
+          <t>170 000</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>57</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -478,24 +478,24 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Debrecen, Sinai Miklós</t>
+          <t>Debrecen , Böszörményi street</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>https://www.findahome.hu/ingatlanok/debrecen-sinai-miklos-utca-1-bedroom-living-room-apartament-for-rent/</t>
+          <t>https://www.findahome.hu/ingatlanok/furedi-residential-area-flat-for-rent-2/</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>140 000</t>
+          <t>120 000</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>59</t>
+          <t>35</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -505,159 +505,159 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Debrecen, Kardos Albert</t>
+          <t>Debrecen, Sinai Miklós</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>https://www.findahome.hu/ingatlanok/debrecen-kardos-albert-street-2-separate-rooms-flat-for-rent/</t>
+          <t>https://www.findahome.hu/ingatlanok/debrecen-sinai-miklos-utca-1-bedroom-living-room-apartament-for-rent/</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>280 000</t>
+          <t>140 000</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>100</t>
+          <t>59</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>1 living room(s), 4 bedroom(s), 1  bathroom(s)</t>
+          <t>1 living room(s), 1 bedroom(s), 1  bathroom(s)</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Debrecen, Komlóssy street</t>
+          <t>Debrecen, Kardos Albert</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>https://www.findahome.hu/ingatlanok/debrecen1-min-from-the-uni-main-4-bedroom-living-room-apartment-for-rent/</t>
+          <t>https://www.findahome.hu/ingatlanok/debrecen-kardos-albert-street-2-separate-rooms-flat-for-rent/</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>420 000</t>
+          <t>280 000</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>112</t>
+          <t>100</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>1 living room(s), 3 bedroom(s), 1  bathroom(s)</t>
+          <t>1 living room(s), 4 bedroom(s), 1  bathroom(s)</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Debrecen, Rákóczi</t>
+          <t>Debrecen, Komlóssy street</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>https://www.findahome.hu/ingatlanok/debrecen-belvaros-3-bedroom-living-room-unfurnished-apartament-for-rent/</t>
+          <t>https://www.findahome.hu/ingatlanok/debrecen1-min-from-the-uni-main-4-bedroom-living-room-apartment-for-rent/</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>180 000</t>
+          <t>420 000</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>56</t>
+          <t>112</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>0 living room(s), 2 bedroom(s), 1  bathroom(s)</t>
+          <t>1 living room(s), 3 bedroom(s), 1  bathroom(s)</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Debrecen, Mikszáth Kálmán street</t>
+          <t>Debrecen, Rákóczi</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>https://www.findahome.hu/ingatlanok/mikszath-kalman-street-close-to-uni-2-rooms-flat-available/</t>
+          <t>https://www.findahome.hu/ingatlanok/debrecen-belvaros-3-bedroom-living-room-unfurnished-apartament-for-rent/</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>760 000</t>
+          <t>180 000</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>135</t>
+          <t>56</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>1 living room(s), 3 bedroom(s), 0  bathroom(s)</t>
+          <t>0 living room(s), 2 bedroom(s), 1  bathroom(s)</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Debrecen, Pacsirta</t>
+          <t>Debrecen, Mikszáth Kálmán street</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>https://www.findahome.hu/ingatlanok/luxury-house-for-rent-3-bedroom-living-room/</t>
+          <t>https://www.findahome.hu/ingatlanok/mikszath-kalman-street-close-to-uni-2-rooms-flat-available/</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>120 000</t>
+          <t>760 000</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>135</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>1 living room(s), 1 bedroom(s), 1  bathroom(s)</t>
+          <t>1 living room(s), 3 bedroom(s), 0  bathroom(s)</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Debrecen, Domokos Lajos</t>
+          <t>Debrecen, Pacsirta</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>https://www.findahome.hu/ingatlanok/debrecen-domokos-lajos-street-1-bedroom-living-room-flat-for-rent/</t>
+          <t>https://www.findahome.hu/ingatlanok/luxury-house-for-rent-3-bedroom-living-room/</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>200 000</t>
+          <t>120 000</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>57</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -667,12 +667,12 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Debrecen , Böszörményi street</t>
+          <t>Debrecen, Domokos Lajos</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>https://www.findahome.hu/ingatlanok/furedi-residential-area-flat-for-rent-2/</t>
+          <t>https://www.findahome.hu/ingatlanok/debrecen-domokos-lajos-street-1-bedroom-living-room-flat-for-rent/</t>
         </is>
       </c>
     </row>
@@ -922,54 +922,54 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>250 000</t>
+          <t>67 900 000</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>100</t>
+          <t>98</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>1 living room(s), 4 bedroom(s), 1  bathroom(s)</t>
+          <t>1 living room(s), 3 bedroom(s), 1  bathroom(s)</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Debrecen, Péchy</t>
+          <t>Debrecen, Vasútoldal</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>https://www.findahome.hu/ingatlanok/4-bedroom-living-room-house-for-rent/</t>
+          <t>https://www.findahome.hu/ingatlanok/elado-csaladi-haz-feszek-lakoparkban/</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>150 000</t>
+          <t>250 000</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>60</t>
+          <t>100</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>1 living room(s), 2 bedroom(s), 1  bathroom(s)</t>
+          <t>1 living room(s), 4 bedroom(s), 1  bathroom(s)</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Debrecen, Sánta Kálmán</t>
+          <t>Debrecen, Péchy</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>https://www.findahome.hu/ingatlanok/debrecen-santa-kalman-street-2-bedroom-living-room-flat-for-rent/</t>
+          <t>https://www.findahome.hu/ingatlanok/4-bedroom-living-room-house-for-rent/</t>
         </is>
       </c>
     </row>
@@ -981,34 +981,34 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>75</t>
+          <t>60</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>1 living room(s), 1 bedroom(s), 1  bathroom(s)</t>
+          <t>1 living room(s), 2 bedroom(s), 1  bathroom(s)</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Debrecen, Bajcsy Zsilinszky</t>
+          <t>Debrecen, Sánta Kálmán</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>https://www.findahome.hu/ingatlanok/city-center-bajcsy-zsilinszky-street-2-spacious-room-flat-for-rent/</t>
+          <t>https://www.findahome.hu/ingatlanok/debrecen-santa-kalman-street-2-bedroom-living-room-flat-for-rent/</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>165 000</t>
+          <t>150 000</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>75</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -1018,19 +1018,19 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Debrecen, Apafi</t>
+          <t>Debrecen, Bajcsy Zsilinszky</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>https://www.findahome.hu/ingatlanok/debrecen-apafi-street-close-to-the-kassai-campus-1-bedroom-living-room-flat-for-rent/</t>
+          <t>https://www.findahome.hu/ingatlanok/city-center-bajcsy-zsilinszky-street-2-spacious-room-flat-for-rent/</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>175 000</t>
+          <t>165 000</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -1045,267 +1045,267 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Debrecen, Honvéd street</t>
+          <t>Debrecen, Apafi</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>https://www.findahome.hu/ingatlanok/cozy-flat-for-rent-close-to-the-city-center/</t>
+          <t>https://www.findahome.hu/ingatlanok/debrecen-apafi-street-close-to-the-kassai-campus-1-bedroom-living-room-flat-for-rent/</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>170 000</t>
+          <t>175 000</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>64</t>
+          <t>50</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>1 living room(s), 2 bedroom(s), 1  bathroom(s)</t>
+          <t>1 living room(s), 1 bedroom(s), 1  bathroom(s)</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Debrecen, Böszörményi street</t>
+          <t>Debrecen, Honvéd street</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>https://www.findahome.hu/ingatlanok/boszormenyi-street-3-separate-room-dining-area-flat-for-rent/</t>
+          <t>https://www.findahome.hu/ingatlanok/cozy-flat-for-rent-close-to-the-city-center/</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>200 000</t>
+          <t>170 000</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>64</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>1 living room(s), 3 bedroom(s), 1  bathroom(s)</t>
+          <t>1 living room(s), 2 bedroom(s), 1  bathroom(s)</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Debrecen , Kassai street</t>
+          <t>Debrecen, Böszörményi street</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>https://www.findahome.hu/ingatlanok/3-bedrooms-livng-room-flat-for-rent-close-to-kassai-campus/</t>
+          <t>https://www.findahome.hu/ingatlanok/boszormenyi-street-3-separate-room-dining-area-flat-for-rent/</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>150 000</t>
+          <t>200 000</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>55</t>
+          <t>80</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>0 living room(s), 2 bedroom(s), 1  bathroom(s)</t>
+          <t>1 living room(s), 3 bedroom(s), 1  bathroom(s)</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>Debrecen, Görgey street</t>
+          <t>Debrecen , Kassai street</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>https://www.findahome.hu/ingatlanok/gorgey-street-near-uni-2-rooms-flat-availabe-for-rent/</t>
+          <t>https://www.findahome.hu/ingatlanok/3-bedrooms-livng-room-flat-for-rent-close-to-kassai-campus/</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>40 900 000</t>
+          <t>150 000</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>52</t>
+          <t>55</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>1 living room(s), 1 bedroom(s), 1  bathroom(s)</t>
+          <t>0 living room(s), 2 bedroom(s), 1  bathroom(s)</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>Debrecen, Egyetem sugárút</t>
+          <t>Debrecen, Görgey street</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>https://www.findahome.hu/ingatlanok/egyetem-sgt-renovated-modern-2-rooms-flat-ideal-2-3-person-for-rent/</t>
+          <t>https://www.findahome.hu/ingatlanok/gorgey-street-near-uni-2-rooms-flat-availabe-for-rent/</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>480 000</t>
+          <t>40 900 000</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>52</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>1 living room(s), 2 bedroom(s), 1  bathroom(s)</t>
+          <t>1 living room(s), 1 bedroom(s), 1  bathroom(s)</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>Debrecen, Garai</t>
+          <t>Debrecen, Egyetem sugárút</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>https://www.findahome.hu/ingatlanok/debrecen-city-center-brand-new-2-bedroom-living-room-apartment-for-rent/</t>
+          <t>https://www.findahome.hu/ingatlanok/egyetem-sgt-renovated-modern-2-rooms-flat-ideal-2-3-person-for-rent/</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>110 000</t>
+          <t>480 000</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>60</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>1 living room(s), 1 bedroom(s), 1  bathroom(s)</t>
+          <t>1 living room(s), 2 bedroom(s), 1  bathroom(s)</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>Debrecen, Bólyai</t>
+          <t>Debrecen, Garai</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>https://www.findahome.hu/ingatlanok/lakas-kiado-a-bolyai-utcan/</t>
+          <t>https://www.findahome.hu/ingatlanok/debrecen-city-center-brand-new-2-bedroom-living-room-apartment-for-rent/</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>450 000</t>
+          <t>110 000</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>175</t>
+          <t>60</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>1 living room(s), 3 bedroom(s), 1  bathroom(s)</t>
+          <t>1 living room(s), 1 bedroom(s), 1  bathroom(s)</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>Debrecen, Fészek lakópark</t>
+          <t>Debrecen, Bólyai</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>https://www.findahome.hu/ingatlanok/debrecen-feszek-lakopark-3-bedroom-living-room-house-for-rent/</t>
+          <t>https://www.findahome.hu/ingatlanok/lakas-kiado-a-bolyai-utcan/</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>37 600 000</t>
+          <t>450 000</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>54</t>
+          <t>175</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>0 living room(s), 2 bedroom(s), 1  bathroom(s)</t>
+          <t>1 living room(s), 3 bedroom(s), 1  bathroom(s)</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>Debrecen, István</t>
+          <t>Debrecen, Fészek lakópark</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>https://www.findahome.hu/ingatlanok/istvan-uton-lakas-elado/</t>
+          <t>https://www.findahome.hu/ingatlanok/debrecen-feszek-lakopark-3-bedroom-living-room-house-for-rent/</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>300 000</t>
+          <t>37 600 000</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>70</t>
+          <t>54</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>1 living room(s), 2 bedroom(s), 1  bathroom(s)</t>
+          <t>0 living room(s), 2 bedroom(s), 1  bathroom(s)</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>Debrecen, Párizsi udvar</t>
+          <t>Debrecen, István</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>https://www.findahome.hu/ingatlanok/debrecen-parizsi-udvar-3-room-70-sqm-flat-for-rent/</t>
+          <t>https://www.findahome.hu/ingatlanok/istvan-uton-lakas-elado/</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>200 000</t>
+          <t>300 000</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>78</t>
+          <t>70</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
@@ -1315,240 +1315,240 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>Debrecen, Hatvani István</t>
+          <t>Debrecen, Párizsi udvar</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>https://www.findahome.hu/ingatlanok/debrecen-hatvani-istvan-street-3-rooms-ac-new-building-flat-for-rent/</t>
+          <t>https://www.findahome.hu/ingatlanok/debrecen-parizsi-udvar-3-room-70-sqm-flat-for-rent/</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>150 000</t>
+          <t>200 000</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>55</t>
+          <t>78</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>1 living room(s), 1 bedroom(s), 1  bathroom(s)</t>
+          <t>1 living room(s), 2 bedroom(s), 1  bathroom(s)</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>Debrecen, Viola</t>
+          <t>Debrecen, Hatvani István</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>https://www.findahome.hu/ingatlanok/debrecen-viola-street-1-bedroom-living-room-flat-fo-rent/</t>
+          <t>https://www.findahome.hu/ingatlanok/debrecen-hatvani-istvan-street-3-rooms-ac-new-building-flat-for-rent/</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>125 000</t>
+          <t>150 000</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>60</t>
+          <t>55</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>1 living room(s), 0 bedroom(s), 1  bathroom(s)</t>
+          <t>1 living room(s), 1 bedroom(s), 1  bathroom(s)</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>Debrecen, Budai Nagy Antal</t>
+          <t>Debrecen, Viola</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>https://www.findahome.hu/ingatlanok/kiado-haz-a-budai-nagy-antal-utcan/</t>
+          <t>https://www.findahome.hu/ingatlanok/debrecen-viola-street-1-bedroom-living-room-flat-fo-rent/</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>235 000</t>
+          <t>125 000</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>43</t>
+          <t>60</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>1 living room(s), 1 bedroom(s), 1  bathroom(s)</t>
+          <t>1 living room(s), 0 bedroom(s), 1  bathroom(s)</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>Debrecen, Dessewffy</t>
+          <t>Debrecen, Budai Nagy Antal</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>https://www.findahome.hu/ingatlanok/kiado-lakas-a-belvaros-kozeleben/</t>
+          <t>https://www.findahome.hu/ingatlanok/kiado-haz-a-budai-nagy-antal-utcan/</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>250 000</t>
+          <t>235 000</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>72</t>
+          <t>43</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>0 living room(s), 3 bedroom(s), 1  bathroom(s)</t>
+          <t>1 living room(s), 1 bedroom(s), 1  bathroom(s)</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>Debrecen, Arany jános</t>
+          <t>Debrecen, Dessewffy</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>https://www.findahome.hu/ingatlanok/city-center-3-separate-room-fully-furnsihed-and-equipped-flat-for-rent/</t>
+          <t>https://www.findahome.hu/ingatlanok/kiado-lakas-a-belvaros-kozeleben/</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>130 000</t>
+          <t>250 000</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>44</t>
+          <t>72</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>1 living room(s), 1 bedroom(s), 1  bathroom(s)</t>
+          <t>0 living room(s), 3 bedroom(s), 1  bathroom(s)</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>Debrecen, Jerikó</t>
+          <t>Debrecen, Arany jános</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>https://www.findahome.hu/ingatlanok/kiado-lakas-jeriko-utcan/</t>
+          <t>https://www.findahome.hu/ingatlanok/city-center-3-separate-room-fully-furnsihed-and-equipped-flat-for-rent/</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>15 000 000</t>
+          <t>130 000</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>60</t>
+          <t>44</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>0 living room(s), 2 bedroom(s), 1  bathroom(s)</t>
+          <t>1 living room(s), 1 bedroom(s), 1  bathroom(s)</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>Debrecen, Virágpor</t>
+          <t>Debrecen, Jerikó</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>https://www.findahome.hu/ingatlanok/elado-haz-gaspar-gyorgy-kert/</t>
+          <t>https://www.findahome.hu/ingatlanok/kiado-lakas-jeriko-utcan/</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>29 500 000</t>
+          <t>15 000 000</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>60</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>0 living room(s), 1 bedroom(s), 1  bathroom(s)</t>
+          <t>0 living room(s), 2 bedroom(s), 1  bathroom(s)</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>Debrecen, Ókút</t>
+          <t>Debrecen, Virágpor</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>https://www.findahome.hu/ingatlanok/elado-lakas-az-egyetem-sugarut-kozeleben/</t>
+          <t>https://www.findahome.hu/ingatlanok/elado-haz-gaspar-gyorgy-kert/</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>43 000 000</t>
+          <t>29 500 000</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>65</t>
+          <t>31</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>1 living room(s), 2 bedroom(s), 1  bathroom(s)</t>
+          <t>0 living room(s), 1 bedroom(s), 1  bathroom(s)</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>Debrecen, Kocsis</t>
+          <t>Debrecen, Ókút</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>https://www.findahome.hu/ingatlanok/elado-kertes-haz-alkalmi-aron/</t>
+          <t>https://www.findahome.hu/ingatlanok/elado-lakas-az-egyetem-sugarut-kozeleben/</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>170 000</t>
+          <t>43 000 000</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>61</t>
+          <t>65</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
@@ -1558,24 +1558,24 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>Debrecen, Csapó</t>
+          <t>Debrecen, Kocsis</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>https://www.findahome.hu/ingatlanok/flat-for-rent-in-csapo-street/</t>
+          <t>https://www.findahome.hu/ingatlanok/elado-kertes-haz-alkalmi-aron/</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>280 000</t>
+          <t>170 000</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>68</t>
+          <t>61</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
@@ -1585,24 +1585,24 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>Debrecen, Rákóczi</t>
+          <t>Debrecen, Csapó</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>https://www.findahome.hu/ingatlanok/flat-for-rent-in-rakoczi-utca/</t>
+          <t>https://www.findahome.hu/ingatlanok/flat-for-rent-in-csapo-street/</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>410 000</t>
+          <t>280 000</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>106</t>
+          <t>68</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
@@ -1612,56 +1612,56 @@
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>Debrecen, Piac</t>
+          <t>Debrecen, Rákóczi</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>https://www.findahome.hu/ingatlanok/debrecen-city-center-piac-street-2-bedroom-living-room-flat-for-rent/</t>
+          <t>https://www.findahome.hu/ingatlanok/flat-for-rent-in-rakoczi-utca/</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>180 000</t>
+          <t>410 000</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>45</t>
+          <t>106</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>1 living room(s), 1 bedroom(s), 1  bathroom(s)</t>
+          <t>1 living room(s), 2 bedroom(s), 1  bathroom(s)</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>Debrecen, Böszörményi</t>
+          <t>Debrecen, Piac</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>https://www.findahome.hu/ingatlanok/flat-for-rent-in-furedi-lakopark/</t>
+          <t>https://www.findahome.hu/ingatlanok/debrecen-city-center-piac-street-2-bedroom-living-room-flat-for-rent/</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>265 000</t>
+          <t>180 000</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>58</t>
+          <t>45</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>0 living room(s), 2 bedroom(s), 1  bathroom(s)</t>
+          <t>1 living room(s), 1 bedroom(s), 1  bathroom(s)</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
@@ -1671,73 +1671,73 @@
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>https://www.findahome.hu/ingatlanok/flat-for-rent-in-boszormenyi-street/</t>
+          <t>https://www.findahome.hu/ingatlanok/flat-for-rent-in-furedi-lakopark/</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>55 000</t>
+          <t>265 000</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>58</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>0 living room(s), 1 bedroom(s), 1  bathroom(s)</t>
+          <t>0 living room(s), 2 bedroom(s), 1  bathroom(s)</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>Debrecen, Jerikó</t>
+          <t>Debrecen, Böszörményi</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>https://www.findahome.hu/ingatlanok/debrecen-jeriko-street-only-room-for-rent/</t>
+          <t>https://www.findahome.hu/ingatlanok/flat-for-rent-in-boszormenyi-street/</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>130 000</t>
+          <t>55 000</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>54</t>
+          <t>20</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>1 living room(s), 1 bedroom(s), 1  bathroom(s)</t>
+          <t>0 living room(s), 1 bedroom(s), 1  bathroom(s)</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>Debrecen, Hatvani István</t>
+          <t>Debrecen, Jerikó</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>https://www.findahome.hu/ingatlanok/debrecen-hatvani-istvan-street-1-bedroom-living-room-flat-for-rent/</t>
+          <t>https://www.findahome.hu/ingatlanok/debrecen-jeriko-street-only-room-for-rent/</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>145 000</t>
+          <t>130 000</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>39</t>
+          <t>54</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
@@ -1747,159 +1747,159 @@
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>Debrecen, Dózsa György</t>
+          <t>Debrecen, Hatvani István</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>https://www.findahome.hu/ingatlanok/flat-for-rent-in-venkert/</t>
+          <t>https://www.findahome.hu/ingatlanok/debrecen-hatvani-istvan-street-1-bedroom-living-room-flat-for-rent/</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>140 000</t>
+          <t>145 000</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>56</t>
+          <t>39</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>0 living room(s), 2 bedroom(s), 1  bathroom(s)</t>
+          <t>1 living room(s), 1 bedroom(s), 1  bathroom(s)</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>Debrecen, Báthori</t>
+          <t>Debrecen, Dózsa György</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>https://www.findahome.hu/ingatlanok/kiado-csaladi-haz-a-bathori-utcan/</t>
+          <t>https://www.findahome.hu/ingatlanok/flat-for-rent-in-venkert/</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>175 000</t>
+          <t>140 000</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>70</t>
+          <t>56</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>1 living room(s), 0 bedroom(s), 2  bathroom(s)</t>
+          <t>0 living room(s), 2 bedroom(s), 1  bathroom(s)</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>Debrecen, Kétmalom</t>
+          <t>Debrecen, Báthori</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>https://www.findahome.hu/ingatlanok/flat-for-rent-in-ketmalom-utca/</t>
+          <t>https://www.findahome.hu/ingatlanok/kiado-csaladi-haz-a-bathori-utcan/</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>150 000</t>
+          <t>175 000</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>70</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>0 living room(s), 2 bedroom(s), 1  bathroom(s)</t>
+          <t>1 living room(s), 0 bedroom(s), 2  bathroom(s)</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>, Ispotály</t>
+          <t>Debrecen, Kétmalom</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>https://www.findahome.hu/ingatlanok/kiado-lakas-az-ispotaly-utcan/</t>
+          <t>https://www.findahome.hu/ingatlanok/flat-for-rent-in-ketmalom-utca/</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>275 000</t>
+          <t>150 000</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>50</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>1 living room(s), 1 bedroom(s), 1  bathroom(s)</t>
+          <t>0 living room(s), 2 bedroom(s), 1  bathroom(s)</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>Debrecen, Hatvan utcai kert</t>
+          <t>, Ispotály</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>https://www.findahome.hu/ingatlanok/flat-for-rent-in-hatvan-utcai-kert/</t>
+          <t>https://www.findahome.hu/ingatlanok/kiado-lakas-az-ispotaly-utcan/</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>150 000</t>
+          <t>275 000</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>62</t>
+          <t>80</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>0 living room(s), 2 bedroom(s), 1  bathroom(s)</t>
+          <t>1 living room(s), 1 bedroom(s), 1  bathroom(s)</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>Debrecen, Poroszlay</t>
+          <t>Debrecen, Hatvan utcai kert</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>https://www.findahome.hu/ingatlanok/flat-for-rent-in-poroszlay-street/</t>
+          <t>https://www.findahome.hu/ingatlanok/flat-for-rent-in-hatvan-utcai-kert/</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>120 000</t>
+          <t>150 000</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>53</t>
+          <t>62</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
@@ -1909,19 +1909,19 @@
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>Debrecen, Hadházi</t>
+          <t>Debrecen, Poroszlay</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>https://www.findahome.hu/ingatlanok/flat-for-rent-in-hadhazi-street/</t>
+          <t>https://www.findahome.hu/ingatlanok/flat-for-rent-in-poroszlay-street/</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>160 000</t>
+          <t>120 000</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
@@ -1936,186 +1936,186 @@
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>Debrecen, Teleki</t>
+          <t>Debrecen, Hadházi</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>https://www.findahome.hu/ingatlanok/flat-for-rent-in-teleki-street/</t>
+          <t>https://www.findahome.hu/ingatlanok/flat-for-rent-in-hadhazi-street/</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>220 000</t>
+          <t>160 000</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>55</t>
+          <t>53</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>1 living room(s), 1 bedroom(s), 1  bathroom(s)</t>
+          <t>0 living room(s), 2 bedroom(s), 1  bathroom(s)</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>Debrecen, Bethlen</t>
+          <t>Debrecen, Teleki</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>https://www.findahome.hu/ingatlanok/luxury-apartment-for-rent-in-the-city-center/</t>
+          <t>https://www.findahome.hu/ingatlanok/flat-for-rent-in-teleki-street/</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>145 000</t>
+          <t>220 000</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>58</t>
+          <t>55</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>1 living room(s), 2 bedroom(s), 1  bathroom(s)</t>
+          <t>1 living room(s), 1 bedroom(s), 1  bathroom(s)</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>Debrecen, Klaipeda</t>
+          <t>Debrecen, Bethlen</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>https://www.findahome.hu/ingatlanok/flat-for-rent-on-klaipeda-street/</t>
+          <t>https://www.findahome.hu/ingatlanok/luxury-apartment-for-rent-in-the-city-center/</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>34 900 000</t>
+          <t>145 000</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>53</t>
+          <t>58</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>0 living room(s), 2 bedroom(s), 1  bathroom(s)</t>
+          <t>1 living room(s), 2 bedroom(s), 1  bathroom(s)</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>Debrecen, Füredi</t>
+          <t>Debrecen, Klaipeda</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>https://www.findahome.hu/ingatlanok/elado-lakas-a-furedi-uton/</t>
+          <t>https://www.findahome.hu/ingatlanok/flat-for-rent-on-klaipeda-street/</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>185 000</t>
+          <t>34 900 000</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>42</t>
+          <t>53</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>1 living room(s), 1 bedroom(s), 1  bathroom(s)</t>
+          <t>0 living room(s), 2 bedroom(s), 1  bathroom(s)</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>Debrecen, Nap</t>
+          <t>Debrecen, Füredi</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>https://www.findahome.hu/ingatlanok/apartment-for-rent-on-nap-utca/</t>
+          <t>https://www.findahome.hu/ingatlanok/elado-lakas-a-furedi-uton/</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>140 000</t>
+          <t>185 000</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>44</t>
+          <t>42</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>1 living room(s), 2 bedroom(s), 0  bathroom(s)</t>
+          <t>1 living room(s), 1 bedroom(s), 1  bathroom(s)</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>Debrecen, Darabos</t>
+          <t>Debrecen, Nap</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>https://www.findahome.hu/ingatlanok/debrecen-city-center-1-bedroom-living-room-flat-for-rent/</t>
+          <t>https://www.findahome.hu/ingatlanok/apartment-for-rent-on-nap-utca/</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>250 000</t>
+          <t>140 000</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>114</t>
+          <t>44</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>1 living room(s), 3 bedroom(s), 1  bathroom(s)</t>
+          <t>1 living room(s), 2 bedroom(s), 0  bathroom(s)</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>Debrecen, Simonffy</t>
+          <t>Debrecen, Darabos</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>https://www.findahome.hu/ingatlanok/debrecen-city-center-simonffy-street-3-bedroom-living-oom-flat-for-rent/</t>
+          <t>https://www.findahome.hu/ingatlanok/debrecen-city-center-1-bedroom-living-room-flat-for-rent/</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>600 000</t>
+          <t>250 000</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>93</t>
+          <t>114</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
@@ -2125,29 +2125,29 @@
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>Debrecen, Bajcsy-Zsilinszky</t>
+          <t>Debrecen, Simonffy</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>https://www.findahome.hu/ingatlanok/luxury-apartment-for-rent/</t>
+          <t>https://www.findahome.hu/ingatlanok/debrecen-city-center-simonffy-street-3-bedroom-living-oom-flat-for-rent/</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>150 000</t>
+          <t>600 000</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>75</t>
+          <t>93</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>2 living room(s), 0 bedroom(s), 1  bathroom(s)</t>
+          <t>1 living room(s), 3 bedroom(s), 1  bathroom(s)</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
@@ -2157,7 +2157,7 @@
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>https://www.findahome.hu/ingatlanok/office-for-rent/</t>
+          <t>https://www.findahome.hu/ingatlanok/luxury-apartment-for-rent/</t>
         </is>
       </c>
     </row>
@@ -2169,34 +2169,34 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>63</t>
+          <t>75</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>1 living room(s), 2 bedroom(s), 1  bathroom(s)</t>
+          <t>2 living room(s), 0 bedroom(s), 1  bathroom(s)</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>Debrecen, Derék</t>
+          <t>Debrecen, Bajcsy-Zsilinszky</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>https://www.findahome.hu/ingatlanok/flat-for-rent-in-tocovolgy/</t>
+          <t>https://www.findahome.hu/ingatlanok/office-for-rent/</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>160 000</t>
+          <t>150 000</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>73</t>
+          <t>63</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
@@ -2206,51 +2206,51 @@
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>Debrecen, Zöldfa</t>
+          <t>Debrecen, Derék</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>https://www.findahome.hu/ingatlanok/zoldfa-utcan-butorozatlan-lakas-kiado/</t>
+          <t>https://www.findahome.hu/ingatlanok/flat-for-rent-in-tocovolgy/</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>110 000</t>
+          <t>160 000</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>56</t>
+          <t>73</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>0 living room(s), 2 bedroom(s), 1  bathroom(s)</t>
+          <t>1 living room(s), 2 bedroom(s), 1  bathroom(s)</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>Debrecen, Karácsony György</t>
+          <t>Debrecen, Zöldfa</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>https://www.findahome.hu/ingatlanok/flat-for-rent-on-karacsony-gyorgy-street/</t>
+          <t>https://www.findahome.hu/ingatlanok/zoldfa-utcan-butorozatlan-lakas-kiado/</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>120 000</t>
+          <t>110 000</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>52</t>
+          <t>56</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
@@ -2260,66 +2260,66 @@
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>Debrecen, Mata János</t>
+          <t>Debrecen, Karácsony György</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>https://www.findahome.hu/ingatlanok/flat-for-rent-mata-janos-utca/</t>
+          <t>https://www.findahome.hu/ingatlanok/flat-for-rent-on-karacsony-gyorgy-street/</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>130 000</t>
+          <t>120 000</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>52</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>0 living room(s), 1 bedroom(s), 1  bathroom(s)</t>
+          <t>0 living room(s), 2 bedroom(s), 1  bathroom(s)</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>Debrecen, Halköz</t>
+          <t>Debrecen, Mata János</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>https://www.findahome.hu/ingatlanok/in-the-middle-of-the-city-center-modern-studio-flat-for-rent/</t>
+          <t>https://www.findahome.hu/ingatlanok/flat-for-rent-mata-janos-utca/</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>69 900 000</t>
+          <t>130 000</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>98</t>
+          <t>31</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>1 living room(s), 3 bedroom(s), 1  bathroom(s)</t>
+          <t>0 living room(s), 1 bedroom(s), 1  bathroom(s)</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>Debrecen, Vasútoldal</t>
+          <t>Debrecen, Halköz</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>https://www.findahome.hu/ingatlanok/elado-csaladi-haz-feszek-lakoparkban/</t>
+          <t>https://www.findahome.hu/ingatlanok/in-the-middle-of-the-city-center-modern-studio-flat-for-rent/</t>
         </is>
       </c>
     </row>
@@ -19462,35 +19462,31 @@
     <row r="723">
       <c r="A723" t="inlineStr">
         <is>
-          <t>270 000</t>
+          <t>400 000</t>
         </is>
       </c>
       <c r="B723" t="inlineStr">
         <is>
-          <t>72</t>
-        </is>
-      </c>
-      <c r="C723" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
+          <t>214</t>
+        </is>
+      </c>
+      <c r="C723" t="inlineStr"/>
       <c r="D723" t="inlineStr"/>
       <c r="E723" t="inlineStr">
         <is>
-          <t>https://www.greatforest.hu/property/99593-debrecen-flat</t>
+          <t>https://www.greatforest.hu/property/98597-debrecen-eastern-western-industrial-area-industrial-building</t>
         </is>
       </c>
     </row>
     <row r="724">
       <c r="A724" t="inlineStr">
         <is>
-          <t>280 000</t>
+          <t>200 000</t>
         </is>
       </c>
       <c r="B724" t="inlineStr">
         <is>
-          <t>73</t>
+          <t>100</t>
         </is>
       </c>
       <c r="C724" t="inlineStr">
@@ -19501,168 +19497,168 @@
       <c r="D724" t="inlineStr"/>
       <c r="E724" t="inlineStr">
         <is>
-          <t>https://www.greatforest.hu/property/99590-debrecen-flat</t>
+          <t>https://www.greatforest.hu/property/20816-debrecen-city-north-part-of-a-house</t>
         </is>
       </c>
     </row>
     <row r="725">
       <c r="A725" t="inlineStr">
         <is>
-          <t>230 000</t>
+          <t>375 000</t>
         </is>
       </c>
       <c r="B725" t="inlineStr">
         <is>
-          <t>64</t>
+          <t>82</t>
         </is>
       </c>
       <c r="C725" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="D725" t="inlineStr"/>
       <c r="E725" t="inlineStr">
         <is>
-          <t>https://www.greatforest.hu/property/99587-debrecen-flat</t>
+          <t>https://www.greatforest.hu/property/96519-debrecen-greatforest-area-flat</t>
         </is>
       </c>
     </row>
     <row r="726">
       <c r="A726" t="inlineStr">
         <is>
-          <t>250 000</t>
+          <t>490 000</t>
         </is>
       </c>
       <c r="B726" t="inlineStr">
         <is>
-          <t>91</t>
+          <t>288</t>
         </is>
       </c>
       <c r="C726" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="D726" t="inlineStr"/>
       <c r="E726" t="inlineStr">
         <is>
-          <t>https://www.greatforest.hu/property/99332-debrecen-bem-square-office-in-office-building</t>
+          <t>https://www.greatforest.hu/property/100132-debrecen-close-to-bem-square-family-house</t>
         </is>
       </c>
     </row>
     <row r="727">
       <c r="A727" t="inlineStr">
         <is>
-          <t>220 000</t>
+          <t>290 000</t>
         </is>
       </c>
       <c r="B727" t="inlineStr">
         <is>
-          <t>38</t>
+          <t>136</t>
         </is>
       </c>
       <c r="C727" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D727" t="inlineStr"/>
       <c r="E727" t="inlineStr">
         <is>
-          <t>https://www.greatforest.hu/property/99213-debrecen-close-to-main-campus-flat</t>
+          <t>https://www.greatforest.hu/property/65827-debrecen-close-to-bem-square-part-of-a-house</t>
         </is>
       </c>
     </row>
     <row r="728">
       <c r="A728" t="inlineStr">
         <is>
-          <t>350 000</t>
+          <t>130 000</t>
         </is>
       </c>
       <c r="B728" t="inlineStr">
         <is>
-          <t>118</t>
+          <t>45</t>
         </is>
       </c>
       <c r="C728" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D728" t="inlineStr"/>
       <c r="E728" t="inlineStr">
         <is>
-          <t>https://www.greatforest.hu/property/89979-debrecen-city-center-office-not-in-office-building</t>
+          <t>https://www.greatforest.hu/property/84773-debrecen-close-to-plaza-office-not-in-office-building</t>
         </is>
       </c>
     </row>
     <row r="729">
       <c r="A729" t="inlineStr">
         <is>
-          <t>595 000</t>
+          <t>300 000</t>
         </is>
       </c>
       <c r="B729" t="inlineStr">
         <is>
-          <t>92</t>
+          <t>73</t>
         </is>
       </c>
       <c r="C729" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="D729" t="inlineStr"/>
       <c r="E729" t="inlineStr">
         <is>
-          <t>https://www.greatforest.hu/property/36059-debrecen-kassai-campus-area-flat</t>
+          <t>https://www.greatforest.hu/property/99598-debrecen-flat</t>
         </is>
       </c>
     </row>
     <row r="730">
       <c r="A730" t="inlineStr">
         <is>
-          <t>300 000</t>
+          <t>230 000</t>
         </is>
       </c>
       <c r="B730" t="inlineStr">
         <is>
-          <t>89</t>
+          <t>64</t>
         </is>
       </c>
       <c r="C730" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D730" t="inlineStr"/>
       <c r="E730" t="inlineStr">
         <is>
-          <t>https://www.greatforest.hu/property/69432-debrecen-greatforest-area-flat</t>
+          <t>https://www.greatforest.hu/property/99597-debrecen-flat</t>
         </is>
       </c>
     </row>
     <row r="731">
       <c r="A731" t="inlineStr">
         <is>
-          <t>150 000</t>
+          <t>280 000</t>
         </is>
       </c>
       <c r="B731" t="inlineStr">
         <is>
-          <t>63</t>
+          <t>88</t>
         </is>
       </c>
       <c r="C731" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>4</t>
         </is>
       </c>
       <c r="D731" t="inlineStr"/>
       <c r="E731" t="inlineStr">
         <is>
-          <t>https://www.greatforest.hu/property/65443-debrecen-city-west-office-in-office-building</t>
+          <t>https://www.greatforest.hu/property/99595-debrecen-flat</t>
         </is>
       </c>
     </row>
@@ -21165,12 +21161,12 @@
     <row r="808">
       <c r="A808" t="inlineStr">
         <is>
-          <t>170 000</t>
+          <t>140 000</t>
         </is>
       </c>
       <c r="B808" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>38</t>
         </is>
       </c>
       <c r="C808" t="inlineStr">
@@ -21180,78 +21176,78 @@
       </c>
       <c r="D808" t="inlineStr">
         <is>
-          <t>Debrecen, Görgey utca</t>
+          <t>Debrecen, Batthyány utca</t>
         </is>
       </c>
       <c r="E808" t="inlineStr">
         <is>
-          <t>https://debrecenrent.hu/for-rent/flat/debrecen-gorgey-utca/219854/</t>
+          <t>https://debrecenrent.hu/for-rent/flat/debrecen-batthyany-utca/219726/</t>
         </is>
       </c>
     </row>
     <row r="809">
       <c r="A809" t="inlineStr">
         <is>
-          <t>160 000</t>
+          <t>170 000</t>
         </is>
       </c>
       <c r="B809" t="inlineStr">
         <is>
-          <t>70</t>
+          <t>51</t>
         </is>
       </c>
       <c r="C809" t="inlineStr">
         <is>
-          <t>0 Bedrooms, 1 Bathrooms</t>
+          <t>1 Bedrooms, 1 Bathrooms</t>
         </is>
       </c>
       <c r="D809" t="inlineStr">
         <is>
-          <t>Debrecen, Bem tér</t>
+          <t>Debrecen, Görgey utca</t>
         </is>
       </c>
       <c r="E809" t="inlineStr">
         <is>
-          <t>https://debrecenrent.hu/for-rent/flat/debrecen-bem-ter/207975/</t>
+          <t>https://debrecenrent.hu/for-rent/flat/debrecen-gorgey-utca/219854/</t>
         </is>
       </c>
     </row>
     <row r="810">
       <c r="A810" t="inlineStr">
         <is>
-          <t>170 000</t>
+          <t>160 000</t>
         </is>
       </c>
       <c r="B810" t="inlineStr">
         <is>
-          <t>54</t>
+          <t>70</t>
         </is>
       </c>
       <c r="C810" t="inlineStr">
         <is>
-          <t>1 Bedrooms, 1 Bathrooms</t>
+          <t>0 Bedrooms, 1 Bathrooms</t>
         </is>
       </c>
       <c r="D810" t="inlineStr">
         <is>
-          <t>Debrecen, Cívis utca</t>
+          <t>Debrecen, Bem tér</t>
         </is>
       </c>
       <c r="E810" t="inlineStr">
         <is>
-          <t>https://debrecenrent.hu/for-rent/flat/debrecen-civis-utca/219199/</t>
+          <t>https://debrecenrent.hu/for-rent/flat/debrecen-bem-ter/207975/</t>
         </is>
       </c>
     </row>
     <row r="811">
       <c r="A811" t="inlineStr">
         <is>
-          <t>220 000</t>
+          <t>170 000</t>
         </is>
       </c>
       <c r="B811" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>54</t>
         </is>
       </c>
       <c r="C811" t="inlineStr">
@@ -21261,24 +21257,24 @@
       </c>
       <c r="D811" t="inlineStr">
         <is>
-          <t>Debrecen, Rózsahegy utca</t>
+          <t>Debrecen, Cívis utca</t>
         </is>
       </c>
       <c r="E811" t="inlineStr">
         <is>
-          <t>https://debrecenrent.hu/for-rent/flat/debrecen-rozsahegy-utca/209110/</t>
+          <t>https://debrecenrent.hu/for-rent/flat/debrecen-civis-utca/219199/</t>
         </is>
       </c>
     </row>
     <row r="812">
       <c r="A812" t="inlineStr">
         <is>
-          <t>170 000</t>
+          <t>220 000</t>
         </is>
       </c>
       <c r="B812" t="inlineStr">
         <is>
-          <t>56</t>
+          <t>50</t>
         </is>
       </c>
       <c r="C812" t="inlineStr">
@@ -21288,24 +21284,24 @@
       </c>
       <c r="D812" t="inlineStr">
         <is>
-          <t>Debrecen, Széchenyi utca</t>
+          <t>Debrecen, Rózsahegy utca</t>
         </is>
       </c>
       <c r="E812" t="inlineStr">
         <is>
-          <t>https://debrecenrent.hu/for-rent/flat/debrecen-szechenyi-utca/219233/</t>
+          <t>https://debrecenrent.hu/for-rent/flat/debrecen-rozsahegy-utca/209110/</t>
         </is>
       </c>
     </row>
     <row r="813">
       <c r="A813" t="inlineStr">
         <is>
-          <t>180 000</t>
+          <t>170 000</t>
         </is>
       </c>
       <c r="B813" t="inlineStr">
         <is>
-          <t>78</t>
+          <t>56</t>
         </is>
       </c>
       <c r="C813" t="inlineStr">
@@ -21315,24 +21311,24 @@
       </c>
       <c r="D813" t="inlineStr">
         <is>
-          <t>Debrecen, Nagyerdei körút</t>
+          <t>Debrecen, Széchenyi utca</t>
         </is>
       </c>
       <c r="E813" t="inlineStr">
         <is>
-          <t>https://debrecenrent.hu/for-rent/flat/debrecen-nagyerdei-korut/199999/</t>
+          <t>https://debrecenrent.hu/for-rent/flat/debrecen-szechenyi-utca/219233/</t>
         </is>
       </c>
     </row>
     <row r="814">
       <c r="A814" t="inlineStr">
         <is>
-          <t>140 000</t>
+          <t>180 000</t>
         </is>
       </c>
       <c r="B814" t="inlineStr">
         <is>
-          <t>41</t>
+          <t>78</t>
         </is>
       </c>
       <c r="C814" t="inlineStr">
@@ -21342,24 +21338,24 @@
       </c>
       <c r="D814" t="inlineStr">
         <is>
-          <t>Debrecen, Kossuth utca</t>
+          <t>Debrecen, Nagyerdei körút</t>
         </is>
       </c>
       <c r="E814" t="inlineStr">
         <is>
-          <t>https://debrecenrent.hu/for-rent/flat/debrecen-kossuth-utca/219810/</t>
+          <t>https://debrecenrent.hu/for-rent/flat/debrecen-nagyerdei-korut/199999/</t>
         </is>
       </c>
     </row>
     <row r="815">
       <c r="A815" t="inlineStr">
         <is>
-          <t>185 000</t>
+          <t>140 000</t>
         </is>
       </c>
       <c r="B815" t="inlineStr">
         <is>
-          <t>54</t>
+          <t>41</t>
         </is>
       </c>
       <c r="C815" t="inlineStr">
@@ -21369,24 +21365,24 @@
       </c>
       <c r="D815" t="inlineStr">
         <is>
-          <t>Debrecen, Görgey utca</t>
+          <t>Debrecen, Kossuth utca</t>
         </is>
       </c>
       <c r="E815" t="inlineStr">
         <is>
-          <t>https://debrecenrent.hu/for-rent/flat/debrecen-gorgey-utca/219815/</t>
+          <t>https://debrecenrent.hu/for-rent/flat/debrecen-kossuth-utca/219810/</t>
         </is>
       </c>
     </row>
     <row r="816">
       <c r="A816" t="inlineStr">
         <is>
-          <t>120 000</t>
+          <t>185 000</t>
         </is>
       </c>
       <c r="B816" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>54</t>
         </is>
       </c>
       <c r="C816" t="inlineStr">
@@ -21396,24 +21392,24 @@
       </c>
       <c r="D816" t="inlineStr">
         <is>
-          <t>Debrecen, Vezér utca</t>
+          <t>Debrecen, Görgey utca</t>
         </is>
       </c>
       <c r="E816" t="inlineStr">
         <is>
-          <t>https://debrecenrent.hu/for-rent/flat/debrecen-vezer-utca/219797/</t>
+          <t>https://debrecenrent.hu/for-rent/flat/debrecen-gorgey-utca/219815/</t>
         </is>
       </c>
     </row>
     <row r="817">
       <c r="A817" t="inlineStr">
         <is>
-          <t>140 000</t>
+          <t>120 000</t>
         </is>
       </c>
       <c r="B817" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>25</t>
         </is>
       </c>
       <c r="C817" t="inlineStr">
@@ -21423,105 +21419,105 @@
       </c>
       <c r="D817" t="inlineStr">
         <is>
-          <t>Debrecen, Bem tér</t>
+          <t>Debrecen, Vezér utca</t>
         </is>
       </c>
       <c r="E817" t="inlineStr">
         <is>
-          <t>https://debrecenrent.hu/for-rent/flat/debrecen-bem-ter/169681/</t>
+          <t>https://debrecenrent.hu/for-rent/flat/debrecen-vezer-utca/219797/</t>
         </is>
       </c>
     </row>
     <row r="818">
       <c r="A818" t="inlineStr">
         <is>
-          <t>280 000</t>
+          <t>140 000</t>
         </is>
       </c>
       <c r="B818" t="inlineStr">
         <is>
-          <t>92</t>
+          <t>35</t>
         </is>
       </c>
       <c r="C818" t="inlineStr">
         <is>
-          <t>3 Bedrooms, 1 Bathrooms</t>
+          <t>1 Bedrooms, 1 Bathrooms</t>
         </is>
       </c>
       <c r="D818" t="inlineStr">
         <is>
-          <t>Debrecen, Csapó utca</t>
+          <t>Debrecen, Bem tér</t>
         </is>
       </c>
       <c r="E818" t="inlineStr">
         <is>
-          <t>https://debrecenrent.hu/for-rent/flat/debrecen-csapo-utca/206077/</t>
+          <t>https://debrecenrent.hu/for-rent/flat/debrecen-bem-ter/169681/</t>
         </is>
       </c>
     </row>
     <row r="819">
       <c r="A819" t="inlineStr">
         <is>
-          <t>270 000</t>
+          <t>280 000</t>
         </is>
       </c>
       <c r="B819" t="inlineStr">
         <is>
-          <t>120</t>
+          <t>92</t>
         </is>
       </c>
       <c r="C819" t="inlineStr">
         <is>
-          <t>3 Bedrooms, 2 Bathrooms</t>
+          <t>3 Bedrooms, 1 Bathrooms</t>
         </is>
       </c>
       <c r="D819" t="inlineStr">
         <is>
-          <t>Debrecen, Bartók Béla út</t>
+          <t>Debrecen, Csapó utca</t>
         </is>
       </c>
       <c r="E819" t="inlineStr">
         <is>
-          <t>https://debrecenrent.hu/for-rent/house/debrecen-bartok-bela-ut/163569/</t>
+          <t>https://debrecenrent.hu/for-rent/flat/debrecen-csapo-utca/206077/</t>
         </is>
       </c>
     </row>
     <row r="820">
       <c r="A820" t="inlineStr">
         <is>
-          <t>119 000</t>
+          <t>270 000</t>
         </is>
       </c>
       <c r="B820" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>120</t>
         </is>
       </c>
       <c r="C820" t="inlineStr">
         <is>
-          <t>1 Bedrooms, 1 Bathrooms</t>
+          <t>3 Bedrooms, 2 Bathrooms</t>
         </is>
       </c>
       <c r="D820" t="inlineStr">
         <is>
-          <t>Debrecen, Kassai út</t>
+          <t>Debrecen, Bartók Béla út</t>
         </is>
       </c>
       <c r="E820" t="inlineStr">
         <is>
-          <t>https://debrecenrent.hu/for-rent/house/debrecen-kassai-ut/176619/</t>
+          <t>https://debrecenrent.hu/for-rent/house/debrecen-bartok-bela-ut/163569/</t>
         </is>
       </c>
     </row>
     <row r="821">
       <c r="A821" t="inlineStr">
         <is>
-          <t>140 000</t>
+          <t>119 000</t>
         </is>
       </c>
       <c r="B821" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>23</t>
         </is>
       </c>
       <c r="C821" t="inlineStr">
@@ -21531,24 +21527,24 @@
       </c>
       <c r="D821" t="inlineStr">
         <is>
-          <t>Debrecen, Csapó utca</t>
+          <t>Debrecen, Kassai út</t>
         </is>
       </c>
       <c r="E821" t="inlineStr">
         <is>
-          <t>https://debrecenrent.hu/for-rent/flat/debrecen-csapo-utca/212757/</t>
+          <t>https://debrecenrent.hu/for-rent/house/debrecen-kassai-ut/176619/</t>
         </is>
       </c>
     </row>
     <row r="822">
       <c r="A822" t="inlineStr">
         <is>
-          <t>115 000</t>
+          <t>140 000</t>
         </is>
       </c>
       <c r="B822" t="inlineStr">
         <is>
-          <t>28</t>
+          <t>35</t>
         </is>
       </c>
       <c r="C822" t="inlineStr">
@@ -21558,24 +21554,24 @@
       </c>
       <c r="D822" t="inlineStr">
         <is>
-          <t>Debrecen, Faraktár utca</t>
+          <t>Debrecen, Csapó utca</t>
         </is>
       </c>
       <c r="E822" t="inlineStr">
         <is>
-          <t>https://debrecenrent.hu/for-rent/flat/debrecen-faraktar-utca/219628/</t>
+          <t>https://debrecenrent.hu/for-rent/flat/debrecen-csapo-utca/212757/</t>
         </is>
       </c>
     </row>
     <row r="823">
       <c r="A823" t="inlineStr">
         <is>
-          <t>490 000</t>
+          <t>115 000</t>
         </is>
       </c>
       <c r="B823" t="inlineStr">
         <is>
-          <t>52</t>
+          <t>28</t>
         </is>
       </c>
       <c r="C823" t="inlineStr">
@@ -21585,56 +21581,56 @@
       </c>
       <c r="D823" t="inlineStr">
         <is>
-          <t>Debrecen, Mikszáth Kálmán utca</t>
+          <t>Debrecen, Faraktár utca</t>
         </is>
       </c>
       <c r="E823" t="inlineStr">
         <is>
-          <t>https://debrecenrent.hu/for-rent/flat/debrecen-mikszath-kalman-utca/216981/</t>
+          <t>https://debrecenrent.hu/for-rent/flat/debrecen-faraktar-utca/219628/</t>
         </is>
       </c>
     </row>
     <row r="824">
       <c r="A824" t="inlineStr">
         <is>
-          <t>280 000</t>
+          <t>490 000</t>
         </is>
       </c>
       <c r="B824" t="inlineStr">
         <is>
-          <t>68</t>
+          <t>52</t>
         </is>
       </c>
       <c r="C824" t="inlineStr">
         <is>
-          <t>2 Bedrooms, 1 Bathrooms</t>
+          <t>1 Bedrooms, 1 Bathrooms</t>
         </is>
       </c>
       <c r="D824" t="inlineStr">
         <is>
-          <t>Debrecen, Csapó utca</t>
+          <t>Debrecen, Mikszáth Kálmán utca</t>
         </is>
       </c>
       <c r="E824" t="inlineStr">
         <is>
-          <t>https://debrecenrent.hu/for-rent/flat/debrecen-csapo-utca/218738/</t>
+          <t>https://debrecenrent.hu/for-rent/flat/debrecen-mikszath-kalman-utca/216981/</t>
         </is>
       </c>
     </row>
     <row r="825">
       <c r="A825" t="inlineStr">
         <is>
-          <t>390 000</t>
+          <t>280 000</t>
         </is>
       </c>
       <c r="B825" t="inlineStr">
         <is>
-          <t>115</t>
+          <t>68</t>
         </is>
       </c>
       <c r="C825" t="inlineStr">
         <is>
-          <t>3 Bedrooms, 1 Bathrooms</t>
+          <t>2 Bedrooms, 1 Bathrooms</t>
         </is>
       </c>
       <c r="D825" t="inlineStr">
@@ -21644,34 +21640,34 @@
       </c>
       <c r="E825" t="inlineStr">
         <is>
-          <t>https://debrecenrent.hu/for-rent/flat/debrecen-csapo-utca/219320/</t>
+          <t>https://debrecenrent.hu/for-rent/flat/debrecen-csapo-utca/218738/</t>
         </is>
       </c>
     </row>
     <row r="826">
       <c r="A826" t="inlineStr">
         <is>
-          <t>140 000</t>
+          <t>390 000</t>
         </is>
       </c>
       <c r="B826" t="inlineStr">
         <is>
-          <t>38</t>
+          <t>115</t>
         </is>
       </c>
       <c r="C826" t="inlineStr">
         <is>
-          <t>1 Bedrooms, 1 Bathrooms</t>
+          <t>3 Bedrooms, 1 Bathrooms</t>
         </is>
       </c>
       <c r="D826" t="inlineStr">
         <is>
-          <t>Debrecen, Batthyány utca</t>
+          <t>Debrecen, Csapó utca</t>
         </is>
       </c>
       <c r="E826" t="inlineStr">
         <is>
-          <t>https://debrecenrent.hu/for-rent/flat/debrecen-batthyany-utca/219726/</t>
+          <t>https://debrecenrent.hu/for-rent/flat/debrecen-csapo-utca/219320/</t>
         </is>
       </c>
     </row>
@@ -22083,12 +22079,12 @@
     <row r="842">
       <c r="A842" t="inlineStr">
         <is>
-          <t>130 000</t>
+          <t>240 000</t>
         </is>
       </c>
       <c r="B842" t="inlineStr">
         <is>
-          <t>45</t>
+          <t>54</t>
         </is>
       </c>
       <c r="C842" t="inlineStr">
@@ -22098,78 +22094,78 @@
       </c>
       <c r="D842" t="inlineStr">
         <is>
-          <t>Debrecen, Honvéd utca</t>
+          <t>Debrecen, Nagy Lajos király tér</t>
         </is>
       </c>
       <c r="E842" t="inlineStr">
         <is>
-          <t>https://debrecenrent.hu/for-rent/flat/debrecen-honved-utca/192083/</t>
+          <t>https://debrecenrent.hu/for-rent/flat/debrecen-nagy-lajos-kiraly-ter/218134/</t>
         </is>
       </c>
     </row>
     <row r="843">
       <c r="A843" t="inlineStr">
         <is>
-          <t>240 000</t>
+          <t>350 000</t>
         </is>
       </c>
       <c r="B843" t="inlineStr">
         <is>
-          <t>54</t>
+          <t>130</t>
         </is>
       </c>
       <c r="C843" t="inlineStr">
         <is>
-          <t>1 Bedrooms, 1 Bathrooms</t>
+          <t>4 Bedrooms, 2 Bathrooms</t>
         </is>
       </c>
       <c r="D843" t="inlineStr">
         <is>
-          <t>Debrecen, Nagy Lajos király tér</t>
+          <t>Debrecen, Akadémia utca</t>
         </is>
       </c>
       <c r="E843" t="inlineStr">
         <is>
-          <t>https://debrecenrent.hu/for-rent/flat/debrecen-nagy-lajos-kiraly-ter/218134/</t>
+          <t>https://debrecenrent.hu/for-rent/house/debrecen-akademia-utca/217736/</t>
         </is>
       </c>
     </row>
     <row r="844">
       <c r="A844" t="inlineStr">
         <is>
-          <t>350 000</t>
+          <t>190 000</t>
         </is>
       </c>
       <c r="B844" t="inlineStr">
         <is>
-          <t>130</t>
+          <t>65</t>
         </is>
       </c>
       <c r="C844" t="inlineStr">
         <is>
-          <t>4 Bedrooms, 2 Bathrooms</t>
+          <t>1 Bedrooms, 1 Bathrooms</t>
         </is>
       </c>
       <c r="D844" t="inlineStr">
         <is>
-          <t>Debrecen, Akadémia utca</t>
+          <t>Debrecen, Szoboszlói út</t>
         </is>
       </c>
       <c r="E844" t="inlineStr">
         <is>
-          <t>https://debrecenrent.hu/for-rent/house/debrecen-akademia-utca/217736/</t>
+          <t>https://debrecenrent.hu/for-rent/flat/debrecen-szoboszloi-ut/204247/</t>
         </is>
       </c>
     </row>
     <row r="845">
       <c r="A845" t="inlineStr">
         <is>
-          <t>190 000</t>
+          <t>200 000</t>
         </is>
       </c>
       <c r="B845" t="inlineStr">
         <is>
-          <t>65</t>
+          <t>55</t>
         </is>
       </c>
       <c r="C845" t="inlineStr">
@@ -22179,24 +22175,24 @@
       </c>
       <c r="D845" t="inlineStr">
         <is>
-          <t>Debrecen, Szoboszlói út</t>
+          <t>Debrecen, Péterfia utca</t>
         </is>
       </c>
       <c r="E845" t="inlineStr">
         <is>
-          <t>https://debrecenrent.hu/for-rent/flat/debrecen-szoboszloi-ut/204247/</t>
+          <t>https://debrecenrent.hu/for-rent/flat/debrecen-peterfia-utca/210104/</t>
         </is>
       </c>
     </row>
     <row r="846">
       <c r="A846" t="inlineStr">
         <is>
-          <t>200 000</t>
+          <t>170 000</t>
         </is>
       </c>
       <c r="B846" t="inlineStr">
         <is>
-          <t>55</t>
+          <t>17</t>
         </is>
       </c>
       <c r="C846" t="inlineStr">
@@ -22211,19 +22207,19 @@
       </c>
       <c r="E846" t="inlineStr">
         <is>
-          <t>https://debrecenrent.hu/for-rent/flat/debrecen-peterfia-utca/210104/</t>
+          <t>https://debrecenrent.hu/for-rent/flat/debrecen-peterfia-utca/215070/</t>
         </is>
       </c>
     </row>
     <row r="847">
       <c r="A847" t="inlineStr">
         <is>
-          <t>170 000</t>
+          <t>190 000</t>
         </is>
       </c>
       <c r="B847" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>13</t>
         </is>
       </c>
       <c r="C847" t="inlineStr">
@@ -22238,7 +22234,7 @@
       </c>
       <c r="E847" t="inlineStr">
         <is>
-          <t>https://debrecenrent.hu/for-rent/flat/debrecen-peterfia-utca/215070/</t>
+          <t>https://debrecenrent.hu/for-rent/flat/debrecen-peterfia-utca/205429/</t>
         </is>
       </c>
     </row>
@@ -22250,7 +22246,7 @@
       </c>
       <c r="B848" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>14</t>
         </is>
       </c>
       <c r="C848" t="inlineStr">
@@ -22265,19 +22261,19 @@
       </c>
       <c r="E848" t="inlineStr">
         <is>
-          <t>https://debrecenrent.hu/for-rent/flat/debrecen-peterfia-utca/205429/</t>
+          <t>https://debrecenrent.hu/for-rent/flat/debrecen-peterfia-utca/205422/</t>
         </is>
       </c>
     </row>
     <row r="849">
       <c r="A849" t="inlineStr">
         <is>
-          <t>190 000</t>
+          <t>230 000</t>
         </is>
       </c>
       <c r="B849" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>54</t>
         </is>
       </c>
       <c r="C849" t="inlineStr">
@@ -22287,152 +22283,125 @@
       </c>
       <c r="D849" t="inlineStr">
         <is>
-          <t>Debrecen, Péterfia utca</t>
+          <t>Debrecen, Gönczy Pál utca</t>
         </is>
       </c>
       <c r="E849" t="inlineStr">
         <is>
-          <t>https://debrecenrent.hu/for-rent/flat/debrecen-peterfia-utca/205422/</t>
+          <t>https://debrecenrent.hu/for-rent/flat/debrecen-gonczy-pal-utca/216064/</t>
         </is>
       </c>
     </row>
     <row r="850">
       <c r="A850" t="inlineStr">
         <is>
-          <t>230 000</t>
-        </is>
-      </c>
-      <c r="B850" t="inlineStr">
-        <is>
-          <t>54</t>
-        </is>
-      </c>
-      <c r="C850" t="inlineStr">
-        <is>
-          <t>1 Bedrooms, 1 Bathrooms</t>
-        </is>
-      </c>
+          <t>600 000</t>
+        </is>
+      </c>
+      <c r="B850" t="inlineStr"/>
+      <c r="C850" t="inlineStr"/>
       <c r="D850" t="inlineStr">
         <is>
-          <t>Debrecen, Gönczy Pál utca</t>
+          <t>Hajdúszoboszló</t>
         </is>
       </c>
       <c r="E850" t="inlineStr">
         <is>
-          <t>https://debrecenrent.hu/for-rent/flat/debrecen-gonczy-pal-utca/216064/</t>
+          <t>https://debrecenrent.hu/for-rent/house/hajduszoboszlo-/214748/</t>
         </is>
       </c>
     </row>
     <row r="851">
       <c r="A851" t="inlineStr">
         <is>
-          <t>600 000</t>
-        </is>
-      </c>
-      <c r="B851" t="inlineStr"/>
-      <c r="C851" t="inlineStr"/>
+          <t>500 000</t>
+        </is>
+      </c>
+      <c r="B851" t="inlineStr">
+        <is>
+          <t>147</t>
+        </is>
+      </c>
+      <c r="C851" t="inlineStr">
+        <is>
+          <t>3 Bedrooms, 2 Bathrooms</t>
+        </is>
+      </c>
       <c r="D851" t="inlineStr">
         <is>
-          <t>Hajdúszoboszló</t>
+          <t>Hajdúszoboszló, Hőforrás utca</t>
         </is>
       </c>
       <c r="E851" t="inlineStr">
         <is>
-          <t>https://debrecenrent.hu/for-rent/house/hajduszoboszlo-/214748/</t>
+          <t>https://debrecenrent.hu/for-rent/house/hajduszoboszlo-hoforras-utca/214766/</t>
         </is>
       </c>
     </row>
     <row r="852">
-      <c r="A852" t="inlineStr">
-        <is>
-          <t>500 000</t>
-        </is>
-      </c>
-      <c r="B852" t="inlineStr">
-        <is>
-          <t>147</t>
-        </is>
-      </c>
-      <c r="C852" t="inlineStr">
-        <is>
-          <t>3 Bedrooms, 2 Bathrooms</t>
-        </is>
-      </c>
+      <c r="A852" t="inlineStr"/>
+      <c r="B852" t="inlineStr"/>
+      <c r="C852" t="inlineStr"/>
       <c r="D852" t="inlineStr">
         <is>
-          <t>Hajdúszoboszló, Hőforrás utca</t>
+          <t>Debrecen, Böszörményi út</t>
         </is>
       </c>
       <c r="E852" t="inlineStr">
         <is>
-          <t>https://debrecenrent.hu/for-rent/house/hajduszoboszlo-hoforras-utca/214766/</t>
+          <t>https://debrecenrent.hu/for-rent/flat/debrecen-boszormenyi-ut/212458/</t>
         </is>
       </c>
     </row>
     <row r="853">
-      <c r="A853" t="inlineStr"/>
-      <c r="B853" t="inlineStr"/>
-      <c r="C853" t="inlineStr"/>
+      <c r="A853" t="inlineStr">
+        <is>
+          <t>420 000</t>
+        </is>
+      </c>
+      <c r="B853" t="inlineStr">
+        <is>
+          <t>228</t>
+        </is>
+      </c>
+      <c r="C853" t="inlineStr">
+        <is>
+          <t>4 Bedrooms, 2 Bathrooms</t>
+        </is>
+      </c>
       <c r="D853" t="inlineStr">
         <is>
-          <t>Debrecen, Böszörményi út</t>
+          <t>Debrecen, Simonyi út</t>
         </is>
       </c>
       <c r="E853" t="inlineStr">
         <is>
-          <t>https://debrecenrent.hu/for-rent/flat/debrecen-boszormenyi-ut/212458/</t>
+          <t>https://debrecenrent.hu/for-rent/flat/debrecen-simonyi-ut/212003/</t>
         </is>
       </c>
     </row>
     <row r="854">
       <c r="A854" t="inlineStr">
         <is>
-          <t>420 000</t>
+          <t>220 000</t>
         </is>
       </c>
       <c r="B854" t="inlineStr">
         <is>
-          <t>228</t>
+          <t>71</t>
         </is>
       </c>
       <c r="C854" t="inlineStr">
         <is>
-          <t>4 Bedrooms, 2 Bathrooms</t>
+          <t>2 Bedrooms, 1 Bathrooms</t>
         </is>
       </c>
       <c r="D854" t="inlineStr">
         <is>
-          <t>Debrecen, Simonyi út</t>
+          <t>Debrecen, Böszörményi út</t>
         </is>
       </c>
       <c r="E854" t="inlineStr">
-        <is>
-          <t>https://debrecenrent.hu/for-rent/flat/debrecen-simonyi-ut/212003/</t>
-        </is>
-      </c>
-    </row>
-    <row r="855">
-      <c r="A855" t="inlineStr">
-        <is>
-          <t>220 000</t>
-        </is>
-      </c>
-      <c r="B855" t="inlineStr">
-        <is>
-          <t>71</t>
-        </is>
-      </c>
-      <c r="C855" t="inlineStr">
-        <is>
-          <t>2 Bedrooms, 1 Bathrooms</t>
-        </is>
-      </c>
-      <c r="D855" t="inlineStr">
-        <is>
-          <t>Debrecen, Böszörményi út</t>
-        </is>
-      </c>
-      <c r="E855" t="inlineStr">
         <is>
           <t>https://debrecenrent.hu/for-rent/flat/debrecen-boszormenyi-ut/209447/</t>
         </is>
